--- a/InplusTrader/futureBacktest/result/IF_macd/report.xlsx
+++ b/InplusTrader/futureBacktest/result/IF_macd/report.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="176">
   <si>
     <t>val</t>
   </si>
@@ -104,7 +104,7 @@
     <t>2016-01-04</t>
   </si>
   <si>
-    <t>/home/vinson/Downloads/InplusTrader-master/InplusTrader/futureBacktest/strategy/IF_macd.py</t>
+    <t>/home/vinson/PycharmProjects/InplusTrader_Linux/InplusTrader/futureBacktest/strategy/IF_macd.py</t>
   </si>
   <si>
     <t>IF_macd</t>
@@ -521,19 +521,19 @@
     <t>datetime</t>
   </si>
   <si>
-    <t>2016-02-04 15:00:00</t>
-  </si>
-  <si>
-    <t>2016-04-08 15:00:00</t>
-  </si>
-  <si>
-    <t>2016-04-15 15:00:00</t>
-  </si>
-  <si>
-    <t>2016-04-19 15:00:00</t>
-  </si>
-  <si>
-    <t>2016-05-30 15:00:00</t>
+    <t>2016-02-03 15:00:00</t>
+  </si>
+  <si>
+    <t>2016-04-07 15:00:00</t>
+  </si>
+  <si>
+    <t>2016-04-14 15:00:00</t>
+  </si>
+  <si>
+    <t>2016-04-18 15:00:00</t>
+  </si>
+  <si>
+    <t>2016-05-27 15:00:00</t>
   </si>
   <si>
     <t>OPEN</t>
@@ -924,7 +924,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.5580000000000001</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -937,7 +937,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>338612.607</v>
+        <v>330717.99</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -945,7 +945,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.348</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -969,7 +969,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-1.894</v>
+        <v>-1.724</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -977,7 +977,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.361</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1001,7 +1001,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-1.954</v>
+        <v>-1.778</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1009,7 +1009,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-2.168</v>
+        <v>-1.938</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1049,7 +1049,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-0.285</v>
+        <v>-0.293</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1057,7 +1057,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>714908.607</v>
+        <v>707013.99</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1065,7 +1065,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.386</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1073,7 +1073,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.715</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1089,7 +1089,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.386</v>
+        <v>0.429</v>
       </c>
     </row>
   </sheetData>
@@ -1915,31 +1915,31 @@
         <v>56</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>-0.427</v>
       </c>
       <c r="C24">
-        <v>670480</v>
+        <v>626246.105</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>-46249.895</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>-0.046</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>818760</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>-0.046</v>
       </c>
       <c r="I24">
-        <v>1000000</v>
+        <v>953750.105</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0.954</v>
       </c>
       <c r="K24">
         <v>1000000</v>
@@ -1950,31 +1950,31 @@
         <v>57</v>
       </c>
       <c r="B25">
-        <v>-0.364</v>
+        <v>-0.308</v>
       </c>
       <c r="C25">
-        <v>627775.9399999999</v>
+        <v>634958.105</v>
       </c>
       <c r="D25">
-        <v>-38912.06</v>
+        <v>14520</v>
       </c>
       <c r="E25">
-        <v>-0.039</v>
+        <v>0.015</v>
       </c>
       <c r="F25">
         <v>833280</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0.954</v>
       </c>
       <c r="H25">
-        <v>-0.039</v>
+        <v>-0.032</v>
       </c>
       <c r="I25">
-        <v>961087.9399999999</v>
+        <v>968270.105</v>
       </c>
       <c r="J25">
-        <v>0.961</v>
+        <v>0.968</v>
       </c>
       <c r="K25">
         <v>1000000</v>
@@ -1985,10 +1985,10 @@
         <v>58</v>
       </c>
       <c r="B26">
-        <v>-0.397</v>
+        <v>-0.345</v>
       </c>
       <c r="C26">
-        <v>624319.9399999999</v>
+        <v>631502.105</v>
       </c>
       <c r="D26">
         <v>-5760</v>
@@ -2000,16 +2000,16 @@
         <v>827520</v>
       </c>
       <c r="G26">
-        <v>0.961</v>
+        <v>0.968</v>
       </c>
       <c r="H26">
-        <v>-0.045</v>
+        <v>-0.037</v>
       </c>
       <c r="I26">
-        <v>955327.9399999999</v>
+        <v>962510.105</v>
       </c>
       <c r="J26">
-        <v>0.955</v>
+        <v>0.963</v>
       </c>
       <c r="K26">
         <v>1000000</v>
@@ -2020,10 +2020,10 @@
         <v>59</v>
       </c>
       <c r="B27">
-        <v>-0.357</v>
+        <v>-0.315</v>
       </c>
       <c r="C27">
-        <v>620683.9399999999</v>
+        <v>627866.105</v>
       </c>
       <c r="D27">
         <v>-6060</v>
@@ -2035,16 +2035,16 @@
         <v>821460</v>
       </c>
       <c r="G27">
-        <v>0.955</v>
+        <v>0.963</v>
       </c>
       <c r="H27">
-        <v>-0.051</v>
+        <v>-0.044</v>
       </c>
       <c r="I27">
-        <v>949267.9399999999</v>
+        <v>956450.105</v>
       </c>
       <c r="J27">
-        <v>0.949</v>
+        <v>0.956</v>
       </c>
       <c r="K27">
         <v>1000000</v>
@@ -2055,10 +2055,10 @@
         <v>60</v>
       </c>
       <c r="B28">
-        <v>-0.208</v>
+        <v>-0.158</v>
       </c>
       <c r="C28">
-        <v>634507.9399999999</v>
+        <v>641690.105</v>
       </c>
       <c r="D28">
         <v>23040</v>
@@ -2070,16 +2070,16 @@
         <v>844500</v>
       </c>
       <c r="G28">
-        <v>0.949</v>
+        <v>0.956</v>
       </c>
       <c r="H28">
-        <v>-0.028</v>
+        <v>-0.021</v>
       </c>
       <c r="I28">
-        <v>972307.9399999999</v>
+        <v>979490.105</v>
       </c>
       <c r="J28">
-        <v>0.972</v>
+        <v>0.979</v>
       </c>
       <c r="K28">
         <v>1000000</v>
@@ -2090,10 +2090,10 @@
         <v>61</v>
       </c>
       <c r="B29">
-        <v>-0.175</v>
+        <v>-0.125</v>
       </c>
       <c r="C29">
-        <v>637027.9399999999</v>
+        <v>644210.105</v>
       </c>
       <c r="D29">
         <v>4200</v>
@@ -2105,16 +2105,16 @@
         <v>848700</v>
       </c>
       <c r="G29">
-        <v>0.972</v>
+        <v>0.979</v>
       </c>
       <c r="H29">
-        <v>-0.023</v>
+        <v>-0.016</v>
       </c>
       <c r="I29">
-        <v>976507.9399999999</v>
+        <v>983690.105</v>
       </c>
       <c r="J29">
-        <v>0.977</v>
+        <v>0.984</v>
       </c>
       <c r="K29">
         <v>1000000</v>
@@ -2125,10 +2125,10 @@
         <v>62</v>
       </c>
       <c r="B30">
-        <v>-0.163</v>
+        <v>-0.113</v>
       </c>
       <c r="C30">
-        <v>637855.9399999999</v>
+        <v>645038.105</v>
       </c>
       <c r="D30">
         <v>1380</v>
@@ -2140,16 +2140,16 @@
         <v>850080</v>
       </c>
       <c r="G30">
-        <v>0.977</v>
+        <v>0.984</v>
       </c>
       <c r="H30">
-        <v>-0.022</v>
+        <v>-0.015</v>
       </c>
       <c r="I30">
-        <v>977887.9399999999</v>
+        <v>985070.105</v>
       </c>
       <c r="J30">
-        <v>0.978</v>
+        <v>0.985</v>
       </c>
       <c r="K30">
         <v>1000000</v>
@@ -2160,10 +2160,10 @@
         <v>63</v>
       </c>
       <c r="B31">
-        <v>-0.172</v>
+        <v>-0.123</v>
       </c>
       <c r="C31">
-        <v>636739.9399999999</v>
+        <v>643922.105</v>
       </c>
       <c r="D31">
         <v>-1860</v>
@@ -2175,16 +2175,16 @@
         <v>848220</v>
       </c>
       <c r="G31">
-        <v>0.978</v>
+        <v>0.985</v>
       </c>
       <c r="H31">
-        <v>-0.024</v>
+        <v>-0.017</v>
       </c>
       <c r="I31">
-        <v>976027.9399999999</v>
+        <v>983210.105</v>
       </c>
       <c r="J31">
-        <v>0.976</v>
+        <v>0.983</v>
       </c>
       <c r="K31">
         <v>1000000</v>
@@ -2195,10 +2195,10 @@
         <v>64</v>
       </c>
       <c r="B32">
-        <v>-0.07000000000000001</v>
+        <v>-0.02</v>
       </c>
       <c r="C32">
-        <v>645163.9399999999</v>
+        <v>652346.105</v>
       </c>
       <c r="D32">
         <v>14040</v>
@@ -2210,16 +2210,16 @@
         <v>862260</v>
       </c>
       <c r="G32">
-        <v>0.976</v>
+        <v>0.983</v>
       </c>
       <c r="H32">
-        <v>-0.01</v>
+        <v>-0.003</v>
       </c>
       <c r="I32">
-        <v>990067.9399999999</v>
+        <v>997250.105</v>
       </c>
       <c r="J32">
-        <v>0.99</v>
+        <v>0.997</v>
       </c>
       <c r="K32">
         <v>1000000</v>
@@ -2230,10 +2230,10 @@
         <v>65</v>
       </c>
       <c r="B33">
-        <v>-0.152</v>
+        <v>-0.106</v>
       </c>
       <c r="C33">
-        <v>637495.9399999999</v>
+        <v>644678.105</v>
       </c>
       <c r="D33">
         <v>-12780</v>
@@ -2245,16 +2245,16 @@
         <v>849480</v>
       </c>
       <c r="G33">
-        <v>0.99</v>
+        <v>0.997</v>
       </c>
       <c r="H33">
-        <v>-0.023</v>
+        <v>-0.016</v>
       </c>
       <c r="I33">
-        <v>977287.9399999999</v>
+        <v>984470.105</v>
       </c>
       <c r="J33">
-        <v>0.977</v>
+        <v>0.984</v>
       </c>
       <c r="K33">
         <v>1000000</v>
@@ -2265,10 +2265,10 @@
         <v>66</v>
       </c>
       <c r="B34">
-        <v>-0.132</v>
+        <v>-0.08599999999999999</v>
       </c>
       <c r="C34">
-        <v>639187.9399999999</v>
+        <v>646370.105</v>
       </c>
       <c r="D34">
         <v>2820</v>
@@ -2280,16 +2280,16 @@
         <v>852300</v>
       </c>
       <c r="G34">
-        <v>0.977</v>
+        <v>0.984</v>
       </c>
       <c r="H34">
-        <v>-0.02</v>
+        <v>-0.013</v>
       </c>
       <c r="I34">
-        <v>980107.9399999999</v>
+        <v>987290.105</v>
       </c>
       <c r="J34">
-        <v>0.98</v>
+        <v>0.987</v>
       </c>
       <c r="K34">
         <v>1000000</v>
@@ -2300,10 +2300,10 @@
         <v>67</v>
       </c>
       <c r="B35">
-        <v>-0.351</v>
+        <v>-0.316</v>
       </c>
       <c r="C35">
-        <v>614563.9399999999</v>
+        <v>621746.105</v>
       </c>
       <c r="D35">
         <v>-41040</v>
@@ -2315,16 +2315,16 @@
         <v>811260</v>
       </c>
       <c r="G35">
-        <v>0.98</v>
+        <v>0.987</v>
       </c>
       <c r="H35">
-        <v>-0.061</v>
+        <v>-0.054</v>
       </c>
       <c r="I35">
-        <v>939067.9399999999</v>
+        <v>946250.105</v>
       </c>
       <c r="J35">
-        <v>0.9389999999999999</v>
+        <v>0.946</v>
       </c>
       <c r="K35">
         <v>1000000</v>
@@ -2335,10 +2335,10 @@
         <v>68</v>
       </c>
       <c r="B36">
-        <v>-0.321</v>
+        <v>-0.285</v>
       </c>
       <c r="C36">
-        <v>617767.9399999999</v>
+        <v>624950.105</v>
       </c>
       <c r="D36">
         <v>5340</v>
@@ -2350,16 +2350,16 @@
         <v>816600</v>
       </c>
       <c r="G36">
-        <v>0.9389999999999999</v>
+        <v>0.946</v>
       </c>
       <c r="H36">
-        <v>-0.056</v>
+        <v>-0.048</v>
       </c>
       <c r="I36">
-        <v>944407.9399999999</v>
+        <v>951590.105</v>
       </c>
       <c r="J36">
-        <v>0.944</v>
+        <v>0.952</v>
       </c>
       <c r="K36">
         <v>1000000</v>
@@ -2370,10 +2370,10 @@
         <v>69</v>
       </c>
       <c r="B37">
-        <v>-0.44</v>
+        <v>-0.411</v>
       </c>
       <c r="C37">
-        <v>599191.9399999999</v>
+        <v>606374.105</v>
       </c>
       <c r="D37">
         <v>-30960</v>
@@ -2385,16 +2385,16 @@
         <v>785640</v>
       </c>
       <c r="G37">
-        <v>0.944</v>
+        <v>0.952</v>
       </c>
       <c r="H37">
-        <v>-0.08699999999999999</v>
+        <v>-0.079</v>
       </c>
       <c r="I37">
-        <v>913447.9399999999</v>
+        <v>920630.105</v>
       </c>
       <c r="J37">
-        <v>0.913</v>
+        <v>0.921</v>
       </c>
       <c r="K37">
         <v>1000000</v>
@@ -2405,10 +2405,10 @@
         <v>70</v>
       </c>
       <c r="B38">
-        <v>-0.317</v>
+        <v>-0.283</v>
       </c>
       <c r="C38">
-        <v>615895.9399999999</v>
+        <v>623078.105</v>
       </c>
       <c r="D38">
         <v>27840</v>
@@ -2420,16 +2420,16 @@
         <v>813480</v>
       </c>
       <c r="G38">
-        <v>0.913</v>
+        <v>0.921</v>
       </c>
       <c r="H38">
-        <v>-0.059</v>
+        <v>-0.052</v>
       </c>
       <c r="I38">
-        <v>941287.9399999999</v>
+        <v>948470.105</v>
       </c>
       <c r="J38">
-        <v>0.9409999999999999</v>
+        <v>0.948</v>
       </c>
       <c r="K38">
         <v>1000000</v>
@@ -2440,10 +2440,10 @@
         <v>71</v>
       </c>
       <c r="B39">
-        <v>-0.128</v>
+        <v>-0.08699999999999999</v>
       </c>
       <c r="C39">
-        <v>638035.9399999999</v>
+        <v>645218.105</v>
       </c>
       <c r="D39">
         <v>36900</v>
@@ -2455,16 +2455,16 @@
         <v>850380</v>
       </c>
       <c r="G39">
-        <v>0.9409999999999999</v>
+        <v>0.948</v>
       </c>
       <c r="H39">
-        <v>-0.022</v>
+        <v>-0.015</v>
       </c>
       <c r="I39">
-        <v>978187.9399999999</v>
+        <v>985370.105</v>
       </c>
       <c r="J39">
-        <v>0.978</v>
+        <v>0.985</v>
       </c>
       <c r="K39">
         <v>1000000</v>
@@ -2475,10 +2475,10 @@
         <v>72</v>
       </c>
       <c r="B40">
-        <v>-0.119</v>
+        <v>-0.079</v>
       </c>
       <c r="C40">
-        <v>638755.9399999999</v>
+        <v>645938.105</v>
       </c>
       <c r="D40">
         <v>1200</v>
@@ -2490,16 +2490,16 @@
         <v>851580</v>
       </c>
       <c r="G40">
-        <v>0.978</v>
+        <v>0.985</v>
       </c>
       <c r="H40">
-        <v>-0.021</v>
+        <v>-0.013</v>
       </c>
       <c r="I40">
-        <v>979387.9399999999</v>
+        <v>986570.105</v>
       </c>
       <c r="J40">
-        <v>0.979</v>
+        <v>0.987</v>
       </c>
       <c r="K40">
         <v>1000000</v>
@@ -2510,10 +2510,10 @@
         <v>73</v>
       </c>
       <c r="B41">
-        <v>-0.074</v>
+        <v>-0.033</v>
       </c>
       <c r="C41">
-        <v>643435.9399999999</v>
+        <v>650618.105</v>
       </c>
       <c r="D41">
         <v>7800</v>
@@ -2525,16 +2525,16 @@
         <v>859380</v>
       </c>
       <c r="G41">
-        <v>0.979</v>
+        <v>0.987</v>
       </c>
       <c r="H41">
-        <v>-0.013</v>
+        <v>-0.006</v>
       </c>
       <c r="I41">
-        <v>987187.9399999999</v>
+        <v>994370.105</v>
       </c>
       <c r="J41">
-        <v>0.987</v>
+        <v>0.994</v>
       </c>
       <c r="K41">
         <v>1000000</v>
@@ -2545,10 +2545,10 @@
         <v>74</v>
       </c>
       <c r="B42">
-        <v>-0.005</v>
+        <v>0.037</v>
       </c>
       <c r="C42">
-        <v>650599.9399999999</v>
+        <v>657782.105</v>
       </c>
       <c r="D42">
         <v>11940</v>
@@ -2560,16 +2560,16 @@
         <v>871320</v>
       </c>
       <c r="G42">
-        <v>0.987</v>
+        <v>0.994</v>
       </c>
       <c r="H42">
-        <v>-0.001</v>
+        <v>0.006</v>
       </c>
       <c r="I42">
-        <v>999127.9399999999</v>
+        <v>1006310.105</v>
       </c>
       <c r="J42">
-        <v>0.999</v>
+        <v>1.006</v>
       </c>
       <c r="K42">
         <v>1000000</v>
@@ -2580,10 +2580,10 @@
         <v>75</v>
       </c>
       <c r="B43">
-        <v>-0.026</v>
+        <v>0.015</v>
       </c>
       <c r="C43">
-        <v>648367.9399999999</v>
+        <v>655550.105</v>
       </c>
       <c r="D43">
         <v>-3720</v>
@@ -2595,16 +2595,16 @@
         <v>867600</v>
       </c>
       <c r="G43">
-        <v>0.999</v>
+        <v>1.006</v>
       </c>
       <c r="H43">
-        <v>-0.005</v>
+        <v>0.003</v>
       </c>
       <c r="I43">
-        <v>995407.9399999999</v>
+        <v>1002590.105</v>
       </c>
       <c r="J43">
-        <v>0.995</v>
+        <v>1.003</v>
       </c>
       <c r="K43">
         <v>1000000</v>
@@ -2615,10 +2615,10 @@
         <v>76</v>
       </c>
       <c r="B44">
-        <v>-0.081</v>
+        <v>-0.043</v>
       </c>
       <c r="C44">
-        <v>642031.9399999999</v>
+        <v>649214.105</v>
       </c>
       <c r="D44">
         <v>-10560</v>
@@ -2630,16 +2630,16 @@
         <v>857040</v>
       </c>
       <c r="G44">
-        <v>0.995</v>
+        <v>1.003</v>
       </c>
       <c r="H44">
-        <v>-0.015</v>
+        <v>-0.008</v>
       </c>
       <c r="I44">
-        <v>984847.9399999999</v>
+        <v>992030.105</v>
       </c>
       <c r="J44">
-        <v>0.985</v>
+        <v>0.992</v>
       </c>
       <c r="K44">
         <v>1000000</v>
@@ -2650,10 +2650,10 @@
         <v>77</v>
       </c>
       <c r="B45">
-        <v>-0.091</v>
+        <v>-0.054</v>
       </c>
       <c r="C45">
-        <v>640735.9399999999</v>
+        <v>647918.105</v>
       </c>
       <c r="D45">
         <v>-2160</v>
@@ -2665,16 +2665,16 @@
         <v>854880</v>
       </c>
       <c r="G45">
-        <v>0.985</v>
+        <v>0.992</v>
       </c>
       <c r="H45">
-        <v>-0.017</v>
+        <v>-0.01</v>
       </c>
       <c r="I45">
-        <v>982687.9399999999</v>
+        <v>989870.105</v>
       </c>
       <c r="J45">
-        <v>0.983</v>
+        <v>0.99</v>
       </c>
       <c r="K45">
         <v>1000000</v>
@@ -2685,10 +2685,10 @@
         <v>78</v>
       </c>
       <c r="B46">
-        <v>-0.122</v>
+        <v>-0.08599999999999999</v>
       </c>
       <c r="C46">
-        <v>636811.9399999999</v>
+        <v>643994.105</v>
       </c>
       <c r="D46">
         <v>-6540</v>
@@ -2700,16 +2700,16 @@
         <v>848340</v>
       </c>
       <c r="G46">
+        <v>0.99</v>
+      </c>
+      <c r="H46">
+        <v>-0.017</v>
+      </c>
+      <c r="I46">
+        <v>983330.105</v>
+      </c>
+      <c r="J46">
         <v>0.983</v>
-      </c>
-      <c r="H46">
-        <v>-0.024</v>
-      </c>
-      <c r="I46">
-        <v>976147.9399999999</v>
-      </c>
-      <c r="J46">
-        <v>0.976</v>
       </c>
       <c r="K46">
         <v>1000000</v>
@@ -2720,10 +2720,10 @@
         <v>79</v>
       </c>
       <c r="B47">
-        <v>-0.005</v>
+        <v>0.033</v>
       </c>
       <c r="C47">
-        <v>650563.9399999999</v>
+        <v>657746.105</v>
       </c>
       <c r="D47">
         <v>22920</v>
@@ -2735,16 +2735,16 @@
         <v>871260</v>
       </c>
       <c r="G47">
-        <v>0.976</v>
+        <v>0.983</v>
       </c>
       <c r="H47">
-        <v>-0.001</v>
+        <v>0.006</v>
       </c>
       <c r="I47">
-        <v>999067.9399999999</v>
+        <v>1006250.105</v>
       </c>
       <c r="J47">
-        <v>0.999</v>
+        <v>1.006</v>
       </c>
       <c r="K47">
         <v>1000000</v>
@@ -2755,10 +2755,10 @@
         <v>80</v>
       </c>
       <c r="B48">
-        <v>-0.046</v>
+        <v>-0.01</v>
       </c>
       <c r="C48">
-        <v>645595.9399999999</v>
+        <v>652778.105</v>
       </c>
       <c r="D48">
         <v>-8280</v>
@@ -2770,16 +2770,16 @@
         <v>862980</v>
       </c>
       <c r="G48">
-        <v>0.999</v>
+        <v>1.006</v>
       </c>
       <c r="H48">
-        <v>-0.008999999999999999</v>
+        <v>-0.002</v>
       </c>
       <c r="I48">
-        <v>990787.9399999999</v>
+        <v>997970.105</v>
       </c>
       <c r="J48">
-        <v>0.991</v>
+        <v>0.998</v>
       </c>
       <c r="K48">
         <v>1000000</v>
@@ -2790,10 +2790,10 @@
         <v>81</v>
       </c>
       <c r="B49">
-        <v>-0.025</v>
+        <v>0.011</v>
       </c>
       <c r="C49">
-        <v>648151.9399999999</v>
+        <v>655334.105</v>
       </c>
       <c r="D49">
         <v>4260</v>
@@ -2805,16 +2805,16 @@
         <v>867240</v>
       </c>
       <c r="G49">
-        <v>0.991</v>
+        <v>0.998</v>
       </c>
       <c r="H49">
-        <v>-0.005</v>
+        <v>0.002</v>
       </c>
       <c r="I49">
-        <v>995047.9399999999</v>
+        <v>1002230.105</v>
       </c>
       <c r="J49">
-        <v>0.995</v>
+        <v>1.002</v>
       </c>
       <c r="K49">
         <v>1000000</v>
@@ -2825,10 +2825,10 @@
         <v>82</v>
       </c>
       <c r="B50">
-        <v>0.093</v>
+        <v>0.132</v>
       </c>
       <c r="C50">
-        <v>662083.9399999999</v>
+        <v>669266.105</v>
       </c>
       <c r="D50">
         <v>23220</v>
@@ -2840,16 +2840,16 @@
         <v>890460</v>
       </c>
       <c r="G50">
-        <v>0.995</v>
+        <v>1.002</v>
       </c>
       <c r="H50">
-        <v>0.018</v>
+        <v>0.025</v>
       </c>
       <c r="I50">
-        <v>1018267.94</v>
+        <v>1025450.105</v>
       </c>
       <c r="J50">
-        <v>1.018</v>
+        <v>1.025</v>
       </c>
       <c r="K50">
         <v>1000000</v>
@@ -2860,10 +2860,10 @@
         <v>83</v>
       </c>
       <c r="B51">
-        <v>0.231</v>
+        <v>0.273</v>
       </c>
       <c r="C51">
-        <v>677275.9399999999</v>
+        <v>684458.105</v>
       </c>
       <c r="D51">
         <v>25320</v>
@@ -2875,16 +2875,16 @@
         <v>915780</v>
       </c>
       <c r="G51">
-        <v>1.018</v>
+        <v>1.025</v>
       </c>
       <c r="H51">
-        <v>0.044</v>
+        <v>0.051</v>
       </c>
       <c r="I51">
-        <v>1043587.94</v>
+        <v>1050770.105</v>
       </c>
       <c r="J51">
-        <v>1.044</v>
+        <v>1.051</v>
       </c>
       <c r="K51">
         <v>1000000</v>
@@ -2895,31 +2895,31 @@
         <v>84</v>
       </c>
       <c r="B52">
-        <v>0.368</v>
+        <v>0.411</v>
       </c>
       <c r="C52">
-        <v>692647.9399999999</v>
+        <v>699830.105</v>
       </c>
       <c r="D52">
         <v>25620</v>
       </c>
       <c r="E52">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="F52">
         <v>941400</v>
       </c>
       <c r="G52">
-        <v>1.044</v>
+        <v>1.051</v>
       </c>
       <c r="H52">
-        <v>0.06900000000000001</v>
+        <v>0.076</v>
       </c>
       <c r="I52">
-        <v>1069207.94</v>
+        <v>1076390.105</v>
       </c>
       <c r="J52">
-        <v>1.069</v>
+        <v>1.076</v>
       </c>
       <c r="K52">
         <v>1000000</v>
@@ -2930,10 +2930,10 @@
         <v>85</v>
       </c>
       <c r="B53">
-        <v>0.343</v>
+        <v>0.386</v>
       </c>
       <c r="C53">
-        <v>690703.9399999999</v>
+        <v>697886.105</v>
       </c>
       <c r="D53">
         <v>-3240</v>
@@ -2945,16 +2945,16 @@
         <v>938160</v>
       </c>
       <c r="G53">
-        <v>1.069</v>
+        <v>1.076</v>
       </c>
       <c r="H53">
-        <v>0.066</v>
+        <v>0.073</v>
       </c>
       <c r="I53">
-        <v>1065967.94</v>
+        <v>1073150.105</v>
       </c>
       <c r="J53">
-        <v>1.066</v>
+        <v>1.073</v>
       </c>
       <c r="K53">
         <v>1000000</v>
@@ -2965,10 +2965,10 @@
         <v>86</v>
       </c>
       <c r="B54">
-        <v>0.314</v>
+        <v>0.355</v>
       </c>
       <c r="C54">
-        <v>688111.9399999999</v>
+        <v>695294.105</v>
       </c>
       <c r="D54">
         <v>-4320</v>
@@ -2980,16 +2980,16 @@
         <v>933840</v>
       </c>
       <c r="G54">
-        <v>1.066</v>
+        <v>1.073</v>
       </c>
       <c r="H54">
-        <v>0.062</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I54">
-        <v>1061647.94</v>
+        <v>1068830.105</v>
       </c>
       <c r="J54">
-        <v>1.062</v>
+        <v>1.069</v>
       </c>
       <c r="K54">
         <v>1000000</v>
@@ -3000,10 +3000,10 @@
         <v>87</v>
       </c>
       <c r="B55">
-        <v>0.239</v>
+        <v>0.278</v>
       </c>
       <c r="C55">
-        <v>680335.9399999999</v>
+        <v>687518.105</v>
       </c>
       <c r="D55">
         <v>-12960</v>
@@ -3015,16 +3015,16 @@
         <v>920880</v>
       </c>
       <c r="G55">
-        <v>1.062</v>
+        <v>1.069</v>
       </c>
       <c r="H55">
-        <v>0.049</v>
+        <v>0.056</v>
       </c>
       <c r="I55">
-        <v>1048687.94</v>
+        <v>1055870.105</v>
       </c>
       <c r="J55">
-        <v>1.049</v>
+        <v>1.056</v>
       </c>
       <c r="K55">
         <v>1000000</v>
@@ -3035,10 +3035,10 @@
         <v>88</v>
       </c>
       <c r="B56">
-        <v>0.233</v>
+        <v>0.272</v>
       </c>
       <c r="C56">
-        <v>680083.9399999999</v>
+        <v>687266.105</v>
       </c>
       <c r="D56">
         <v>-420</v>
@@ -3050,16 +3050,16 @@
         <v>920460</v>
       </c>
       <c r="G56">
-        <v>1.049</v>
+        <v>1.056</v>
       </c>
       <c r="H56">
-        <v>0.048</v>
+        <v>0.055</v>
       </c>
       <c r="I56">
-        <v>1048267.94</v>
+        <v>1055450.105</v>
       </c>
       <c r="J56">
-        <v>1.048</v>
+        <v>1.055</v>
       </c>
       <c r="K56">
         <v>1000000</v>
@@ -3070,10 +3070,10 @@
         <v>89</v>
       </c>
       <c r="B57">
-        <v>0.199</v>
+        <v>0.235</v>
       </c>
       <c r="C57">
-        <v>677023.9399999999</v>
+        <v>684206.105</v>
       </c>
       <c r="D57">
         <v>-5100</v>
@@ -3085,16 +3085,16 @@
         <v>915360</v>
       </c>
       <c r="G57">
-        <v>1.048</v>
+        <v>1.055</v>
       </c>
       <c r="H57">
-        <v>0.043</v>
+        <v>0.05</v>
       </c>
       <c r="I57">
-        <v>1043167.94</v>
+        <v>1050350.105</v>
       </c>
       <c r="J57">
-        <v>1.043</v>
+        <v>1.05</v>
       </c>
       <c r="K57">
         <v>1000000</v>
@@ -3105,10 +3105,10 @@
         <v>90</v>
       </c>
       <c r="B58">
-        <v>0.13</v>
+        <v>0.164</v>
       </c>
       <c r="C58">
-        <v>668635.9399999999</v>
+        <v>675818.105</v>
       </c>
       <c r="D58">
         <v>-13980</v>
@@ -3120,16 +3120,16 @@
         <v>901380</v>
       </c>
       <c r="G58">
-        <v>1.043</v>
+        <v>1.05</v>
       </c>
       <c r="H58">
-        <v>0.029</v>
+        <v>0.036</v>
       </c>
       <c r="I58">
-        <v>1029187.94</v>
+        <v>1036370.105</v>
       </c>
       <c r="J58">
-        <v>1.029</v>
+        <v>1.036</v>
       </c>
       <c r="K58">
         <v>1000000</v>
@@ -3140,31 +3140,31 @@
         <v>91</v>
       </c>
       <c r="B59">
-        <v>0.244</v>
+        <v>0.28</v>
       </c>
       <c r="C59">
-        <v>683179.9399999999</v>
+        <v>690362.105</v>
       </c>
       <c r="D59">
         <v>24240</v>
       </c>
       <c r="E59">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="F59">
         <v>925620</v>
       </c>
       <c r="G59">
-        <v>1.029</v>
+        <v>1.036</v>
       </c>
       <c r="H59">
-        <v>0.053</v>
+        <v>0.061</v>
       </c>
       <c r="I59">
-        <v>1053427.94</v>
+        <v>1060610.105</v>
       </c>
       <c r="J59">
-        <v>1.053</v>
+        <v>1.061</v>
       </c>
       <c r="K59">
         <v>1000000</v>
@@ -3175,10 +3175,10 @@
         <v>92</v>
       </c>
       <c r="B60">
-        <v>0.25</v>
+        <v>0.286</v>
       </c>
       <c r="C60">
-        <v>684295.9399999999</v>
+        <v>691478.105</v>
       </c>
       <c r="D60">
         <v>1860</v>
@@ -3190,16 +3190,16 @@
         <v>927480</v>
       </c>
       <c r="G60">
-        <v>1.053</v>
+        <v>1.061</v>
       </c>
       <c r="H60">
-        <v>0.055</v>
+        <v>0.062</v>
       </c>
       <c r="I60">
-        <v>1055287.94</v>
+        <v>1062470.105</v>
       </c>
       <c r="J60">
-        <v>1.055</v>
+        <v>1.062</v>
       </c>
       <c r="K60">
         <v>1000000</v>
@@ -3210,10 +3210,10 @@
         <v>93</v>
       </c>
       <c r="B61">
-        <v>0.245</v>
+        <v>0.28</v>
       </c>
       <c r="C61">
-        <v>684043.9399999999</v>
+        <v>691226.105</v>
       </c>
       <c r="D61">
         <v>-420</v>
@@ -3225,16 +3225,16 @@
         <v>927060</v>
       </c>
       <c r="G61">
-        <v>1.055</v>
+        <v>1.062</v>
       </c>
       <c r="H61">
-        <v>0.055</v>
+        <v>0.062</v>
       </c>
       <c r="I61">
-        <v>1054867.94</v>
+        <v>1062050.105</v>
       </c>
       <c r="J61">
-        <v>1.055</v>
+        <v>1.062</v>
       </c>
       <c r="K61">
         <v>1000000</v>
@@ -3245,10 +3245,10 @@
         <v>94</v>
       </c>
       <c r="B62">
-        <v>0.314</v>
+        <v>0.348</v>
       </c>
       <c r="C62">
-        <v>694303.9399999999</v>
+        <v>701486.105</v>
       </c>
       <c r="D62">
         <v>17100</v>
@@ -3260,16 +3260,16 @@
         <v>944160</v>
       </c>
       <c r="G62">
-        <v>1.055</v>
+        <v>1.062</v>
       </c>
       <c r="H62">
-        <v>0.07199999999999999</v>
+        <v>0.079</v>
       </c>
       <c r="I62">
-        <v>1071967.94</v>
+        <v>1079150.105</v>
       </c>
       <c r="J62">
-        <v>1.072</v>
+        <v>1.079</v>
       </c>
       <c r="K62">
         <v>1000000</v>
@@ -3280,10 +3280,10 @@
         <v>95</v>
       </c>
       <c r="B63">
-        <v>0.294</v>
+        <v>0.328</v>
       </c>
       <c r="C63">
-        <v>692323.9399999999</v>
+        <v>699506.105</v>
       </c>
       <c r="D63">
         <v>-3300</v>
@@ -3295,16 +3295,16 @@
         <v>940860</v>
       </c>
       <c r="G63">
-        <v>1.072</v>
+        <v>1.079</v>
       </c>
       <c r="H63">
-        <v>0.06900000000000001</v>
+        <v>0.076</v>
       </c>
       <c r="I63">
-        <v>1068667.94</v>
+        <v>1075850.105</v>
       </c>
       <c r="J63">
-        <v>1.069</v>
+        <v>1.076</v>
       </c>
       <c r="K63">
         <v>1000000</v>
@@ -3315,31 +3315,31 @@
         <v>96</v>
       </c>
       <c r="B64">
-        <v>0.252</v>
+        <v>-0.185</v>
       </c>
       <c r="C64">
-        <v>-57304.06</v>
+        <v>575255.83</v>
       </c>
       <c r="D64">
-        <v>-8340</v>
+        <v>-127586.275</v>
       </c>
       <c r="E64">
-        <v>-0.008</v>
+        <v>-0.119</v>
       </c>
       <c r="F64">
-        <v>932520</v>
+        <v>-932520</v>
       </c>
       <c r="G64">
-        <v>1.069</v>
+        <v>1.076</v>
       </c>
       <c r="H64">
-        <v>0.06</v>
+        <v>-0.052</v>
       </c>
       <c r="I64">
-        <v>1060327.94</v>
+        <v>948263.83</v>
       </c>
       <c r="J64">
-        <v>1.06</v>
+        <v>0.948</v>
       </c>
       <c r="K64">
         <v>1000000</v>
@@ -3350,31 +3350,31 @@
         <v>97</v>
       </c>
       <c r="B65">
-        <v>-0.179</v>
+        <v>-0.137</v>
       </c>
       <c r="C65">
-        <v>582111.4300000001</v>
+        <v>594575.83</v>
       </c>
       <c r="D65">
-        <v>-110728.51</v>
+        <v>13800</v>
       </c>
       <c r="E65">
-        <v>-0.104</v>
+        <v>0.015</v>
       </c>
       <c r="F65">
         <v>-918720</v>
       </c>
       <c r="G65">
-        <v>1.06</v>
+        <v>0.948</v>
       </c>
       <c r="H65">
-        <v>-0.05</v>
+        <v>-0.038</v>
       </c>
       <c r="I65">
-        <v>949599.4300000001</v>
+        <v>962063.83</v>
       </c>
       <c r="J65">
-        <v>0.95</v>
+        <v>0.962</v>
       </c>
       <c r="K65">
         <v>1000000</v>
@@ -3385,31 +3385,31 @@
         <v>98</v>
       </c>
       <c r="B66">
-        <v>-0.241</v>
+        <v>-0.203</v>
       </c>
       <c r="C66">
-        <v>551871.4300000001</v>
+        <v>564335.83</v>
       </c>
       <c r="D66">
         <v>-21600</v>
       </c>
       <c r="E66">
-        <v>-0.023</v>
+        <v>-0.022</v>
       </c>
       <c r="F66">
         <v>-940320</v>
       </c>
       <c r="G66">
-        <v>0.95</v>
+        <v>0.962</v>
       </c>
       <c r="H66">
-        <v>-0.07199999999999999</v>
+        <v>-0.06</v>
       </c>
       <c r="I66">
-        <v>927999.4300000001</v>
+        <v>940463.83</v>
       </c>
       <c r="J66">
-        <v>0.928</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K66">
         <v>1000000</v>
@@ -3420,10 +3420,10 @@
         <v>99</v>
       </c>
       <c r="B67">
-        <v>-0.216</v>
+        <v>-0.177</v>
       </c>
       <c r="C67">
-        <v>562455.4300000001</v>
+        <v>574919.83</v>
       </c>
       <c r="D67">
         <v>7560</v>
@@ -3435,16 +3435,16 @@
         <v>-932760</v>
       </c>
       <c r="G67">
-        <v>0.928</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H67">
-        <v>-0.064</v>
+        <v>-0.052</v>
       </c>
       <c r="I67">
-        <v>935559.4300000001</v>
+        <v>948023.83</v>
       </c>
       <c r="J67">
-        <v>0.9360000000000001</v>
+        <v>0.948</v>
       </c>
       <c r="K67">
         <v>1000000</v>
@@ -3455,10 +3455,10 @@
         <v>100</v>
       </c>
       <c r="B68">
-        <v>-0.286</v>
+        <v>-0.25</v>
       </c>
       <c r="C68">
-        <v>528267.4300000001</v>
+        <v>540731.83</v>
       </c>
       <c r="D68">
         <v>-24420</v>
@@ -3470,16 +3470,16 @@
         <v>-957180</v>
       </c>
       <c r="G68">
-        <v>0.9360000000000001</v>
+        <v>0.948</v>
       </c>
       <c r="H68">
-        <v>-0.089</v>
+        <v>-0.076</v>
       </c>
       <c r="I68">
-        <v>911139.4300000001</v>
+        <v>923603.83</v>
       </c>
       <c r="J68">
-        <v>0.911</v>
+        <v>0.924</v>
       </c>
       <c r="K68">
         <v>1000000</v>
@@ -3490,31 +3490,31 @@
         <v>101</v>
       </c>
       <c r="B69">
-        <v>-0.28</v>
+        <v>-0.452</v>
       </c>
       <c r="C69">
-        <v>-236132.57</v>
+        <v>462685.578</v>
       </c>
       <c r="D69">
-        <v>1200</v>
+        <v>-78526.25199999999</v>
       </c>
       <c r="E69">
-        <v>0.001</v>
+        <v>-0.08500000000000001</v>
       </c>
       <c r="F69">
-        <v>-955980</v>
+        <v>955980</v>
       </c>
       <c r="G69">
-        <v>0.911</v>
+        <v>0.924</v>
       </c>
       <c r="H69">
-        <v>-0.08799999999999999</v>
+        <v>-0.155</v>
       </c>
       <c r="I69">
-        <v>912339.4300000001</v>
+        <v>845077.578</v>
       </c>
       <c r="J69">
-        <v>0.912</v>
+        <v>0.845</v>
       </c>
       <c r="K69">
         <v>1000000</v>
@@ -3525,31 +3525,31 @@
         <v>102</v>
       </c>
       <c r="B70">
-        <v>-0.477</v>
+        <v>-0.449</v>
       </c>
       <c r="C70">
-        <v>450665.178</v>
+        <v>462649.578</v>
       </c>
       <c r="D70">
-        <v>-79306.25199999999</v>
+        <v>-60</v>
       </c>
       <c r="E70">
-        <v>-0.08699999999999999</v>
+        <v>-0</v>
       </c>
       <c r="F70">
         <v>955920</v>
       </c>
       <c r="G70">
-        <v>0.912</v>
+        <v>0.845</v>
       </c>
       <c r="H70">
-        <v>-0.167</v>
+        <v>-0.155</v>
       </c>
       <c r="I70">
-        <v>833033.178</v>
+        <v>845017.578</v>
       </c>
       <c r="J70">
-        <v>0.833</v>
+        <v>0.845</v>
       </c>
       <c r="K70">
         <v>1000000</v>
@@ -3560,31 +3560,31 @@
         <v>103</v>
       </c>
       <c r="B71">
-        <v>-0.492</v>
+        <v>-0.6870000000000001</v>
       </c>
       <c r="C71">
-        <v>-311046.822</v>
+        <v>335708.347</v>
       </c>
       <c r="D71">
-        <v>-11520</v>
+        <v>-131549.231</v>
       </c>
       <c r="E71">
-        <v>-0.014</v>
+        <v>-0.156</v>
       </c>
       <c r="F71">
-        <v>944400</v>
+        <v>-944400</v>
       </c>
       <c r="G71">
-        <v>0.833</v>
+        <v>0.845</v>
       </c>
       <c r="H71">
-        <v>-0.178</v>
+        <v>-0.287</v>
       </c>
       <c r="I71">
-        <v>821513.178</v>
+        <v>713468.347</v>
       </c>
       <c r="J71">
-        <v>0.822</v>
+        <v>0.713</v>
       </c>
       <c r="K71">
         <v>1000000</v>
@@ -3595,31 +3595,31 @@
         <v>104</v>
       </c>
       <c r="B72">
-        <v>-0.673</v>
+        <v>-0.6830000000000001</v>
       </c>
       <c r="C72">
-        <v>342820.482</v>
+        <v>336380.347</v>
       </c>
       <c r="D72">
-        <v>-101124.696</v>
+        <v>480</v>
       </c>
       <c r="E72">
-        <v>-0.123</v>
+        <v>0.001</v>
       </c>
       <c r="F72">
         <v>-943920</v>
       </c>
       <c r="G72">
-        <v>0.822</v>
+        <v>0.713</v>
       </c>
       <c r="H72">
-        <v>-0.28</v>
+        <v>-0.286</v>
       </c>
       <c r="I72">
-        <v>720388.482</v>
+        <v>713948.347</v>
       </c>
       <c r="J72">
-        <v>0.72</v>
+        <v>0.714</v>
       </c>
       <c r="K72">
         <v>1000000</v>
@@ -3630,31 +3630,31 @@
         <v>105</v>
       </c>
       <c r="B73">
-        <v>-0.629</v>
+        <v>-0.639</v>
       </c>
       <c r="C73">
-        <v>378520.482</v>
+        <v>372080.347</v>
       </c>
       <c r="D73">
         <v>25500</v>
       </c>
       <c r="E73">
-        <v>0.035</v>
+        <v>0.036</v>
       </c>
       <c r="F73">
         <v>-918420</v>
       </c>
       <c r="G73">
-        <v>0.72</v>
+        <v>0.714</v>
       </c>
       <c r="H73">
-        <v>-0.254</v>
+        <v>-0.261</v>
       </c>
       <c r="I73">
-        <v>745888.482</v>
+        <v>739448.347</v>
       </c>
       <c r="J73">
-        <v>0.746</v>
+        <v>0.739</v>
       </c>
       <c r="K73">
         <v>1000000</v>
@@ -3665,31 +3665,31 @@
         <v>106</v>
       </c>
       <c r="B74">
-        <v>-0.642</v>
+        <v>-0.652</v>
       </c>
       <c r="C74">
-        <v>364492.482</v>
+        <v>358052.347</v>
       </c>
       <c r="D74">
         <v>-10020</v>
       </c>
       <c r="E74">
-        <v>-0.013</v>
+        <v>-0.014</v>
       </c>
       <c r="F74">
         <v>-928440</v>
       </c>
       <c r="G74">
-        <v>0.746</v>
+        <v>0.739</v>
       </c>
       <c r="H74">
-        <v>-0.264</v>
+        <v>-0.271</v>
       </c>
       <c r="I74">
-        <v>735868.482</v>
+        <v>729428.347</v>
       </c>
       <c r="J74">
-        <v>0.736</v>
+        <v>0.729</v>
       </c>
       <c r="K74">
         <v>1000000</v>
@@ -3700,10 +3700,10 @@
         <v>107</v>
       </c>
       <c r="B75">
-        <v>-0.639</v>
+        <v>-0.649</v>
       </c>
       <c r="C75">
-        <v>364324.482</v>
+        <v>357884.347</v>
       </c>
       <c r="D75">
         <v>-120</v>
@@ -3715,16 +3715,16 @@
         <v>-928560</v>
       </c>
       <c r="G75">
-        <v>0.736</v>
+        <v>0.729</v>
       </c>
       <c r="H75">
-        <v>-0.264</v>
+        <v>-0.271</v>
       </c>
       <c r="I75">
-        <v>735748.482</v>
+        <v>729308.347</v>
       </c>
       <c r="J75">
-        <v>0.736</v>
+        <v>0.729</v>
       </c>
       <c r="K75">
         <v>1000000</v>
@@ -3735,10 +3735,10 @@
         <v>108</v>
       </c>
       <c r="B76">
-        <v>-0.623</v>
+        <v>-0.633</v>
       </c>
       <c r="C76">
-        <v>369448.482</v>
+        <v>363008.347</v>
       </c>
       <c r="D76">
         <v>3660</v>
@@ -3750,16 +3750,16 @@
         <v>-924900</v>
       </c>
       <c r="G76">
-        <v>0.736</v>
+        <v>0.729</v>
       </c>
       <c r="H76">
-        <v>-0.261</v>
+        <v>-0.267</v>
       </c>
       <c r="I76">
-        <v>739408.482</v>
+        <v>732968.347</v>
       </c>
       <c r="J76">
-        <v>0.739</v>
+        <v>0.733</v>
       </c>
       <c r="K76">
         <v>1000000</v>
@@ -3770,10 +3770,10 @@
         <v>109</v>
       </c>
       <c r="B77">
-        <v>-0.622</v>
+        <v>-0.632</v>
       </c>
       <c r="C77">
-        <v>367684.482</v>
+        <v>361244.347</v>
       </c>
       <c r="D77">
         <v>-1260</v>
@@ -3785,16 +3785,16 @@
         <v>-926160</v>
       </c>
       <c r="G77">
-        <v>0.739</v>
+        <v>0.733</v>
       </c>
       <c r="H77">
-        <v>-0.262</v>
+        <v>-0.268</v>
       </c>
       <c r="I77">
-        <v>738148.482</v>
+        <v>731708.347</v>
       </c>
       <c r="J77">
-        <v>0.738</v>
+        <v>0.732</v>
       </c>
       <c r="K77">
         <v>1000000</v>
@@ -3805,10 +3805,10 @@
         <v>110</v>
       </c>
       <c r="B78">
-        <v>-0.618</v>
+        <v>-0.628</v>
       </c>
       <c r="C78">
-        <v>368188.482</v>
+        <v>361748.347</v>
       </c>
       <c r="D78">
         <v>360</v>
@@ -3820,16 +3820,16 @@
         <v>-925800</v>
       </c>
       <c r="G78">
-        <v>0.738</v>
+        <v>0.732</v>
       </c>
       <c r="H78">
-        <v>-0.261</v>
+        <v>-0.268</v>
       </c>
       <c r="I78">
-        <v>738508.482</v>
+        <v>732068.347</v>
       </c>
       <c r="J78">
-        <v>0.739</v>
+        <v>0.732</v>
       </c>
       <c r="K78">
         <v>1000000</v>
@@ -3840,10 +3840,10 @@
         <v>111</v>
       </c>
       <c r="B79">
-        <v>-0.611</v>
+        <v>-0.621</v>
       </c>
       <c r="C79">
-        <v>371632.482</v>
+        <v>365192.347</v>
       </c>
       <c r="D79">
         <v>2460</v>
@@ -3855,16 +3855,16 @@
         <v>-923340</v>
       </c>
       <c r="G79">
-        <v>0.739</v>
+        <v>0.732</v>
       </c>
       <c r="H79">
-        <v>-0.259</v>
+        <v>-0.265</v>
       </c>
       <c r="I79">
-        <v>740968.482</v>
+        <v>734528.347</v>
       </c>
       <c r="J79">
-        <v>0.741</v>
+        <v>0.735</v>
       </c>
       <c r="K79">
         <v>1000000</v>
@@ -3875,10 +3875,10 @@
         <v>112</v>
       </c>
       <c r="B80">
-        <v>-0.614</v>
+        <v>-0.624</v>
       </c>
       <c r="C80">
-        <v>366256.482</v>
+        <v>359816.347</v>
       </c>
       <c r="D80">
         <v>-3840</v>
@@ -3890,16 +3890,16 @@
         <v>-927180</v>
       </c>
       <c r="G80">
-        <v>0.741</v>
+        <v>0.735</v>
       </c>
       <c r="H80">
-        <v>-0.263</v>
+        <v>-0.269</v>
       </c>
       <c r="I80">
-        <v>737128.482</v>
+        <v>730688.347</v>
       </c>
       <c r="J80">
-        <v>0.737</v>
+        <v>0.731</v>
       </c>
       <c r="K80">
         <v>1000000</v>
@@ -3910,10 +3910,10 @@
         <v>113</v>
       </c>
       <c r="B81">
-        <v>-0.628</v>
+        <v>-0.638</v>
       </c>
       <c r="C81">
-        <v>342652.482</v>
+        <v>336212.347</v>
       </c>
       <c r="D81">
         <v>-16860</v>
@@ -3925,16 +3925,16 @@
         <v>-944040</v>
       </c>
       <c r="G81">
-        <v>0.737</v>
+        <v>0.731</v>
       </c>
       <c r="H81">
-        <v>-0.28</v>
+        <v>-0.286</v>
       </c>
       <c r="I81">
-        <v>720268.482</v>
+        <v>713828.347</v>
       </c>
       <c r="J81">
-        <v>0.72</v>
+        <v>0.714</v>
       </c>
       <c r="K81">
         <v>1000000</v>
@@ -3945,10 +3945,10 @@
         <v>114</v>
       </c>
       <c r="B82">
-        <v>-0.625</v>
+        <v>-0.635</v>
       </c>
       <c r="C82">
-        <v>343324.482</v>
+        <v>336884.347</v>
       </c>
       <c r="D82">
         <v>480</v>
@@ -3960,16 +3960,16 @@
         <v>-943560</v>
       </c>
       <c r="G82">
-        <v>0.72</v>
+        <v>0.714</v>
       </c>
       <c r="H82">
-        <v>-0.279</v>
+        <v>-0.286</v>
       </c>
       <c r="I82">
-        <v>720748.482</v>
+        <v>714308.347</v>
       </c>
       <c r="J82">
-        <v>0.721</v>
+        <v>0.714</v>
       </c>
       <c r="K82">
         <v>1000000</v>
@@ -3980,10 +3980,10 @@
         <v>115</v>
       </c>
       <c r="B83">
-        <v>-0.621</v>
+        <v>-0.631</v>
       </c>
       <c r="C83">
-        <v>344080.482</v>
+        <v>337640.347</v>
       </c>
       <c r="D83">
         <v>540</v>
@@ -3995,16 +3995,16 @@
         <v>-943020</v>
       </c>
       <c r="G83">
-        <v>0.721</v>
+        <v>0.714</v>
       </c>
       <c r="H83">
-        <v>-0.279</v>
+        <v>-0.285</v>
       </c>
       <c r="I83">
-        <v>721288.482</v>
+        <v>714848.347</v>
       </c>
       <c r="J83">
-        <v>0.721</v>
+        <v>0.715</v>
       </c>
       <c r="K83">
         <v>1000000</v>
@@ -4015,31 +4015,31 @@
         <v>116</v>
       </c>
       <c r="B84">
-        <v>-0.584</v>
+        <v>-0.594</v>
       </c>
       <c r="C84">
-        <v>373732.482</v>
+        <v>367292.347</v>
       </c>
       <c r="D84">
         <v>21180</v>
       </c>
       <c r="E84">
-        <v>0.029</v>
+        <v>0.03</v>
       </c>
       <c r="F84">
         <v>-921840</v>
       </c>
       <c r="G84">
-        <v>0.721</v>
+        <v>0.715</v>
       </c>
       <c r="H84">
-        <v>-0.258</v>
+        <v>-0.264</v>
       </c>
       <c r="I84">
-        <v>742468.482</v>
+        <v>736028.347</v>
       </c>
       <c r="J84">
-        <v>0.742</v>
+        <v>0.736</v>
       </c>
       <c r="K84">
         <v>1000000</v>
@@ -4050,31 +4050,31 @@
         <v>117</v>
       </c>
       <c r="B85">
-        <v>-0.534</v>
+        <v>-0.545</v>
       </c>
       <c r="C85">
-        <v>407500.482</v>
+        <v>401060.347</v>
       </c>
       <c r="D85">
         <v>24120</v>
       </c>
       <c r="E85">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="F85">
         <v>-897720</v>
       </c>
       <c r="G85">
-        <v>0.742</v>
+        <v>0.736</v>
       </c>
       <c r="H85">
-        <v>-0.233</v>
+        <v>-0.24</v>
       </c>
       <c r="I85">
-        <v>766588.482</v>
+        <v>760148.347</v>
       </c>
       <c r="J85">
-        <v>0.767</v>
+        <v>0.76</v>
       </c>
       <c r="K85">
         <v>1000000</v>
@@ -4085,10 +4085,10 @@
         <v>118</v>
       </c>
       <c r="B86">
-        <v>-0.534</v>
+        <v>-0.545</v>
       </c>
       <c r="C86">
-        <v>405064.482</v>
+        <v>398624.347</v>
       </c>
       <c r="D86">
         <v>-1740</v>
@@ -4100,16 +4100,16 @@
         <v>-899460</v>
       </c>
       <c r="G86">
-        <v>0.767</v>
+        <v>0.76</v>
       </c>
       <c r="H86">
-        <v>-0.235</v>
+        <v>-0.242</v>
       </c>
       <c r="I86">
-        <v>764848.482</v>
+        <v>758408.347</v>
       </c>
       <c r="J86">
-        <v>0.765</v>
+        <v>0.758</v>
       </c>
       <c r="K86">
         <v>1000000</v>
@@ -4120,10 +4120,10 @@
         <v>119</v>
       </c>
       <c r="B87">
-        <v>-0.54</v>
+        <v>-0.551</v>
       </c>
       <c r="C87">
-        <v>398260.482</v>
+        <v>391820.347</v>
       </c>
       <c r="D87">
         <v>-4860</v>
@@ -4135,16 +4135,16 @@
         <v>-904320</v>
       </c>
       <c r="G87">
-        <v>0.765</v>
+        <v>0.758</v>
       </c>
       <c r="H87">
-        <v>-0.24</v>
+        <v>-0.246</v>
       </c>
       <c r="I87">
-        <v>759988.482</v>
+        <v>753548.347</v>
       </c>
       <c r="J87">
-        <v>0.76</v>
+        <v>0.754</v>
       </c>
       <c r="K87">
         <v>1000000</v>
@@ -4155,10 +4155,10 @@
         <v>120</v>
       </c>
       <c r="B88">
-        <v>-0.544</v>
+        <v>-0.555</v>
       </c>
       <c r="C88">
-        <v>392800.482</v>
+        <v>386360.347</v>
       </c>
       <c r="D88">
         <v>-3900</v>
@@ -4170,16 +4170,16 @@
         <v>-908220</v>
       </c>
       <c r="G88">
-        <v>0.76</v>
+        <v>0.754</v>
       </c>
       <c r="H88">
-        <v>-0.244</v>
+        <v>-0.25</v>
       </c>
       <c r="I88">
-        <v>756088.482</v>
+        <v>749648.347</v>
       </c>
       <c r="J88">
-        <v>0.756</v>
+        <v>0.75</v>
       </c>
       <c r="K88">
         <v>1000000</v>
@@ -4190,10 +4190,10 @@
         <v>121</v>
       </c>
       <c r="B89">
-        <v>-0.539</v>
+        <v>-0.55</v>
       </c>
       <c r="C89">
-        <v>394564.482</v>
+        <v>388124.347</v>
       </c>
       <c r="D89">
         <v>1260</v>
@@ -4205,16 +4205,16 @@
         <v>-906960</v>
       </c>
       <c r="G89">
-        <v>0.756</v>
+        <v>0.75</v>
       </c>
       <c r="H89">
-        <v>-0.243</v>
+        <v>-0.249</v>
       </c>
       <c r="I89">
-        <v>757348.482</v>
+        <v>750908.347</v>
       </c>
       <c r="J89">
-        <v>0.757</v>
+        <v>0.751</v>
       </c>
       <c r="K89">
         <v>1000000</v>
@@ -4225,10 +4225,10 @@
         <v>122</v>
       </c>
       <c r="B90">
-        <v>-0.537</v>
+        <v>-0.547</v>
       </c>
       <c r="C90">
-        <v>389692.482</v>
+        <v>383252.347</v>
       </c>
       <c r="D90">
         <v>-3480</v>
@@ -4240,16 +4240,16 @@
         <v>-910440</v>
       </c>
       <c r="G90">
-        <v>0.757</v>
+        <v>0.751</v>
       </c>
       <c r="H90">
-        <v>-0.246</v>
+        <v>-0.253</v>
       </c>
       <c r="I90">
-        <v>753868.482</v>
+        <v>747428.347</v>
       </c>
       <c r="J90">
-        <v>0.754</v>
+        <v>0.747</v>
       </c>
       <c r="K90">
         <v>1000000</v>
@@ -4260,10 +4260,10 @@
         <v>123</v>
       </c>
       <c r="B91">
-        <v>-0.538</v>
+        <v>-0.549</v>
       </c>
       <c r="C91">
-        <v>386248.482</v>
+        <v>379808.347</v>
       </c>
       <c r="D91">
         <v>-2460</v>
@@ -4275,16 +4275,16 @@
         <v>-912900</v>
       </c>
       <c r="G91">
-        <v>0.754</v>
+        <v>0.747</v>
       </c>
       <c r="H91">
-        <v>-0.249</v>
+        <v>-0.255</v>
       </c>
       <c r="I91">
-        <v>751408.482</v>
+        <v>744968.347</v>
       </c>
       <c r="J91">
-        <v>0.751</v>
+        <v>0.745</v>
       </c>
       <c r="K91">
         <v>1000000</v>
@@ -4295,10 +4295,10 @@
         <v>124</v>
       </c>
       <c r="B92">
-        <v>-0.518</v>
+        <v>-0.529</v>
       </c>
       <c r="C92">
-        <v>400780.482</v>
+        <v>394340.347</v>
       </c>
       <c r="D92">
         <v>10380</v>
@@ -4310,16 +4310,16 @@
         <v>-902520</v>
       </c>
       <c r="G92">
-        <v>0.751</v>
+        <v>0.745</v>
       </c>
       <c r="H92">
-        <v>-0.238</v>
+        <v>-0.245</v>
       </c>
       <c r="I92">
-        <v>761788.482</v>
+        <v>755348.347</v>
       </c>
       <c r="J92">
-        <v>0.762</v>
+        <v>0.755</v>
       </c>
       <c r="K92">
         <v>1000000</v>
@@ -4330,10 +4330,10 @@
         <v>125</v>
       </c>
       <c r="B93">
-        <v>-0.522</v>
+        <v>-0.533</v>
       </c>
       <c r="C93">
-        <v>395488.482</v>
+        <v>389048.347</v>
       </c>
       <c r="D93">
         <v>-3780</v>
@@ -4345,16 +4345,16 @@
         <v>-906300</v>
       </c>
       <c r="G93">
-        <v>0.762</v>
+        <v>0.755</v>
       </c>
       <c r="H93">
-        <v>-0.242</v>
+        <v>-0.248</v>
       </c>
       <c r="I93">
-        <v>758008.482</v>
+        <v>751568.347</v>
       </c>
       <c r="J93">
-        <v>0.758</v>
+        <v>0.752</v>
       </c>
       <c r="K93">
         <v>1000000</v>
@@ -4365,10 +4365,10 @@
         <v>126</v>
       </c>
       <c r="B94">
-        <v>-0.527</v>
+        <v>-0.538</v>
       </c>
       <c r="C94">
-        <v>388768.482</v>
+        <v>382328.347</v>
       </c>
       <c r="D94">
         <v>-4800</v>
@@ -4380,16 +4380,16 @@
         <v>-911100</v>
       </c>
       <c r="G94">
-        <v>0.758</v>
+        <v>0.752</v>
       </c>
       <c r="H94">
-        <v>-0.247</v>
+        <v>-0.253</v>
       </c>
       <c r="I94">
-        <v>753208.482</v>
+        <v>746768.347</v>
       </c>
       <c r="J94">
-        <v>0.753</v>
+        <v>0.747</v>
       </c>
       <c r="K94">
         <v>1000000</v>
@@ -4400,10 +4400,10 @@
         <v>127</v>
       </c>
       <c r="B95">
-        <v>-0.523</v>
+        <v>-0.534</v>
       </c>
       <c r="C95">
-        <v>385744.482</v>
+        <v>379304.347</v>
       </c>
       <c r="D95">
         <v>-2160</v>
@@ -4415,16 +4415,16 @@
         <v>-913260</v>
       </c>
       <c r="G95">
-        <v>0.753</v>
+        <v>0.747</v>
       </c>
       <c r="H95">
-        <v>-0.249</v>
+        <v>-0.255</v>
       </c>
       <c r="I95">
-        <v>751048.482</v>
+        <v>744608.347</v>
       </c>
       <c r="J95">
-        <v>0.751</v>
+        <v>0.745</v>
       </c>
       <c r="K95">
         <v>1000000</v>
@@ -4435,10 +4435,10 @@
         <v>128</v>
       </c>
       <c r="B96">
-        <v>-0.511</v>
+        <v>-0.522</v>
       </c>
       <c r="C96">
-        <v>393976.482</v>
+        <v>387536.347</v>
       </c>
       <c r="D96">
         <v>5880</v>
@@ -4450,16 +4450,16 @@
         <v>-907380</v>
       </c>
       <c r="G96">
-        <v>0.751</v>
+        <v>0.745</v>
       </c>
       <c r="H96">
-        <v>-0.243</v>
+        <v>-0.25</v>
       </c>
       <c r="I96">
-        <v>756928.482</v>
+        <v>750488.347</v>
       </c>
       <c r="J96">
-        <v>0.757</v>
+        <v>0.75</v>
       </c>
       <c r="K96">
         <v>1000000</v>
@@ -4470,10 +4470,10 @@
         <v>129</v>
       </c>
       <c r="B97">
-        <v>-0.509</v>
+        <v>-0.519</v>
       </c>
       <c r="C97">
-        <v>394144.482</v>
+        <v>387704.347</v>
       </c>
       <c r="D97">
         <v>120</v>
@@ -4485,16 +4485,16 @@
         <v>-907260</v>
       </c>
       <c r="G97">
-        <v>0.757</v>
+        <v>0.75</v>
       </c>
       <c r="H97">
-        <v>-0.243</v>
+        <v>-0.249</v>
       </c>
       <c r="I97">
-        <v>757048.482</v>
+        <v>750608.347</v>
       </c>
       <c r="J97">
-        <v>0.757</v>
+        <v>0.751</v>
       </c>
       <c r="K97">
         <v>1000000</v>
@@ -4505,10 +4505,10 @@
         <v>130</v>
       </c>
       <c r="B98">
-        <v>-0.505</v>
+        <v>-0.516</v>
       </c>
       <c r="C98">
-        <v>395152.482</v>
+        <v>388712.347</v>
       </c>
       <c r="D98">
         <v>720</v>
@@ -4520,16 +4520,16 @@
         <v>-906540</v>
       </c>
       <c r="G98">
-        <v>0.757</v>
+        <v>0.751</v>
       </c>
       <c r="H98">
-        <v>-0.242</v>
+        <v>-0.249</v>
       </c>
       <c r="I98">
-        <v>757768.482</v>
+        <v>751328.347</v>
       </c>
       <c r="J98">
-        <v>0.758</v>
+        <v>0.751</v>
       </c>
       <c r="K98">
         <v>1000000</v>
@@ -4540,31 +4540,31 @@
         <v>131</v>
       </c>
       <c r="B99">
-        <v>-0.508</v>
+        <v>-0.626</v>
       </c>
       <c r="C99">
-        <v>-337699.518</v>
+        <v>312249.99</v>
       </c>
       <c r="D99">
-        <v>-3420</v>
+        <v>-75094.357</v>
       </c>
       <c r="E99">
-        <v>-0.005</v>
+        <v>-0.1</v>
       </c>
       <c r="F99">
-        <v>-909960</v>
+        <v>909960</v>
       </c>
       <c r="G99">
-        <v>0.758</v>
+        <v>0.751</v>
       </c>
       <c r="H99">
-        <v>-0.246</v>
+        <v>-0.324</v>
       </c>
       <c r="I99">
-        <v>754348.482</v>
+        <v>676233.99</v>
       </c>
       <c r="J99">
-        <v>0.754</v>
+        <v>0.676</v>
       </c>
       <c r="K99">
         <v>1000000</v>
@@ -4575,31 +4575,31 @@
         <v>132</v>
       </c>
       <c r="B100">
-        <v>-0.607</v>
+        <v>-0.618</v>
       </c>
       <c r="C100">
-        <v>320612.607</v>
+        <v>312717.99</v>
       </c>
       <c r="D100">
-        <v>-69439.876</v>
+        <v>780</v>
       </c>
       <c r="E100">
-        <v>-0.092</v>
+        <v>0.001</v>
       </c>
       <c r="F100">
         <v>910740</v>
       </c>
       <c r="G100">
-        <v>0.754</v>
+        <v>0.676</v>
       </c>
       <c r="H100">
-        <v>-0.315</v>
+        <v>-0.323</v>
       </c>
       <c r="I100">
-        <v>684908.607</v>
+        <v>677013.99</v>
       </c>
       <c r="J100">
-        <v>0.6850000000000001</v>
+        <v>0.677</v>
       </c>
       <c r="K100">
         <v>1000000</v>
@@ -4610,10 +4610,10 @@
         <v>133</v>
       </c>
       <c r="B101">
-        <v>-0.5570000000000001</v>
+        <v>-0.569</v>
       </c>
       <c r="C101">
-        <v>339872.607</v>
+        <v>331977.99</v>
       </c>
       <c r="D101">
         <v>32100</v>
@@ -4625,16 +4625,16 @@
         <v>942840</v>
       </c>
       <c r="G101">
-        <v>0.6850000000000001</v>
+        <v>0.677</v>
       </c>
       <c r="H101">
-        <v>-0.283</v>
+        <v>-0.291</v>
       </c>
       <c r="I101">
-        <v>717008.607</v>
+        <v>709113.99</v>
       </c>
       <c r="J101">
-        <v>0.717</v>
+        <v>0.709</v>
       </c>
       <c r="K101">
         <v>1000000</v>
@@ -4645,10 +4645,10 @@
         <v>24</v>
       </c>
       <c r="B102">
-        <v>-0.5580000000000001</v>
+        <v>-0.57</v>
       </c>
       <c r="C102">
-        <v>338612.607</v>
+        <v>330717.99</v>
       </c>
       <c r="D102">
         <v>-2100</v>
@@ -4660,16 +4660,16 @@
         <v>940740</v>
       </c>
       <c r="G102">
-        <v>0.717</v>
+        <v>0.709</v>
       </c>
       <c r="H102">
-        <v>-0.285</v>
+        <v>-0.293</v>
       </c>
       <c r="I102">
-        <v>714908.607</v>
+        <v>707013.99</v>
       </c>
       <c r="J102">
-        <v>0.715</v>
+        <v>0.707</v>
       </c>
       <c r="K102">
         <v>1000000</v>
@@ -5366,19 +5366,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>327504</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>818760</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1000000</v>
+        <v>626246.105</v>
       </c>
       <c r="H24">
-        <v>1000000</v>
+        <v>953750.105</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -5404,10 +5404,10 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>627775.9399999999</v>
+        <v>634958.105</v>
       </c>
       <c r="H25">
-        <v>961087.9399999999</v>
+        <v>968270.105</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5433,10 +5433,10 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>624319.9399999999</v>
+        <v>631502.105</v>
       </c>
       <c r="H26">
-        <v>955327.9399999999</v>
+        <v>962510.105</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -5462,10 +5462,10 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>620683.9399999999</v>
+        <v>627866.105</v>
       </c>
       <c r="H27">
-        <v>949267.9399999999</v>
+        <v>956450.105</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>634507.9399999999</v>
+        <v>641690.105</v>
       </c>
       <c r="H28">
-        <v>972307.9399999999</v>
+        <v>979490.105</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -5520,10 +5520,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>637027.9399999999</v>
+        <v>644210.105</v>
       </c>
       <c r="H29">
-        <v>976507.9399999999</v>
+        <v>983690.105</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -5549,10 +5549,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>637855.9399999999</v>
+        <v>645038.105</v>
       </c>
       <c r="H30">
-        <v>977887.9399999999</v>
+        <v>985070.105</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -5578,10 +5578,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>636739.9399999999</v>
+        <v>643922.105</v>
       </c>
       <c r="H31">
-        <v>976027.9399999999</v>
+        <v>983210.105</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -5607,10 +5607,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>645163.9399999999</v>
+        <v>652346.105</v>
       </c>
       <c r="H32">
-        <v>990067.9399999999</v>
+        <v>997250.105</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -5636,10 +5636,10 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>637495.9399999999</v>
+        <v>644678.105</v>
       </c>
       <c r="H33">
-        <v>977287.9399999999</v>
+        <v>984470.105</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -5665,10 +5665,10 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>639187.9399999999</v>
+        <v>646370.105</v>
       </c>
       <c r="H34">
-        <v>980107.9399999999</v>
+        <v>987290.105</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -5694,10 +5694,10 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>614563.9399999999</v>
+        <v>621746.105</v>
       </c>
       <c r="H35">
-        <v>939067.9399999999</v>
+        <v>946250.105</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -5723,10 +5723,10 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>617767.9399999999</v>
+        <v>624950.105</v>
       </c>
       <c r="H36">
-        <v>944407.9399999999</v>
+        <v>951590.105</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -5752,10 +5752,10 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>599191.9399999999</v>
+        <v>606374.105</v>
       </c>
       <c r="H37">
-        <v>913447.9399999999</v>
+        <v>920630.105</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -5781,10 +5781,10 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>615895.9399999999</v>
+        <v>623078.105</v>
       </c>
       <c r="H38">
-        <v>941287.9399999999</v>
+        <v>948470.105</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -5810,10 +5810,10 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>638035.9399999999</v>
+        <v>645218.105</v>
       </c>
       <c r="H39">
-        <v>978187.9399999999</v>
+        <v>985370.105</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -5839,10 +5839,10 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>638755.9399999999</v>
+        <v>645938.105</v>
       </c>
       <c r="H40">
-        <v>979387.9399999999</v>
+        <v>986570.105</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -5868,10 +5868,10 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>643435.9399999999</v>
+        <v>650618.105</v>
       </c>
       <c r="H41">
-        <v>987187.9399999999</v>
+        <v>994370.105</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -5897,10 +5897,10 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>650599.9399999999</v>
+        <v>657782.105</v>
       </c>
       <c r="H42">
-        <v>999127.9399999999</v>
+        <v>1006310.105</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -5926,10 +5926,10 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>648367.9399999999</v>
+        <v>655550.105</v>
       </c>
       <c r="H43">
-        <v>995407.9399999999</v>
+        <v>1002590.105</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -5955,10 +5955,10 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>642031.9399999999</v>
+        <v>649214.105</v>
       </c>
       <c r="H44">
-        <v>984847.9399999999</v>
+        <v>992030.105</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -5984,10 +5984,10 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>640735.9399999999</v>
+        <v>647918.105</v>
       </c>
       <c r="H45">
-        <v>982687.9399999999</v>
+        <v>989870.105</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -6013,10 +6013,10 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>636811.9399999999</v>
+        <v>643994.105</v>
       </c>
       <c r="H46">
-        <v>976147.9399999999</v>
+        <v>983330.105</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -6042,10 +6042,10 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>650563.9399999999</v>
+        <v>657746.105</v>
       </c>
       <c r="H47">
-        <v>999067.9399999999</v>
+        <v>1006250.105</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -6071,10 +6071,10 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>645595.9399999999</v>
+        <v>652778.105</v>
       </c>
       <c r="H48">
-        <v>990787.9399999999</v>
+        <v>997970.105</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -6100,10 +6100,10 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>648151.9399999999</v>
+        <v>655334.105</v>
       </c>
       <c r="H49">
-        <v>995047.9399999999</v>
+        <v>1002230.105</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -6129,10 +6129,10 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>662083.9399999999</v>
+        <v>669266.105</v>
       </c>
       <c r="H50">
-        <v>1018267.94</v>
+        <v>1025450.105</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -6158,10 +6158,10 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>677275.9399999999</v>
+        <v>684458.105</v>
       </c>
       <c r="H51">
-        <v>1043587.94</v>
+        <v>1050770.105</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -6187,10 +6187,10 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>692647.9399999999</v>
+        <v>699830.105</v>
       </c>
       <c r="H52">
-        <v>1069207.94</v>
+        <v>1076390.105</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -6216,10 +6216,10 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>690703.9399999999</v>
+        <v>697886.105</v>
       </c>
       <c r="H53">
-        <v>1065967.94</v>
+        <v>1073150.105</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -6245,10 +6245,10 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>688111.9399999999</v>
+        <v>695294.105</v>
       </c>
       <c r="H54">
-        <v>1061647.94</v>
+        <v>1068830.105</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -6274,10 +6274,10 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>680335.9399999999</v>
+        <v>687518.105</v>
       </c>
       <c r="H55">
-        <v>1048687.94</v>
+        <v>1055870.105</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -6303,10 +6303,10 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>680083.9399999999</v>
+        <v>687266.105</v>
       </c>
       <c r="H56">
-        <v>1048267.94</v>
+        <v>1055450.105</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -6332,10 +6332,10 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>677023.9399999999</v>
+        <v>684206.105</v>
       </c>
       <c r="H57">
-        <v>1043167.94</v>
+        <v>1050350.105</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -6361,10 +6361,10 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>668635.9399999999</v>
+        <v>675818.105</v>
       </c>
       <c r="H58">
-        <v>1029187.94</v>
+        <v>1036370.105</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -6390,10 +6390,10 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>683179.9399999999</v>
+        <v>690362.105</v>
       </c>
       <c r="H59">
-        <v>1053427.94</v>
+        <v>1060610.105</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -6419,10 +6419,10 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>684295.9399999999</v>
+        <v>691478.105</v>
       </c>
       <c r="H60">
-        <v>1055287.94</v>
+        <v>1062470.105</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -6448,10 +6448,10 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>684043.9399999999</v>
+        <v>691226.105</v>
       </c>
       <c r="H61">
-        <v>1054867.94</v>
+        <v>1062050.105</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -6477,10 +6477,10 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>694303.9399999999</v>
+        <v>701486.105</v>
       </c>
       <c r="H62">
-        <v>1071967.94</v>
+        <v>1079150.105</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -6506,10 +6506,10 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>692323.9399999999</v>
+        <v>699506.105</v>
       </c>
       <c r="H63">
-        <v>1068667.94</v>
+        <v>1075850.105</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6529,16 +6529,16 @@
         <v>373008</v>
       </c>
       <c r="E64">
-        <v>932520</v>
+        <v>-932520</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>687319.9399999999</v>
+        <v>575255.83</v>
       </c>
       <c r="H64">
-        <v>1060327.94</v>
+        <v>948263.83</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6564,10 +6564,10 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>582111.4300000001</v>
+        <v>594575.83</v>
       </c>
       <c r="H65">
-        <v>949599.4300000001</v>
+        <v>962063.83</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -6593,10 +6593,10 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>551871.4300000001</v>
+        <v>564335.83</v>
       </c>
       <c r="H66">
-        <v>927999.4300000001</v>
+        <v>940463.83</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -6622,10 +6622,10 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>562455.4300000001</v>
+        <v>574919.83</v>
       </c>
       <c r="H67">
-        <v>935559.4300000001</v>
+        <v>948023.83</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -6651,10 +6651,10 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>528267.4300000001</v>
+        <v>540731.83</v>
       </c>
       <c r="H68">
-        <v>911139.4300000001</v>
+        <v>923603.83</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -6674,16 +6674,16 @@
         <v>382392</v>
       </c>
       <c r="E69">
-        <v>-955980</v>
+        <v>955980</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>529947.4300000001</v>
+        <v>462685.578</v>
       </c>
       <c r="H69">
-        <v>912339.4300000001</v>
+        <v>845077.578</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -6709,10 +6709,10 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>450665.178</v>
+        <v>462649.578</v>
       </c>
       <c r="H70">
-        <v>833033.178</v>
+        <v>845017.578</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6732,16 +6732,16 @@
         <v>377760</v>
       </c>
       <c r="E71">
-        <v>944400</v>
+        <v>-944400</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>443753.178</v>
+        <v>335708.347</v>
       </c>
       <c r="H71">
-        <v>821513.178</v>
+        <v>713468.347</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -6767,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>342820.482</v>
+        <v>336380.347</v>
       </c>
       <c r="H72">
-        <v>720388.482</v>
+        <v>713948.347</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6796,10 +6796,10 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>378520.482</v>
+        <v>372080.347</v>
       </c>
       <c r="H73">
-        <v>745888.482</v>
+        <v>739448.347</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -6825,10 +6825,10 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>364492.482</v>
+        <v>358052.347</v>
       </c>
       <c r="H74">
-        <v>735868.482</v>
+        <v>729428.347</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -6854,10 +6854,10 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>364324.482</v>
+        <v>357884.347</v>
       </c>
       <c r="H75">
-        <v>735748.482</v>
+        <v>729308.347</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -6883,10 +6883,10 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>369448.482</v>
+        <v>363008.347</v>
       </c>
       <c r="H76">
-        <v>739408.482</v>
+        <v>732968.347</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -6912,10 +6912,10 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>367684.482</v>
+        <v>361244.347</v>
       </c>
       <c r="H77">
-        <v>738148.482</v>
+        <v>731708.347</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -6941,10 +6941,10 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>368188.482</v>
+        <v>361748.347</v>
       </c>
       <c r="H78">
-        <v>738508.482</v>
+        <v>732068.347</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -6970,10 +6970,10 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>371632.482</v>
+        <v>365192.347</v>
       </c>
       <c r="H79">
-        <v>740968.482</v>
+        <v>734528.347</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -6999,10 +6999,10 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>366256.482</v>
+        <v>359816.347</v>
       </c>
       <c r="H80">
-        <v>737128.482</v>
+        <v>730688.347</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7028,10 +7028,10 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>342652.482</v>
+        <v>336212.347</v>
       </c>
       <c r="H81">
-        <v>720268.482</v>
+        <v>713828.347</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -7057,10 +7057,10 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>343324.482</v>
+        <v>336884.347</v>
       </c>
       <c r="H82">
-        <v>720748.482</v>
+        <v>714308.347</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -7086,10 +7086,10 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>344080.482</v>
+        <v>337640.347</v>
       </c>
       <c r="H83">
-        <v>721288.482</v>
+        <v>714848.347</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -7115,10 +7115,10 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>373732.482</v>
+        <v>367292.347</v>
       </c>
       <c r="H84">
-        <v>742468.482</v>
+        <v>736028.347</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -7144,10 +7144,10 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>407500.482</v>
+        <v>401060.347</v>
       </c>
       <c r="H85">
-        <v>766588.482</v>
+        <v>760148.347</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -7173,10 +7173,10 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>405064.482</v>
+        <v>398624.347</v>
       </c>
       <c r="H86">
-        <v>764848.482</v>
+        <v>758408.347</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -7202,10 +7202,10 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>398260.482</v>
+        <v>391820.347</v>
       </c>
       <c r="H87">
-        <v>759988.482</v>
+        <v>753548.347</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -7231,10 +7231,10 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>392800.482</v>
+        <v>386360.347</v>
       </c>
       <c r="H88">
-        <v>756088.482</v>
+        <v>749648.347</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -7260,10 +7260,10 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>394564.482</v>
+        <v>388124.347</v>
       </c>
       <c r="H89">
-        <v>757348.482</v>
+        <v>750908.347</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -7289,10 +7289,10 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>389692.482</v>
+        <v>383252.347</v>
       </c>
       <c r="H90">
-        <v>753868.482</v>
+        <v>747428.347</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -7318,10 +7318,10 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>386248.482</v>
+        <v>379808.347</v>
       </c>
       <c r="H91">
-        <v>751408.482</v>
+        <v>744968.347</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -7347,10 +7347,10 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>400780.482</v>
+        <v>394340.347</v>
       </c>
       <c r="H92">
-        <v>761788.482</v>
+        <v>755348.347</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -7376,10 +7376,10 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>395488.482</v>
+        <v>389048.347</v>
       </c>
       <c r="H93">
-        <v>758008.482</v>
+        <v>751568.347</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -7405,10 +7405,10 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>388768.482</v>
+        <v>382328.347</v>
       </c>
       <c r="H94">
-        <v>753208.482</v>
+        <v>746768.347</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -7434,10 +7434,10 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>385744.482</v>
+        <v>379304.347</v>
       </c>
       <c r="H95">
-        <v>751048.482</v>
+        <v>744608.347</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -7463,10 +7463,10 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>393976.482</v>
+        <v>387536.347</v>
       </c>
       <c r="H96">
-        <v>756928.482</v>
+        <v>750488.347</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -7492,10 +7492,10 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>394144.482</v>
+        <v>387704.347</v>
       </c>
       <c r="H97">
-        <v>757048.482</v>
+        <v>750608.347</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -7521,10 +7521,10 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>395152.482</v>
+        <v>388712.347</v>
       </c>
       <c r="H98">
-        <v>757768.482</v>
+        <v>751328.347</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -7544,16 +7544,16 @@
         <v>363984</v>
       </c>
       <c r="E99">
-        <v>-909960</v>
+        <v>909960</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>390364.482</v>
+        <v>312249.99</v>
       </c>
       <c r="H99">
-        <v>754348.482</v>
+        <v>676233.99</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -7579,10 +7579,10 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>320612.607</v>
+        <v>312717.99</v>
       </c>
       <c r="H100">
-        <v>684908.607</v>
+        <v>677013.99</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -7608,10 +7608,10 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>339872.607</v>
+        <v>331977.99</v>
       </c>
       <c r="H101">
-        <v>717008.607</v>
+        <v>709113.99</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -7637,10 +7637,10 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>338612.607</v>
+        <v>330717.99</v>
       </c>
       <c r="H102">
-        <v>714908.607</v>
+        <v>707013.99</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -7653,7 +7653,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7729,19 +7729,19 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2">
-        <v>2777.6</v>
+        <v>2729.2</v>
       </c>
       <c r="C2">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D2">
-        <v>333312</v>
+        <v>327504</v>
       </c>
       <c r="E2">
-        <v>-38892</v>
+        <v>-46230</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -7759,16 +7759,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>333312</v>
+        <v>327504</v>
       </c>
       <c r="L2">
-        <v>833280</v>
+        <v>818760</v>
       </c>
       <c r="M2" t="s">
         <v>155</v>
       </c>
       <c r="N2">
-        <v>-38892</v>
+        <v>-46230</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -7797,19 +7797,19 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3">
-        <v>2758.4</v>
+        <v>2777.6</v>
       </c>
       <c r="C3">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D3">
-        <v>331008</v>
+        <v>333312</v>
       </c>
       <c r="E3">
-        <v>-44652</v>
+        <v>-31710</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -7827,16 +7827,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>331008</v>
+        <v>333312</v>
       </c>
       <c r="L3">
-        <v>827520</v>
+        <v>833280</v>
       </c>
       <c r="M3" t="s">
         <v>155</v>
       </c>
       <c r="N3">
-        <v>-44652</v>
+        <v>-31710</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -7865,19 +7865,19 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4">
-        <v>2738.2</v>
+        <v>2758.4</v>
       </c>
       <c r="C4">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D4">
-        <v>328584</v>
+        <v>331008</v>
       </c>
       <c r="E4">
-        <v>-50712</v>
+        <v>-37470</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -7895,16 +7895,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>328584</v>
+        <v>331008</v>
       </c>
       <c r="L4">
-        <v>821460</v>
+        <v>827520</v>
       </c>
       <c r="M4" t="s">
         <v>155</v>
       </c>
       <c r="N4">
-        <v>-50712</v>
+        <v>-37470</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -7933,19 +7933,19 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5">
-        <v>2815</v>
+        <v>2738.2</v>
       </c>
       <c r="C5">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D5">
-        <v>337800</v>
+        <v>328584</v>
       </c>
       <c r="E5">
-        <v>-27672</v>
+        <v>-43530</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7963,16 +7963,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>337800</v>
+        <v>328584</v>
       </c>
       <c r="L5">
-        <v>844500</v>
+        <v>821460</v>
       </c>
       <c r="M5" t="s">
         <v>155</v>
       </c>
       <c r="N5">
-        <v>-27672</v>
+        <v>-43530</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -8001,19 +8001,19 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6">
-        <v>2829</v>
+        <v>2815</v>
       </c>
       <c r="C6">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D6">
-        <v>339480</v>
+        <v>337800</v>
       </c>
       <c r="E6">
-        <v>-23472</v>
+        <v>-20490</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8031,16 +8031,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>339480</v>
+        <v>337800</v>
       </c>
       <c r="L6">
-        <v>848700</v>
+        <v>844500</v>
       </c>
       <c r="M6" t="s">
         <v>155</v>
       </c>
       <c r="N6">
-        <v>-23472</v>
+        <v>-20490</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -8069,19 +8069,19 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7">
-        <v>2833.6</v>
+        <v>2829</v>
       </c>
       <c r="C7">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D7">
-        <v>340032</v>
+        <v>339480</v>
       </c>
       <c r="E7">
-        <v>-22092</v>
+        <v>-16290</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8099,16 +8099,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>340032</v>
+        <v>339480</v>
       </c>
       <c r="L7">
-        <v>850080</v>
+        <v>848700</v>
       </c>
       <c r="M7" t="s">
         <v>155</v>
       </c>
       <c r="N7">
-        <v>-22092</v>
+        <v>-16290</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -8137,19 +8137,19 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8">
-        <v>2827.4</v>
+        <v>2833.6</v>
       </c>
       <c r="C8">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D8">
-        <v>339288</v>
+        <v>340032</v>
       </c>
       <c r="E8">
-        <v>-23952</v>
+        <v>-14910</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8167,16 +8167,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>339288</v>
+        <v>340032</v>
       </c>
       <c r="L8">
-        <v>848220</v>
+        <v>850080</v>
       </c>
       <c r="M8" t="s">
         <v>155</v>
       </c>
       <c r="N8">
-        <v>-23952</v>
+        <v>-14910</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -8205,19 +8205,19 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9">
-        <v>2874.2</v>
+        <v>2827.4</v>
       </c>
       <c r="C9">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D9">
-        <v>344904</v>
+        <v>339288</v>
       </c>
       <c r="E9">
-        <v>-9912</v>
+        <v>-16770</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8235,16 +8235,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>344904</v>
+        <v>339288</v>
       </c>
       <c r="L9">
-        <v>862260</v>
+        <v>848220</v>
       </c>
       <c r="M9" t="s">
         <v>155</v>
       </c>
       <c r="N9">
-        <v>-9912</v>
+        <v>-16770</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -8273,19 +8273,19 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10">
-        <v>2831.6</v>
+        <v>2874.2</v>
       </c>
       <c r="C10">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D10">
-        <v>339792</v>
+        <v>344904</v>
       </c>
       <c r="E10">
-        <v>-22692</v>
+        <v>-2730</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8303,16 +8303,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>339792</v>
+        <v>344904</v>
       </c>
       <c r="L10">
-        <v>849480</v>
+        <v>862260</v>
       </c>
       <c r="M10" t="s">
         <v>155</v>
       </c>
       <c r="N10">
-        <v>-22692</v>
+        <v>-2730</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -8341,19 +8341,19 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11">
-        <v>2841</v>
+        <v>2831.6</v>
       </c>
       <c r="C11">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D11">
-        <v>340920</v>
+        <v>339792</v>
       </c>
       <c r="E11">
-        <v>-19872</v>
+        <v>-15510</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8371,16 +8371,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>340920</v>
+        <v>339792</v>
       </c>
       <c r="L11">
-        <v>852300</v>
+        <v>849480</v>
       </c>
       <c r="M11" t="s">
         <v>155</v>
       </c>
       <c r="N11">
-        <v>-19872</v>
+        <v>-15510</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -8409,19 +8409,19 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12">
-        <v>2704.2</v>
+        <v>2841</v>
       </c>
       <c r="C12">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D12">
-        <v>324504</v>
+        <v>340920</v>
       </c>
       <c r="E12">
-        <v>-60912</v>
+        <v>-12690</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -8439,16 +8439,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>324504</v>
+        <v>340920</v>
       </c>
       <c r="L12">
-        <v>811260</v>
+        <v>852300</v>
       </c>
       <c r="M12" t="s">
         <v>155</v>
       </c>
       <c r="N12">
-        <v>-60912</v>
+        <v>-12690</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -8477,19 +8477,19 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13">
-        <v>2722</v>
+        <v>2704.2</v>
       </c>
       <c r="C13">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D13">
-        <v>326640</v>
+        <v>324504</v>
       </c>
       <c r="E13">
-        <v>-55572</v>
+        <v>-53730</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -8507,16 +8507,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>326640</v>
+        <v>324504</v>
       </c>
       <c r="L13">
-        <v>816600</v>
+        <v>811260</v>
       </c>
       <c r="M13" t="s">
         <v>155</v>
       </c>
       <c r="N13">
-        <v>-55572</v>
+        <v>-53730</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -8545,19 +8545,19 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14">
-        <v>2618.8</v>
+        <v>2722</v>
       </c>
       <c r="C14">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D14">
-        <v>314256</v>
+        <v>326640</v>
       </c>
       <c r="E14">
-        <v>-86532</v>
+        <v>-48390</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -8575,16 +8575,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>314256</v>
+        <v>326640</v>
       </c>
       <c r="L14">
-        <v>785640</v>
+        <v>816600</v>
       </c>
       <c r="M14" t="s">
         <v>155</v>
       </c>
       <c r="N14">
-        <v>-86532</v>
+        <v>-48390</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -8613,19 +8613,19 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15">
-        <v>2711.6</v>
+        <v>2618.8</v>
       </c>
       <c r="C15">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D15">
-        <v>325392</v>
+        <v>314256</v>
       </c>
       <c r="E15">
-        <v>-58692</v>
+        <v>-79350</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -8643,16 +8643,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>325392</v>
+        <v>314256</v>
       </c>
       <c r="L15">
-        <v>813480</v>
+        <v>785640</v>
       </c>
       <c r="M15" t="s">
         <v>155</v>
       </c>
       <c r="N15">
-        <v>-58692</v>
+        <v>-79350</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -8681,19 +8681,19 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16">
-        <v>2834.6</v>
+        <v>2711.6</v>
       </c>
       <c r="C16">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D16">
-        <v>340152</v>
+        <v>325392</v>
       </c>
       <c r="E16">
-        <v>-21792</v>
+        <v>-51510</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -8711,16 +8711,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>340152</v>
+        <v>325392</v>
       </c>
       <c r="L16">
-        <v>850380</v>
+        <v>813480</v>
       </c>
       <c r="M16" t="s">
         <v>155</v>
       </c>
       <c r="N16">
-        <v>-21792</v>
+        <v>-51510</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -8749,19 +8749,19 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17">
-        <v>2838.6</v>
+        <v>2834.6</v>
       </c>
       <c r="C17">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D17">
-        <v>340632</v>
+        <v>340152</v>
       </c>
       <c r="E17">
-        <v>-20592</v>
+        <v>-14610</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -8779,16 +8779,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>340632</v>
+        <v>340152</v>
       </c>
       <c r="L17">
-        <v>851580</v>
+        <v>850380</v>
       </c>
       <c r="M17" t="s">
         <v>155</v>
       </c>
       <c r="N17">
-        <v>-20592</v>
+        <v>-14610</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -8817,19 +8817,19 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18">
-        <v>2864.6</v>
+        <v>2838.6</v>
       </c>
       <c r="C18">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D18">
-        <v>343752</v>
+        <v>340632</v>
       </c>
       <c r="E18">
-        <v>-12792</v>
+        <v>-13410</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>343752</v>
+        <v>340632</v>
       </c>
       <c r="L18">
-        <v>859380</v>
+        <v>851580</v>
       </c>
       <c r="M18" t="s">
         <v>155</v>
       </c>
       <c r="N18">
-        <v>-12792</v>
+        <v>-13410</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -8885,19 +8885,19 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19">
-        <v>2904.4</v>
+        <v>2864.6</v>
       </c>
       <c r="C19">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D19">
-        <v>348528</v>
+        <v>343752</v>
       </c>
       <c r="E19">
-        <v>-852</v>
+        <v>-5610</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -8915,16 +8915,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>348528</v>
+        <v>343752</v>
       </c>
       <c r="L19">
-        <v>871320</v>
+        <v>859380</v>
       </c>
       <c r="M19" t="s">
         <v>155</v>
       </c>
       <c r="N19">
-        <v>-852</v>
+        <v>-5610</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -8953,19 +8953,19 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20">
-        <v>2892</v>
+        <v>2904.4</v>
       </c>
       <c r="C20">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D20">
-        <v>347040</v>
+        <v>348528</v>
       </c>
       <c r="E20">
-        <v>-4572</v>
+        <v>6330</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -8983,16 +8983,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>347040</v>
+        <v>348528</v>
       </c>
       <c r="L20">
-        <v>867600</v>
+        <v>871320</v>
       </c>
       <c r="M20" t="s">
         <v>155</v>
       </c>
       <c r="N20">
-        <v>-4572</v>
+        <v>6330</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -9021,19 +9021,19 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21">
-        <v>2856.8</v>
+        <v>2892</v>
       </c>
       <c r="C21">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D21">
-        <v>342816</v>
+        <v>347040</v>
       </c>
       <c r="E21">
-        <v>-15132</v>
+        <v>2610</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -9051,16 +9051,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>342816</v>
+        <v>347040</v>
       </c>
       <c r="L21">
-        <v>857040</v>
+        <v>867600</v>
       </c>
       <c r="M21" t="s">
         <v>155</v>
       </c>
       <c r="N21">
-        <v>-15132</v>
+        <v>2610</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -9089,19 +9089,19 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22">
-        <v>2849.6</v>
+        <v>2856.8</v>
       </c>
       <c r="C22">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D22">
-        <v>341952</v>
+        <v>342816</v>
       </c>
       <c r="E22">
-        <v>-17292</v>
+        <v>-7950</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -9119,16 +9119,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>341952</v>
+        <v>342816</v>
       </c>
       <c r="L22">
-        <v>854880</v>
+        <v>857040</v>
       </c>
       <c r="M22" t="s">
         <v>155</v>
       </c>
       <c r="N22">
-        <v>-17292</v>
+        <v>-7950</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -9157,19 +9157,19 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23">
-        <v>2827.8</v>
+        <v>2849.6</v>
       </c>
       <c r="C23">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D23">
-        <v>339336</v>
+        <v>341952</v>
       </c>
       <c r="E23">
-        <v>-23832</v>
+        <v>-10110</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -9187,16 +9187,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>339336</v>
+        <v>341952</v>
       </c>
       <c r="L23">
-        <v>848340</v>
+        <v>854880</v>
       </c>
       <c r="M23" t="s">
         <v>155</v>
       </c>
       <c r="N23">
-        <v>-23832</v>
+        <v>-10110</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -9225,19 +9225,19 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24">
-        <v>2904.2</v>
+        <v>2827.8</v>
       </c>
       <c r="C24">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D24">
-        <v>348504</v>
+        <v>339336</v>
       </c>
       <c r="E24">
-        <v>-912</v>
+        <v>-16650</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>348504</v>
+        <v>339336</v>
       </c>
       <c r="L24">
-        <v>871260</v>
+        <v>848340</v>
       </c>
       <c r="M24" t="s">
         <v>155</v>
       </c>
       <c r="N24">
-        <v>-912</v>
+        <v>-16650</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -9293,19 +9293,19 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25">
-        <v>2876.6</v>
+        <v>2904.2</v>
       </c>
       <c r="C25">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D25">
-        <v>345192</v>
+        <v>348504</v>
       </c>
       <c r="E25">
-        <v>-9192</v>
+        <v>6270</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -9323,16 +9323,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>345192</v>
+        <v>348504</v>
       </c>
       <c r="L25">
-        <v>862980</v>
+        <v>871260</v>
       </c>
       <c r="M25" t="s">
         <v>155</v>
       </c>
       <c r="N25">
-        <v>-9192</v>
+        <v>6270</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -9361,19 +9361,19 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26">
-        <v>2890.8</v>
+        <v>2876.6</v>
       </c>
       <c r="C26">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D26">
-        <v>346896</v>
+        <v>345192</v>
       </c>
       <c r="E26">
-        <v>-4932</v>
+        <v>-2010</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -9391,16 +9391,16 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>346896</v>
+        <v>345192</v>
       </c>
       <c r="L26">
-        <v>867240</v>
+        <v>862980</v>
       </c>
       <c r="M26" t="s">
         <v>155</v>
       </c>
       <c r="N26">
-        <v>-4932</v>
+        <v>-2010</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -9429,19 +9429,19 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27">
-        <v>2968.2</v>
+        <v>2890.8</v>
       </c>
       <c r="C27">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D27">
-        <v>356184</v>
+        <v>346896</v>
       </c>
       <c r="E27">
-        <v>18288</v>
+        <v>2250</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -9459,16 +9459,16 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>356184</v>
+        <v>346896</v>
       </c>
       <c r="L27">
-        <v>890460</v>
+        <v>867240</v>
       </c>
       <c r="M27" t="s">
         <v>155</v>
       </c>
       <c r="N27">
-        <v>18288</v>
+        <v>2250</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -9497,19 +9497,19 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28">
-        <v>3052.6</v>
+        <v>2968.2</v>
       </c>
       <c r="C28">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D28">
-        <v>366312</v>
+        <v>356184</v>
       </c>
       <c r="E28">
-        <v>43608</v>
+        <v>25470</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -9527,16 +9527,16 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>366312</v>
+        <v>356184</v>
       </c>
       <c r="L28">
-        <v>915780</v>
+        <v>890460</v>
       </c>
       <c r="M28" t="s">
         <v>155</v>
       </c>
       <c r="N28">
-        <v>43608</v>
+        <v>25470</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -9565,19 +9565,19 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29">
-        <v>3138</v>
+        <v>3052.6</v>
       </c>
       <c r="C29">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D29">
-        <v>376560</v>
+        <v>366312</v>
       </c>
       <c r="E29">
-        <v>69228</v>
+        <v>50790</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -9595,16 +9595,16 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>376560</v>
+        <v>366312</v>
       </c>
       <c r="L29">
-        <v>941400</v>
+        <v>915780</v>
       </c>
       <c r="M29" t="s">
         <v>155</v>
       </c>
       <c r="N29">
-        <v>69228</v>
+        <v>50790</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -9633,19 +9633,19 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30">
-        <v>3127.2</v>
+        <v>3138</v>
       </c>
       <c r="C30">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D30">
-        <v>375264</v>
+        <v>376560</v>
       </c>
       <c r="E30">
-        <v>65988</v>
+        <v>76410</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -9663,16 +9663,16 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>375264</v>
+        <v>376560</v>
       </c>
       <c r="L30">
-        <v>938160</v>
+        <v>941400</v>
       </c>
       <c r="M30" t="s">
         <v>155</v>
       </c>
       <c r="N30">
-        <v>65988</v>
+        <v>76410</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -9701,19 +9701,19 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31">
-        <v>3112.8</v>
+        <v>3127.2</v>
       </c>
       <c r="C31">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D31">
-        <v>373536</v>
+        <v>375264</v>
       </c>
       <c r="E31">
-        <v>61668</v>
+        <v>73170</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>373536</v>
+        <v>375264</v>
       </c>
       <c r="L31">
-        <v>933840</v>
+        <v>938160</v>
       </c>
       <c r="M31" t="s">
         <v>155</v>
       </c>
       <c r="N31">
-        <v>61668</v>
+        <v>73170</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -9769,19 +9769,19 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32">
-        <v>3069.6</v>
+        <v>3112.8</v>
       </c>
       <c r="C32">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D32">
-        <v>368352</v>
+        <v>373536</v>
       </c>
       <c r="E32">
-        <v>48708</v>
+        <v>68850</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -9799,16 +9799,16 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>368352</v>
+        <v>373536</v>
       </c>
       <c r="L32">
-        <v>920880</v>
+        <v>933840</v>
       </c>
       <c r="M32" t="s">
         <v>155</v>
       </c>
       <c r="N32">
-        <v>48708</v>
+        <v>68850</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -9837,19 +9837,19 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33">
-        <v>3068.2</v>
+        <v>3069.6</v>
       </c>
       <c r="C33">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D33">
-        <v>368184</v>
+        <v>368352</v>
       </c>
       <c r="E33">
-        <v>48288</v>
+        <v>55890</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -9867,16 +9867,16 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>368184</v>
+        <v>368352</v>
       </c>
       <c r="L33">
-        <v>920460</v>
+        <v>920880</v>
       </c>
       <c r="M33" t="s">
         <v>155</v>
       </c>
       <c r="N33">
-        <v>48288</v>
+        <v>55890</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -9905,19 +9905,19 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B34">
-        <v>3051.2</v>
+        <v>3068.2</v>
       </c>
       <c r="C34">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D34">
-        <v>366144</v>
+        <v>368184</v>
       </c>
       <c r="E34">
-        <v>43188</v>
+        <v>55470</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -9935,16 +9935,16 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>366144</v>
+        <v>368184</v>
       </c>
       <c r="L34">
-        <v>915360</v>
+        <v>920460</v>
       </c>
       <c r="M34" t="s">
         <v>155</v>
       </c>
       <c r="N34">
-        <v>43188</v>
+        <v>55470</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -9973,19 +9973,19 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35">
-        <v>3004.6</v>
+        <v>3051.2</v>
       </c>
       <c r="C35">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D35">
-        <v>360552</v>
+        <v>366144</v>
       </c>
       <c r="E35">
-        <v>29208</v>
+        <v>50370</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -10003,16 +10003,16 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>360552</v>
+        <v>366144</v>
       </c>
       <c r="L35">
-        <v>901380</v>
+        <v>915360</v>
       </c>
       <c r="M35" t="s">
         <v>155</v>
       </c>
       <c r="N35">
-        <v>29208</v>
+        <v>50370</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -10041,19 +10041,19 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B36">
-        <v>3085.4</v>
+        <v>3004.6</v>
       </c>
       <c r="C36">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D36">
-        <v>370248</v>
+        <v>360552</v>
       </c>
       <c r="E36">
-        <v>53448</v>
+        <v>36390</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -10071,16 +10071,16 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>370248</v>
+        <v>360552</v>
       </c>
       <c r="L36">
-        <v>925620</v>
+        <v>901380</v>
       </c>
       <c r="M36" t="s">
         <v>155</v>
       </c>
       <c r="N36">
-        <v>53448</v>
+        <v>36390</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -10109,19 +10109,19 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37">
-        <v>3091.6</v>
+        <v>3085.4</v>
       </c>
       <c r="C37">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D37">
-        <v>370992</v>
+        <v>370248</v>
       </c>
       <c r="E37">
-        <v>55308</v>
+        <v>60630</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -10139,16 +10139,16 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>370992</v>
+        <v>370248</v>
       </c>
       <c r="L37">
-        <v>927480</v>
+        <v>925620</v>
       </c>
       <c r="M37" t="s">
         <v>155</v>
       </c>
       <c r="N37">
-        <v>55308</v>
+        <v>60630</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -10177,19 +10177,19 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B38">
-        <v>3090.2</v>
+        <v>3091.6</v>
       </c>
       <c r="C38">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D38">
-        <v>370824</v>
+        <v>370992</v>
       </c>
       <c r="E38">
-        <v>54888</v>
+        <v>62490</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -10207,16 +10207,16 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>370824</v>
+        <v>370992</v>
       </c>
       <c r="L38">
-        <v>927060</v>
+        <v>927480</v>
       </c>
       <c r="M38" t="s">
         <v>155</v>
       </c>
       <c r="N38">
-        <v>54888</v>
+        <v>62490</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -10245,19 +10245,19 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B39">
-        <v>3147.2</v>
+        <v>3090.2</v>
       </c>
       <c r="C39">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D39">
-        <v>377664</v>
+        <v>370824</v>
       </c>
       <c r="E39">
-        <v>71988</v>
+        <v>62070</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -10275,16 +10275,16 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>377664</v>
+        <v>370824</v>
       </c>
       <c r="L39">
-        <v>944160</v>
+        <v>927060</v>
       </c>
       <c r="M39" t="s">
         <v>155</v>
       </c>
       <c r="N39">
-        <v>71988</v>
+        <v>62070</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -10313,19 +10313,19 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B40">
-        <v>3136.2</v>
+        <v>3147.2</v>
       </c>
       <c r="C40">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D40">
-        <v>376344</v>
+        <v>377664</v>
       </c>
       <c r="E40">
-        <v>68688</v>
+        <v>79170</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -10343,16 +10343,16 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>376344</v>
+        <v>377664</v>
       </c>
       <c r="L40">
-        <v>940860</v>
+        <v>944160</v>
       </c>
       <c r="M40" t="s">
         <v>155</v>
       </c>
       <c r="N40">
-        <v>68688</v>
+        <v>79170</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -10381,25 +10381,25 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41">
-        <v>3108.4</v>
+        <v>3136.2</v>
       </c>
       <c r="C41">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D41">
-        <v>373008</v>
+        <v>376344</v>
       </c>
       <c r="E41">
-        <v>60348</v>
+        <v>75870</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -10411,16 +10411,16 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>373008</v>
+        <v>376344</v>
       </c>
       <c r="L41">
-        <v>932520</v>
+        <v>940860</v>
       </c>
       <c r="M41" t="s">
         <v>155</v>
       </c>
       <c r="N41">
-        <v>60348</v>
+        <v>75870</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -10449,13 +10449,13 @@
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -10479,31 +10479,31 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>367488</v>
+        <v>373008</v>
       </c>
       <c r="L42">
-        <v>-918720</v>
+        <v>-932520</v>
       </c>
       <c r="M42" t="s">
         <v>155</v>
       </c>
       <c r="N42">
-        <v>-38070</v>
+        <v>-48279</v>
       </c>
       <c r="O42">
         <v>0</v>
       </c>
       <c r="P42">
-        <v>3062.4</v>
+        <v>3108.4</v>
       </c>
       <c r="Q42">
-        <v>2935.5</v>
+        <v>2947.47</v>
       </c>
       <c r="R42">
-        <v>367488</v>
+        <v>373008</v>
       </c>
       <c r="S42">
-        <v>-38070</v>
+        <v>-48279</v>
       </c>
       <c r="T42">
         <v>1</v>
@@ -10517,13 +10517,13 @@
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -10547,31 +10547,31 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>376128</v>
+        <v>367488</v>
       </c>
       <c r="L43">
-        <v>-940320</v>
+        <v>-918720</v>
       </c>
       <c r="M43" t="s">
         <v>155</v>
       </c>
       <c r="N43">
-        <v>-59670</v>
+        <v>-34479</v>
       </c>
       <c r="O43">
         <v>0</v>
       </c>
       <c r="P43">
-        <v>3134.4</v>
+        <v>3062.4</v>
       </c>
       <c r="Q43">
-        <v>2935.5</v>
+        <v>2947.47</v>
       </c>
       <c r="R43">
-        <v>376128</v>
+        <v>367488</v>
       </c>
       <c r="S43">
-        <v>-59670</v>
+        <v>-34479</v>
       </c>
       <c r="T43">
         <v>1</v>
@@ -10585,13 +10585,13 @@
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -10615,31 +10615,31 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>373104</v>
+        <v>376128</v>
       </c>
       <c r="L44">
-        <v>-932760</v>
+        <v>-940320</v>
       </c>
       <c r="M44" t="s">
         <v>155</v>
       </c>
       <c r="N44">
-        <v>-52110</v>
+        <v>-56079</v>
       </c>
       <c r="O44">
         <v>0</v>
       </c>
       <c r="P44">
-        <v>3109.2</v>
+        <v>3134.4</v>
       </c>
       <c r="Q44">
-        <v>2935.5</v>
+        <v>2947.47</v>
       </c>
       <c r="R44">
-        <v>373104</v>
+        <v>376128</v>
       </c>
       <c r="S44">
-        <v>-52110</v>
+        <v>-56079</v>
       </c>
       <c r="T44">
         <v>1</v>
@@ -10653,13 +10653,13 @@
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -10683,31 +10683,31 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>382872</v>
+        <v>373104</v>
       </c>
       <c r="L45">
-        <v>-957180</v>
+        <v>-932760</v>
       </c>
       <c r="M45" t="s">
         <v>155</v>
       </c>
       <c r="N45">
-        <v>-76530</v>
+        <v>-48519</v>
       </c>
       <c r="O45">
         <v>0</v>
       </c>
       <c r="P45">
-        <v>3190.6</v>
+        <v>3109.2</v>
       </c>
       <c r="Q45">
-        <v>2935.5</v>
+        <v>2947.47</v>
       </c>
       <c r="R45">
-        <v>382872</v>
+        <v>373104</v>
       </c>
       <c r="S45">
-        <v>-76530</v>
+        <v>-48519</v>
       </c>
       <c r="T45">
         <v>1</v>
@@ -10721,13 +10721,13 @@
     </row>
     <row r="46" spans="1:22">
       <c r="A46" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -10742,7 +10742,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -10751,31 +10751,31 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>382392</v>
+        <v>382872</v>
       </c>
       <c r="L46">
-        <v>-955980</v>
+        <v>-957180</v>
       </c>
       <c r="M46" t="s">
         <v>155</v>
       </c>
       <c r="N46">
-        <v>-75330</v>
+        <v>-72939</v>
       </c>
       <c r="O46">
         <v>0</v>
       </c>
       <c r="P46">
-        <v>3186.6</v>
+        <v>3190.6</v>
       </c>
       <c r="Q46">
-        <v>2935.5</v>
+        <v>2947.47</v>
       </c>
       <c r="R46">
-        <v>382392</v>
+        <v>382872</v>
       </c>
       <c r="S46">
-        <v>-75330</v>
+        <v>-72939</v>
       </c>
       <c r="T46">
         <v>1</v>
@@ -10789,19 +10789,19 @@
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B47">
-        <v>3186.4</v>
+        <v>3186.6</v>
       </c>
       <c r="C47">
         <v>3351.6</v>
       </c>
       <c r="D47">
-        <v>382368</v>
+        <v>382392</v>
       </c>
       <c r="E47">
-        <v>-49560</v>
+        <v>-49500</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -10819,16 +10819,16 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>382368</v>
+        <v>382392</v>
       </c>
       <c r="L47">
-        <v>955920</v>
+        <v>955980</v>
       </c>
       <c r="M47" t="s">
         <v>155</v>
       </c>
       <c r="N47">
-        <v>-49560</v>
+        <v>-49500</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>2935.5</v>
+        <v>2947.47</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -10857,25 +10857,25 @@
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B48">
-        <v>3148</v>
+        <v>3186.4</v>
       </c>
       <c r="C48">
         <v>3351.6</v>
       </c>
       <c r="D48">
-        <v>377760</v>
+        <v>382368</v>
       </c>
       <c r="E48">
-        <v>-61080</v>
+        <v>-49560</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -10887,16 +10887,16 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>377760</v>
+        <v>382368</v>
       </c>
       <c r="L48">
-        <v>944400</v>
+        <v>955920</v>
       </c>
       <c r="M48" t="s">
         <v>155</v>
       </c>
       <c r="N48">
-        <v>-61080</v>
+        <v>-49560</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>2935.5</v>
+        <v>2947.47</v>
       </c>
       <c r="R48">
         <v>0</v>
@@ -10925,7 +10925,7 @@
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -10955,31 +10955,31 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>377568</v>
+        <v>377760</v>
       </c>
       <c r="L49">
-        <v>-943920</v>
+        <v>-944400</v>
       </c>
       <c r="M49" t="s">
         <v>155</v>
       </c>
       <c r="N49">
-        <v>-41838</v>
+        <v>-48075</v>
       </c>
       <c r="O49">
         <v>0</v>
       </c>
       <c r="P49">
-        <v>3146.4</v>
+        <v>3148</v>
       </c>
       <c r="Q49">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R49">
-        <v>377568</v>
+        <v>377760</v>
       </c>
       <c r="S49">
-        <v>-41838</v>
+        <v>-48075</v>
       </c>
       <c r="T49">
         <v>1</v>
@@ -10993,7 +10993,7 @@
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -11023,31 +11023,31 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>367368</v>
+        <v>377568</v>
       </c>
       <c r="L50">
-        <v>-918420</v>
+        <v>-943920</v>
       </c>
       <c r="M50" t="s">
         <v>155</v>
       </c>
       <c r="N50">
-        <v>-16338</v>
+        <v>-47595</v>
       </c>
       <c r="O50">
         <v>0</v>
       </c>
       <c r="P50">
-        <v>3061.4</v>
+        <v>3146.4</v>
       </c>
       <c r="Q50">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R50">
-        <v>367368</v>
+        <v>377568</v>
       </c>
       <c r="S50">
-        <v>-16338</v>
+        <v>-47595</v>
       </c>
       <c r="T50">
         <v>1</v>
@@ -11061,7 +11061,7 @@
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -11091,31 +11091,31 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>371376</v>
+        <v>367368</v>
       </c>
       <c r="L51">
-        <v>-928440</v>
+        <v>-918420</v>
       </c>
       <c r="M51" t="s">
         <v>155</v>
       </c>
       <c r="N51">
-        <v>-26358</v>
+        <v>-22095</v>
       </c>
       <c r="O51">
         <v>0</v>
       </c>
       <c r="P51">
-        <v>3094.8</v>
+        <v>3061.4</v>
       </c>
       <c r="Q51">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R51">
-        <v>371376</v>
+        <v>367368</v>
       </c>
       <c r="S51">
-        <v>-26358</v>
+        <v>-22095</v>
       </c>
       <c r="T51">
         <v>1</v>
@@ -11129,7 +11129,7 @@
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -11159,31 +11159,31 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>371424</v>
+        <v>371376</v>
       </c>
       <c r="L52">
-        <v>-928560</v>
+        <v>-928440</v>
       </c>
       <c r="M52" t="s">
         <v>155</v>
       </c>
       <c r="N52">
-        <v>-26478</v>
+        <v>-32115</v>
       </c>
       <c r="O52">
         <v>0</v>
       </c>
       <c r="P52">
-        <v>3095.2</v>
+        <v>3094.8</v>
       </c>
       <c r="Q52">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R52">
-        <v>371424</v>
+        <v>371376</v>
       </c>
       <c r="S52">
-        <v>-26478</v>
+        <v>-32115</v>
       </c>
       <c r="T52">
         <v>1</v>
@@ -11197,7 +11197,7 @@
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -11227,31 +11227,31 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>369960</v>
+        <v>371424</v>
       </c>
       <c r="L53">
-        <v>-924900</v>
+        <v>-928560</v>
       </c>
       <c r="M53" t="s">
         <v>155</v>
       </c>
       <c r="N53">
-        <v>-22818</v>
+        <v>-32235</v>
       </c>
       <c r="O53">
         <v>0</v>
       </c>
       <c r="P53">
-        <v>3083</v>
+        <v>3095.2</v>
       </c>
       <c r="Q53">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R53">
-        <v>369960</v>
+        <v>371424</v>
       </c>
       <c r="S53">
-        <v>-22818</v>
+        <v>-32235</v>
       </c>
       <c r="T53">
         <v>1</v>
@@ -11265,7 +11265,7 @@
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -11295,31 +11295,31 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>370464</v>
+        <v>369960</v>
       </c>
       <c r="L54">
-        <v>-926160</v>
+        <v>-924900</v>
       </c>
       <c r="M54" t="s">
         <v>155</v>
       </c>
       <c r="N54">
-        <v>-24078</v>
+        <v>-28575</v>
       </c>
       <c r="O54">
         <v>0</v>
       </c>
       <c r="P54">
-        <v>3087.2</v>
+        <v>3083</v>
       </c>
       <c r="Q54">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R54">
-        <v>370464</v>
+        <v>369960</v>
       </c>
       <c r="S54">
-        <v>-24078</v>
+        <v>-28575</v>
       </c>
       <c r="T54">
         <v>1</v>
@@ -11333,7 +11333,7 @@
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -11363,31 +11363,31 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>370320</v>
+        <v>370464</v>
       </c>
       <c r="L55">
-        <v>-925800</v>
+        <v>-926160</v>
       </c>
       <c r="M55" t="s">
         <v>155</v>
       </c>
       <c r="N55">
-        <v>-23718</v>
+        <v>-29835</v>
       </c>
       <c r="O55">
         <v>0</v>
       </c>
       <c r="P55">
-        <v>3086</v>
+        <v>3087.2</v>
       </c>
       <c r="Q55">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R55">
-        <v>370320</v>
+        <v>370464</v>
       </c>
       <c r="S55">
-        <v>-23718</v>
+        <v>-29835</v>
       </c>
       <c r="T55">
         <v>1</v>
@@ -11401,7 +11401,7 @@
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -11431,31 +11431,31 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>369336</v>
+        <v>370320</v>
       </c>
       <c r="L56">
-        <v>-923340</v>
+        <v>-925800</v>
       </c>
       <c r="M56" t="s">
         <v>155</v>
       </c>
       <c r="N56">
-        <v>-21258</v>
+        <v>-29475</v>
       </c>
       <c r="O56">
         <v>0</v>
       </c>
       <c r="P56">
-        <v>3077.8</v>
+        <v>3086</v>
       </c>
       <c r="Q56">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R56">
-        <v>369336</v>
+        <v>370320</v>
       </c>
       <c r="S56">
-        <v>-21258</v>
+        <v>-29475</v>
       </c>
       <c r="T56">
         <v>1</v>
@@ -11469,7 +11469,7 @@
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -11499,31 +11499,31 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>370872</v>
+        <v>369336</v>
       </c>
       <c r="L57">
-        <v>-927180</v>
+        <v>-923340</v>
       </c>
       <c r="M57" t="s">
         <v>155</v>
       </c>
       <c r="N57">
-        <v>-25098</v>
+        <v>-27015</v>
       </c>
       <c r="O57">
         <v>0</v>
       </c>
       <c r="P57">
-        <v>3090.6</v>
+        <v>3077.8</v>
       </c>
       <c r="Q57">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R57">
-        <v>370872</v>
+        <v>369336</v>
       </c>
       <c r="S57">
-        <v>-25098</v>
+        <v>-27015</v>
       </c>
       <c r="T57">
         <v>1</v>
@@ -11537,7 +11537,7 @@
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -11567,31 +11567,31 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>377616</v>
+        <v>370872</v>
       </c>
       <c r="L58">
-        <v>-944040</v>
+        <v>-927180</v>
       </c>
       <c r="M58" t="s">
         <v>155</v>
       </c>
       <c r="N58">
-        <v>-41958</v>
+        <v>-30855</v>
       </c>
       <c r="O58">
         <v>0</v>
       </c>
       <c r="P58">
-        <v>3146.8</v>
+        <v>3090.6</v>
       </c>
       <c r="Q58">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R58">
-        <v>377616</v>
+        <v>370872</v>
       </c>
       <c r="S58">
-        <v>-41958</v>
+        <v>-30855</v>
       </c>
       <c r="T58">
         <v>1</v>
@@ -11605,7 +11605,7 @@
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -11635,31 +11635,31 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>377424</v>
+        <v>377616</v>
       </c>
       <c r="L59">
-        <v>-943560</v>
+        <v>-944040</v>
       </c>
       <c r="M59" t="s">
         <v>155</v>
       </c>
       <c r="N59">
-        <v>-41478</v>
+        <v>-47715</v>
       </c>
       <c r="O59">
         <v>0</v>
       </c>
       <c r="P59">
-        <v>3145.2</v>
+        <v>3146.8</v>
       </c>
       <c r="Q59">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R59">
-        <v>377424</v>
+        <v>377616</v>
       </c>
       <c r="S59">
-        <v>-41478</v>
+        <v>-47715</v>
       </c>
       <c r="T59">
         <v>1</v>
@@ -11673,7 +11673,7 @@
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -11703,31 +11703,31 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>377208</v>
+        <v>377424</v>
       </c>
       <c r="L60">
-        <v>-943020</v>
+        <v>-943560</v>
       </c>
       <c r="M60" t="s">
         <v>155</v>
       </c>
       <c r="N60">
-        <v>-40938</v>
+        <v>-47235</v>
       </c>
       <c r="O60">
         <v>0</v>
       </c>
       <c r="P60">
-        <v>3143.4</v>
+        <v>3145.2</v>
       </c>
       <c r="Q60">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R60">
-        <v>377208</v>
+        <v>377424</v>
       </c>
       <c r="S60">
-        <v>-40938</v>
+        <v>-47235</v>
       </c>
       <c r="T60">
         <v>1</v>
@@ -11741,7 +11741,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -11771,31 +11771,31 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>368736</v>
+        <v>377208</v>
       </c>
       <c r="L61">
-        <v>-921840</v>
+        <v>-943020</v>
       </c>
       <c r="M61" t="s">
         <v>155</v>
       </c>
       <c r="N61">
-        <v>-19758</v>
+        <v>-46695</v>
       </c>
       <c r="O61">
         <v>0</v>
       </c>
       <c r="P61">
-        <v>3072.8</v>
+        <v>3143.4</v>
       </c>
       <c r="Q61">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R61">
-        <v>368736</v>
+        <v>377208</v>
       </c>
       <c r="S61">
-        <v>-19758</v>
+        <v>-46695</v>
       </c>
       <c r="T61">
         <v>1</v>
@@ -11809,7 +11809,7 @@
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -11839,31 +11839,31 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>359088</v>
+        <v>368736</v>
       </c>
       <c r="L62">
-        <v>-897720</v>
+        <v>-921840</v>
       </c>
       <c r="M62" t="s">
         <v>155</v>
       </c>
       <c r="N62">
-        <v>4362</v>
+        <v>-25515</v>
       </c>
       <c r="O62">
         <v>0</v>
       </c>
       <c r="P62">
-        <v>2992.4</v>
+        <v>3072.8</v>
       </c>
       <c r="Q62">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R62">
-        <v>359088</v>
+        <v>368736</v>
       </c>
       <c r="S62">
-        <v>4362</v>
+        <v>-25515</v>
       </c>
       <c r="T62">
         <v>1</v>
@@ -11877,7 +11877,7 @@
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -11907,31 +11907,31 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>359784</v>
+        <v>359088</v>
       </c>
       <c r="L63">
-        <v>-899460</v>
+        <v>-897720</v>
       </c>
       <c r="M63" t="s">
         <v>155</v>
       </c>
       <c r="N63">
-        <v>2622</v>
+        <v>-1395</v>
       </c>
       <c r="O63">
         <v>0</v>
       </c>
       <c r="P63">
-        <v>2998.2</v>
+        <v>2992.4</v>
       </c>
       <c r="Q63">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R63">
-        <v>359784</v>
+        <v>359088</v>
       </c>
       <c r="S63">
-        <v>2622</v>
+        <v>-1395</v>
       </c>
       <c r="T63">
         <v>1</v>
@@ -11945,7 +11945,7 @@
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -11975,31 +11975,31 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>361728</v>
+        <v>359784</v>
       </c>
       <c r="L64">
-        <v>-904320</v>
+        <v>-899460</v>
       </c>
       <c r="M64" t="s">
         <v>155</v>
       </c>
       <c r="N64">
-        <v>-2238</v>
+        <v>-3135</v>
       </c>
       <c r="O64">
         <v>0</v>
       </c>
       <c r="P64">
-        <v>3014.4</v>
+        <v>2998.2</v>
       </c>
       <c r="Q64">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R64">
-        <v>361728</v>
+        <v>359784</v>
       </c>
       <c r="S64">
-        <v>-2238</v>
+        <v>-3135</v>
       </c>
       <c r="T64">
         <v>1</v>
@@ -12013,7 +12013,7 @@
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -12043,31 +12043,31 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>363288</v>
+        <v>361728</v>
       </c>
       <c r="L65">
-        <v>-908220</v>
+        <v>-904320</v>
       </c>
       <c r="M65" t="s">
         <v>155</v>
       </c>
       <c r="N65">
-        <v>-6138</v>
+        <v>-7995</v>
       </c>
       <c r="O65">
         <v>0</v>
       </c>
       <c r="P65">
-        <v>3027.4</v>
+        <v>3014.4</v>
       </c>
       <c r="Q65">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R65">
-        <v>363288</v>
+        <v>361728</v>
       </c>
       <c r="S65">
-        <v>-6138</v>
+        <v>-7995</v>
       </c>
       <c r="T65">
         <v>1</v>
@@ -12081,7 +12081,7 @@
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -12111,31 +12111,31 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>362784</v>
+        <v>363288</v>
       </c>
       <c r="L66">
-        <v>-906960</v>
+        <v>-908220</v>
       </c>
       <c r="M66" t="s">
         <v>155</v>
       </c>
       <c r="N66">
-        <v>-4878</v>
+        <v>-11895</v>
       </c>
       <c r="O66">
         <v>0</v>
       </c>
       <c r="P66">
-        <v>3023.2</v>
+        <v>3027.4</v>
       </c>
       <c r="Q66">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R66">
-        <v>362784</v>
+        <v>363288</v>
       </c>
       <c r="S66">
-        <v>-4878</v>
+        <v>-11895</v>
       </c>
       <c r="T66">
         <v>1</v>
@@ -12149,7 +12149,7 @@
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -12179,31 +12179,31 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>364176</v>
+        <v>362784</v>
       </c>
       <c r="L67">
-        <v>-910440</v>
+        <v>-906960</v>
       </c>
       <c r="M67" t="s">
         <v>155</v>
       </c>
       <c r="N67">
-        <v>-8358</v>
+        <v>-10635</v>
       </c>
       <c r="O67">
         <v>0</v>
       </c>
       <c r="P67">
-        <v>3034.8</v>
+        <v>3023.2</v>
       </c>
       <c r="Q67">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R67">
-        <v>364176</v>
+        <v>362784</v>
       </c>
       <c r="S67">
-        <v>-8358</v>
+        <v>-10635</v>
       </c>
       <c r="T67">
         <v>1</v>
@@ -12217,7 +12217,7 @@
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -12247,31 +12247,31 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>365160</v>
+        <v>364176</v>
       </c>
       <c r="L68">
-        <v>-912900</v>
+        <v>-910440</v>
       </c>
       <c r="M68" t="s">
         <v>155</v>
       </c>
       <c r="N68">
-        <v>-10818</v>
+        <v>-14115</v>
       </c>
       <c r="O68">
         <v>0</v>
       </c>
       <c r="P68">
-        <v>3043</v>
+        <v>3034.8</v>
       </c>
       <c r="Q68">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R68">
-        <v>365160</v>
+        <v>364176</v>
       </c>
       <c r="S68">
-        <v>-10818</v>
+        <v>-14115</v>
       </c>
       <c r="T68">
         <v>1</v>
@@ -12285,7 +12285,7 @@
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -12315,31 +12315,31 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>361008</v>
+        <v>365160</v>
       </c>
       <c r="L69">
-        <v>-902520</v>
+        <v>-912900</v>
       </c>
       <c r="M69" t="s">
         <v>155</v>
       </c>
       <c r="N69">
-        <v>-438</v>
+        <v>-16575</v>
       </c>
       <c r="O69">
         <v>0</v>
       </c>
       <c r="P69">
-        <v>3008.4</v>
+        <v>3043</v>
       </c>
       <c r="Q69">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R69">
-        <v>361008</v>
+        <v>365160</v>
       </c>
       <c r="S69">
-        <v>-438</v>
+        <v>-16575</v>
       </c>
       <c r="T69">
         <v>1</v>
@@ -12353,7 +12353,7 @@
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -12383,31 +12383,31 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>362520</v>
+        <v>361008</v>
       </c>
       <c r="L70">
-        <v>-906300</v>
+        <v>-902520</v>
       </c>
       <c r="M70" t="s">
         <v>155</v>
       </c>
       <c r="N70">
-        <v>-4218</v>
+        <v>-6195</v>
       </c>
       <c r="O70">
         <v>0</v>
       </c>
       <c r="P70">
-        <v>3021</v>
+        <v>3008.4</v>
       </c>
       <c r="Q70">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R70">
-        <v>362520</v>
+        <v>361008</v>
       </c>
       <c r="S70">
-        <v>-4218</v>
+        <v>-6195</v>
       </c>
       <c r="T70">
         <v>1</v>
@@ -12421,7 +12421,7 @@
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -12451,31 +12451,31 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>364440</v>
+        <v>362520</v>
       </c>
       <c r="L71">
-        <v>-911100</v>
+        <v>-906300</v>
       </c>
       <c r="M71" t="s">
         <v>155</v>
       </c>
       <c r="N71">
-        <v>-9018</v>
+        <v>-9975</v>
       </c>
       <c r="O71">
         <v>0</v>
       </c>
       <c r="P71">
-        <v>3037</v>
+        <v>3021</v>
       </c>
       <c r="Q71">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R71">
-        <v>364440</v>
+        <v>362520</v>
       </c>
       <c r="S71">
-        <v>-9018</v>
+        <v>-9975</v>
       </c>
       <c r="T71">
         <v>1</v>
@@ -12489,7 +12489,7 @@
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -12519,31 +12519,31 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>365304</v>
+        <v>364440</v>
       </c>
       <c r="L72">
-        <v>-913260</v>
+        <v>-911100</v>
       </c>
       <c r="M72" t="s">
         <v>155</v>
       </c>
       <c r="N72">
-        <v>-11178</v>
+        <v>-14775</v>
       </c>
       <c r="O72">
         <v>0</v>
       </c>
       <c r="P72">
-        <v>3044.2</v>
+        <v>3037</v>
       </c>
       <c r="Q72">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R72">
-        <v>365304</v>
+        <v>364440</v>
       </c>
       <c r="S72">
-        <v>-11178</v>
+        <v>-14775</v>
       </c>
       <c r="T72">
         <v>1</v>
@@ -12557,7 +12557,7 @@
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -12587,31 +12587,31 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>362952</v>
+        <v>365304</v>
       </c>
       <c r="L73">
-        <v>-907380</v>
+        <v>-913260</v>
       </c>
       <c r="M73" t="s">
         <v>155</v>
       </c>
       <c r="N73">
-        <v>-5298</v>
+        <v>-16935</v>
       </c>
       <c r="O73">
         <v>0</v>
       </c>
       <c r="P73">
-        <v>3024.6</v>
+        <v>3044.2</v>
       </c>
       <c r="Q73">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R73">
-        <v>362952</v>
+        <v>365304</v>
       </c>
       <c r="S73">
-        <v>-5298</v>
+        <v>-16935</v>
       </c>
       <c r="T73">
         <v>1</v>
@@ -12625,7 +12625,7 @@
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -12655,31 +12655,31 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>362904</v>
+        <v>362952</v>
       </c>
       <c r="L74">
-        <v>-907260</v>
+        <v>-907380</v>
       </c>
       <c r="M74" t="s">
         <v>155</v>
       </c>
       <c r="N74">
-        <v>-5178</v>
+        <v>-11055</v>
       </c>
       <c r="O74">
         <v>0</v>
       </c>
       <c r="P74">
-        <v>3024.2</v>
+        <v>3024.6</v>
       </c>
       <c r="Q74">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R74">
-        <v>362904</v>
+        <v>362952</v>
       </c>
       <c r="S74">
-        <v>-5178</v>
+        <v>-11055</v>
       </c>
       <c r="T74">
         <v>1</v>
@@ -12693,7 +12693,7 @@
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -12723,31 +12723,31 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>362616</v>
+        <v>362904</v>
       </c>
       <c r="L75">
-        <v>-906540</v>
+        <v>-907260</v>
       </c>
       <c r="M75" t="s">
         <v>155</v>
       </c>
       <c r="N75">
-        <v>-4458</v>
+        <v>-10935</v>
       </c>
       <c r="O75">
         <v>0</v>
       </c>
       <c r="P75">
-        <v>3021.8</v>
+        <v>3024.2</v>
       </c>
       <c r="Q75">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R75">
-        <v>362616</v>
+        <v>362904</v>
       </c>
       <c r="S75">
-        <v>-4458</v>
+        <v>-10935</v>
       </c>
       <c r="T75">
         <v>1</v>
@@ -12761,7 +12761,7 @@
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -12782,7 +12782,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -12791,31 +12791,31 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>363984</v>
+        <v>362616</v>
       </c>
       <c r="L76">
-        <v>-909960</v>
+        <v>-906540</v>
       </c>
       <c r="M76" t="s">
         <v>155</v>
       </c>
       <c r="N76">
-        <v>-7878</v>
+        <v>-10215</v>
       </c>
       <c r="O76">
         <v>0</v>
       </c>
       <c r="P76">
-        <v>3033.2</v>
+        <v>3021.8</v>
       </c>
       <c r="Q76">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R76">
-        <v>363984</v>
+        <v>362616</v>
       </c>
       <c r="S76">
-        <v>-7878</v>
+        <v>-10215</v>
       </c>
       <c r="T76">
         <v>1</v>
@@ -12829,19 +12829,19 @@
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B77">
-        <v>3035.8</v>
+        <v>3033.2</v>
       </c>
       <c r="C77">
-        <v>3179.4</v>
+        <v>3185.28</v>
       </c>
       <c r="D77">
-        <v>364296</v>
+        <v>363984</v>
       </c>
       <c r="E77">
-        <v>-43080</v>
+        <v>-45624</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -12859,16 +12859,16 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>364296</v>
+        <v>363984</v>
       </c>
       <c r="L77">
-        <v>910740</v>
+        <v>909960</v>
       </c>
       <c r="M77" t="s">
         <v>155</v>
       </c>
       <c r="N77">
-        <v>-43080</v>
+        <v>-45624</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R77">
         <v>0</v>
@@ -12897,19 +12897,19 @@
     </row>
     <row r="78" spans="1:22">
       <c r="A78" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B78">
-        <v>3142.8</v>
+        <v>3035.8</v>
       </c>
       <c r="C78">
-        <v>3179.4</v>
+        <v>3185.28</v>
       </c>
       <c r="D78">
-        <v>377136</v>
+        <v>364296</v>
       </c>
       <c r="E78">
-        <v>-10980</v>
+        <v>-44844</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -12927,16 +12927,16 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>377136</v>
+        <v>364296</v>
       </c>
       <c r="L78">
-        <v>942840</v>
+        <v>910740</v>
       </c>
       <c r="M78" t="s">
         <v>155</v>
       </c>
       <c r="N78">
-        <v>-10980</v>
+        <v>-44844</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -12945,7 +12945,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R78">
         <v>0</v>
@@ -12965,19 +12965,19 @@
     </row>
     <row r="79" spans="1:22">
       <c r="A79" s="1" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="B79">
-        <v>3135.8</v>
+        <v>3142.8</v>
       </c>
       <c r="C79">
-        <v>3179.4</v>
+        <v>3185.28</v>
       </c>
       <c r="D79">
-        <v>376296</v>
+        <v>377136</v>
       </c>
       <c r="E79">
-        <v>-13080</v>
+        <v>-12744</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -12995,16 +12995,16 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>376296</v>
+        <v>377136</v>
       </c>
       <c r="L79">
-        <v>940740</v>
+        <v>942840</v>
       </c>
       <c r="M79" t="s">
         <v>155</v>
       </c>
       <c r="N79">
-        <v>-13080</v>
+        <v>-12744</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -13013,7 +13013,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="R79">
         <v>0</v>
@@ -13028,6 +13028,74 @@
         <v>0</v>
       </c>
       <c r="V79" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
+      <c r="A80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80">
+        <v>3135.8</v>
+      </c>
+      <c r="C80">
+        <v>3185.28</v>
+      </c>
+      <c r="D80">
+        <v>376296</v>
+      </c>
+      <c r="E80">
+        <v>-14844</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>376296</v>
+      </c>
+      <c r="L80">
+        <v>940740</v>
+      </c>
+      <c r="M80" t="s">
+        <v>155</v>
+      </c>
+      <c r="N80">
+        <v>-14844</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>2987.75</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>-0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80" t="s">
         <v>156</v>
       </c>
     </row>
@@ -13090,13 +13158,13 @@
         <v>167</v>
       </c>
       <c r="B2">
-        <v>20.059956</v>
+        <v>19.89477</v>
       </c>
       <c r="C2">
-        <v>1492154495</v>
+        <v>1492234776</v>
       </c>
       <c r="D2">
-        <v>2907.24</v>
+        <v>2883.3</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -13105,7 +13173,7 @@
         <v>155</v>
       </c>
       <c r="G2">
-        <v>1492154482</v>
+        <v>1492234770</v>
       </c>
       <c r="H2" t="s">
         <v>172</v>
@@ -13123,7 +13191,7 @@
         <v>167</v>
       </c>
       <c r="M2">
-        <v>20.059956</v>
+        <v>19.89477</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -13131,13 +13199,13 @@
         <v>168</v>
       </c>
       <c r="B3">
-        <v>20.25495</v>
+        <v>20.337543</v>
       </c>
       <c r="C3">
-        <v>1492154496</v>
+        <v>1492234777</v>
       </c>
       <c r="D3">
-        <v>2935.5</v>
+        <v>2947.47</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -13146,7 +13214,7 @@
         <v>155</v>
       </c>
       <c r="G3">
-        <v>1492154483</v>
+        <v>1492234771</v>
       </c>
       <c r="H3" t="s">
         <v>173</v>
@@ -13164,7 +13232,7 @@
         <v>168</v>
       </c>
       <c r="M3">
-        <v>20.25495</v>
+        <v>20.337543</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -13172,13 +13240,13 @@
         <v>168</v>
       </c>
       <c r="B4">
-        <v>20.25495</v>
+        <v>20.337543</v>
       </c>
       <c r="C4">
-        <v>1492154497</v>
+        <v>1492234778</v>
       </c>
       <c r="D4">
-        <v>2935.5</v>
+        <v>2947.47</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -13187,7 +13255,7 @@
         <v>155</v>
       </c>
       <c r="G4">
-        <v>1492154484</v>
+        <v>1492234772</v>
       </c>
       <c r="H4" t="s">
         <v>172</v>
@@ -13205,7 +13273,7 @@
         <v>168</v>
       </c>
       <c r="M4">
-        <v>20.25495</v>
+        <v>20.337543</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -13216,7 +13284,7 @@
         <v>23.12604</v>
       </c>
       <c r="C5">
-        <v>1492154498</v>
+        <v>1492234779</v>
       </c>
       <c r="D5">
         <v>3351.6</v>
@@ -13228,7 +13296,7 @@
         <v>155</v>
       </c>
       <c r="G5">
-        <v>1492154485</v>
+        <v>1492234773</v>
       </c>
       <c r="H5" t="s">
         <v>173</v>
@@ -13257,7 +13325,7 @@
         <v>23.12604</v>
       </c>
       <c r="C6">
-        <v>1492154499</v>
+        <v>1492234780</v>
       </c>
       <c r="D6">
         <v>3351.6</v>
@@ -13269,7 +13337,7 @@
         <v>155</v>
       </c>
       <c r="G6">
-        <v>1492154486</v>
+        <v>1492234774</v>
       </c>
       <c r="H6" t="s">
         <v>172</v>
@@ -13295,13 +13363,13 @@
         <v>170</v>
       </c>
       <c r="B7">
-        <v>20.747886</v>
+        <v>20.615475</v>
       </c>
       <c r="C7">
-        <v>1492154500</v>
+        <v>1492234781</v>
       </c>
       <c r="D7">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -13310,7 +13378,7 @@
         <v>155</v>
       </c>
       <c r="G7">
-        <v>1492154487</v>
+        <v>1492234775</v>
       </c>
       <c r="H7" t="s">
         <v>173</v>
@@ -13328,7 +13396,7 @@
         <v>170</v>
       </c>
       <c r="M7">
-        <v>20.747886</v>
+        <v>20.615475</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -13336,13 +13404,13 @@
         <v>170</v>
       </c>
       <c r="B8">
-        <v>20.747886</v>
+        <v>20.615475</v>
       </c>
       <c r="C8">
-        <v>1492154501</v>
+        <v>1492234782</v>
       </c>
       <c r="D8">
-        <v>3006.94</v>
+        <v>2987.75</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -13351,7 +13419,7 @@
         <v>155</v>
       </c>
       <c r="G8">
-        <v>1492154488</v>
+        <v>1492234776</v>
       </c>
       <c r="H8" t="s">
         <v>172</v>
@@ -13369,7 +13437,7 @@
         <v>170</v>
       </c>
       <c r="M8">
-        <v>20.747886</v>
+        <v>20.615475</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -13377,13 +13445,13 @@
         <v>171</v>
       </c>
       <c r="B9">
-        <v>21.93786</v>
+        <v>21.978432</v>
       </c>
       <c r="C9">
-        <v>1492154502</v>
+        <v>1492234783</v>
       </c>
       <c r="D9">
-        <v>3179.4</v>
+        <v>3185.28</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -13392,7 +13460,7 @@
         <v>155</v>
       </c>
       <c r="G9">
-        <v>1492154489</v>
+        <v>1492234777</v>
       </c>
       <c r="H9" t="s">
         <v>173</v>
@@ -13410,7 +13478,7 @@
         <v>171</v>
       </c>
       <c r="M9">
-        <v>21.93786</v>
+        <v>21.978432</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -13418,13 +13486,13 @@
         <v>171</v>
       </c>
       <c r="B10">
-        <v>21.93786</v>
+        <v>21.978432</v>
       </c>
       <c r="C10">
-        <v>1492154503</v>
+        <v>1492234784</v>
       </c>
       <c r="D10">
-        <v>3179.4</v>
+        <v>3185.28</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -13433,7 +13501,7 @@
         <v>155</v>
       </c>
       <c r="G10">
-        <v>1492154490</v>
+        <v>1492234778</v>
       </c>
       <c r="H10" t="s">
         <v>172</v>
@@ -13451,7 +13519,7 @@
         <v>171</v>
       </c>
       <c r="M10">
-        <v>21.93786</v>
+        <v>21.978432</v>
       </c>
     </row>
   </sheetData>

--- a/InplusTrader/futureBacktest/result/IF_macd/report.xlsx
+++ b/InplusTrader/futureBacktest/result/IF_macd/report.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="156">
   <si>
     <t>val</t>
   </si>
@@ -101,7 +101,7 @@
     <t>[u'future']</t>
   </si>
   <si>
-    <t>2016-01-04</t>
+    <t>2016-02-01</t>
   </si>
   <si>
     <t>/home/vinson/PycharmProjects/InplusTrader_Linux/InplusTrader/futureBacktest/strategy/IF_macd.py</t>
@@ -123,66 +123,6 @@
   </si>
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>2016-01-05</t>
-  </si>
-  <si>
-    <t>2016-01-06</t>
-  </si>
-  <si>
-    <t>2016-01-07</t>
-  </si>
-  <si>
-    <t>2016-01-08</t>
-  </si>
-  <si>
-    <t>2016-01-11</t>
-  </si>
-  <si>
-    <t>2016-01-12</t>
-  </si>
-  <si>
-    <t>2016-01-13</t>
-  </si>
-  <si>
-    <t>2016-01-14</t>
-  </si>
-  <si>
-    <t>2016-01-15</t>
-  </si>
-  <si>
-    <t>2016-01-18</t>
-  </si>
-  <si>
-    <t>2016-01-19</t>
-  </si>
-  <si>
-    <t>2016-01-20</t>
-  </si>
-  <si>
-    <t>2016-01-21</t>
-  </si>
-  <si>
-    <t>2016-01-22</t>
-  </si>
-  <si>
-    <t>2016-01-25</t>
-  </si>
-  <si>
-    <t>2016-01-26</t>
-  </si>
-  <si>
-    <t>2016-01-27</t>
-  </si>
-  <si>
-    <t>2016-01-28</t>
-  </si>
-  <si>
-    <t>2016-01-29</t>
-  </si>
-  <si>
-    <t>2016-02-01</t>
   </si>
   <si>
     <t>2016-02-02</t>
@@ -924,7 +864,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.57</v>
+        <v>-0.646</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -945,7 +885,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.393</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -969,7 +909,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-1.724</v>
+        <v>-1.926</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1001,7 +941,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-1.778</v>
+        <v>-1.972</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1009,7 +949,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-1.938</v>
+        <v>-2.147</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1065,7 +1005,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.429</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1089,7 +1029,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.429</v>
+        <v>0.479</v>
       </c>
     </row>
   </sheetData>
@@ -1099,7 +1039,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1215,31 +1155,31 @@
         <v>36</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>-0.997</v>
       </c>
       <c r="C4">
-        <v>1000000</v>
+        <v>626246.105</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-46249.895</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>-0.046</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>818760</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>-0.046</v>
       </c>
       <c r="I4">
-        <v>1000000</v>
+        <v>953750.105</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.954</v>
       </c>
       <c r="K4">
         <v>1000000</v>
@@ -1250,31 +1190,31 @@
         <v>37</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.947</v>
       </c>
       <c r="C5">
-        <v>1000000</v>
+        <v>634958.105</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>14520</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>833280</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.954</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>-0.032</v>
       </c>
       <c r="I5">
-        <v>1000000</v>
+        <v>968270.105</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.968</v>
       </c>
       <c r="K5">
         <v>1000000</v>
@@ -1285,31 +1225,31 @@
         <v>38</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.9389999999999999</v>
       </c>
       <c r="C6">
-        <v>1000000</v>
+        <v>631502.105</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-5760</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.006</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>827520</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0.968</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>-0.037</v>
       </c>
       <c r="I6">
-        <v>1000000</v>
+        <v>962510.105</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.963</v>
       </c>
       <c r="K6">
         <v>1000000</v>
@@ -1320,31 +1260,31 @@
         <v>39</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>-0.662</v>
       </c>
       <c r="C7">
-        <v>1000000</v>
+        <v>627866.105</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-6060</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-0.006</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>821460</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0.963</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>-0.044</v>
       </c>
       <c r="I7">
-        <v>1000000</v>
+        <v>956450.105</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.956</v>
       </c>
       <c r="K7">
         <v>1000000</v>
@@ -1355,31 +1295,31 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>-0.377</v>
       </c>
       <c r="C8">
-        <v>1000000</v>
+        <v>641690.105</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>23040</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>844500</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0.956</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>-0.021</v>
       </c>
       <c r="I8">
-        <v>1000000</v>
+        <v>979490.105</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0.979</v>
       </c>
       <c r="K8">
         <v>1000000</v>
@@ -1390,31 +1330,31 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>-0.297</v>
       </c>
       <c r="C9">
-        <v>1000000</v>
+        <v>644210.105</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>848700</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0.979</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>-0.016</v>
       </c>
       <c r="I9">
-        <v>1000000</v>
+        <v>983690.105</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0.984</v>
       </c>
       <c r="K9">
         <v>1000000</v>
@@ -1425,31 +1365,31 @@
         <v>42</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>-0.263</v>
       </c>
       <c r="C10">
-        <v>1000000</v>
+        <v>645038.105</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1380</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>850080</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.984</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>-0.015</v>
       </c>
       <c r="I10">
-        <v>1000000</v>
+        <v>985070.105</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0.985</v>
       </c>
       <c r="K10">
         <v>1000000</v>
@@ -1460,31 +1400,31 @@
         <v>43</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>-0.278</v>
       </c>
       <c r="C11">
-        <v>1000000</v>
+        <v>643922.105</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>-1860</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>848220</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.985</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>-0.017</v>
       </c>
       <c r="I11">
-        <v>1000000</v>
+        <v>983210.105</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0.983</v>
       </c>
       <c r="K11">
         <v>1000000</v>
@@ -1495,31 +1435,31 @@
         <v>44</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>-0.045</v>
       </c>
       <c r="C12">
-        <v>1000000</v>
+        <v>652346.105</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>14040</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>862260</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0.983</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="I12">
-        <v>1000000</v>
+        <v>997250.105</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="K12">
         <v>1000000</v>
@@ -1530,31 +1470,31 @@
         <v>45</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>-0.22</v>
       </c>
       <c r="C13">
-        <v>1000000</v>
+        <v>644678.105</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>-12780</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>-0.013</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>849480</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>-0.016</v>
       </c>
       <c r="I13">
-        <v>1000000</v>
+        <v>984470.105</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0.984</v>
       </c>
       <c r="K13">
         <v>1000000</v>
@@ -1565,31 +1505,31 @@
         <v>46</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>-0.177</v>
       </c>
       <c r="C14">
-        <v>1000000</v>
+        <v>646370.105</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>2820</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>852300</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.984</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>-0.013</v>
       </c>
       <c r="I14">
-        <v>1000000</v>
+        <v>987290.105</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0.987</v>
       </c>
       <c r="K14">
         <v>1000000</v>
@@ -1600,31 +1540,31 @@
         <v>47</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.554</v>
       </c>
       <c r="C15">
-        <v>1000000</v>
+        <v>621746.105</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>-41040</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>-0.042</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>811260</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0.987</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>-0.054</v>
       </c>
       <c r="I15">
-        <v>1000000</v>
+        <v>946250.105</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0.946</v>
       </c>
       <c r="K15">
         <v>1000000</v>
@@ -1635,31 +1575,31 @@
         <v>48</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>-0.502</v>
       </c>
       <c r="C16">
-        <v>1000000</v>
+        <v>624950.105</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>5340</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>816600</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0.946</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>-0.048</v>
       </c>
       <c r="I16">
-        <v>1000000</v>
+        <v>951590.105</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0.952</v>
       </c>
       <c r="K16">
         <v>1000000</v>
@@ -1670,31 +1610,31 @@
         <v>49</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.647</v>
       </c>
       <c r="C17">
-        <v>1000000</v>
+        <v>606374.105</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>-30960</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>-0.033</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>785640</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0.952</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>-0.079</v>
       </c>
       <c r="I17">
-        <v>1000000</v>
+        <v>920630.105</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0.921</v>
       </c>
       <c r="K17">
         <v>1000000</v>
@@ -1705,31 +1645,31 @@
         <v>50</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.475</v>
       </c>
       <c r="C18">
-        <v>1000000</v>
+        <v>623078.105</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>27840</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>813480</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0.921</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>-0.052</v>
       </c>
       <c r="I18">
-        <v>1000000</v>
+        <v>948470.105</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0.948</v>
       </c>
       <c r="K18">
         <v>1000000</v>
@@ -1740,31 +1680,31 @@
         <v>51</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>-0.159</v>
       </c>
       <c r="C19">
-        <v>1000000</v>
+        <v>645218.105</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>36900</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.039</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>850380</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0.948</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>-0.015</v>
       </c>
       <c r="I19">
-        <v>1000000</v>
+        <v>985370.105</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0.985</v>
       </c>
       <c r="K19">
         <v>1000000</v>
@@ -1775,31 +1715,31 @@
         <v>52</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>-0.143</v>
       </c>
       <c r="C20">
-        <v>1000000</v>
+        <v>645938.105</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>851580</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0.985</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>-0.013</v>
       </c>
       <c r="I20">
-        <v>1000000</v>
+        <v>986570.105</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0.987</v>
       </c>
       <c r="K20">
         <v>1000000</v>
@@ -1810,31 +1750,31 @@
         <v>53</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>-0.061</v>
       </c>
       <c r="C21">
-        <v>1000000</v>
+        <v>650618.105</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>859380</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0.987</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>-0.006</v>
       </c>
       <c r="I21">
-        <v>1000000</v>
+        <v>994370.105</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="K21">
         <v>1000000</v>
@@ -1845,31 +1785,31 @@
         <v>54</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.066</v>
       </c>
       <c r="C22">
-        <v>1000000</v>
+        <v>657782.105</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>11940</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>871320</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="I22">
-        <v>1000000</v>
+        <v>1006310.105</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>1.006</v>
       </c>
       <c r="K22">
         <v>1000000</v>
@@ -1880,31 +1820,31 @@
         <v>55</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.026</v>
       </c>
       <c r="C23">
-        <v>1000000</v>
+        <v>655550.105</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-3720</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>-0.004</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>867600</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>1.006</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="I23">
-        <v>1000000</v>
+        <v>1002590.105</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>1.003</v>
       </c>
       <c r="K23">
         <v>1000000</v>
@@ -1915,31 +1855,31 @@
         <v>56</v>
       </c>
       <c r="B24">
-        <v>-0.427</v>
+        <v>-0.074</v>
       </c>
       <c r="C24">
-        <v>626246.105</v>
+        <v>649214.105</v>
       </c>
       <c r="D24">
-        <v>-46249.895</v>
+        <v>-10560</v>
       </c>
       <c r="E24">
-        <v>-0.046</v>
+        <v>-0.011</v>
       </c>
       <c r="F24">
-        <v>818760</v>
+        <v>857040</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>1.003</v>
       </c>
       <c r="H24">
-        <v>-0.046</v>
+        <v>-0.008</v>
       </c>
       <c r="I24">
-        <v>953750.105</v>
+        <v>992030.105</v>
       </c>
       <c r="J24">
-        <v>0.954</v>
+        <v>0.992</v>
       </c>
       <c r="K24">
         <v>1000000</v>
@@ -1950,31 +1890,31 @@
         <v>57</v>
       </c>
       <c r="B25">
-        <v>-0.308</v>
+        <v>-0.091</v>
       </c>
       <c r="C25">
-        <v>634958.105</v>
+        <v>647918.105</v>
       </c>
       <c r="D25">
-        <v>14520</v>
+        <v>-2160</v>
       </c>
       <c r="E25">
-        <v>0.015</v>
+        <v>-0.002</v>
       </c>
       <c r="F25">
-        <v>833280</v>
+        <v>854880</v>
       </c>
       <c r="G25">
-        <v>0.954</v>
+        <v>0.992</v>
       </c>
       <c r="H25">
-        <v>-0.032</v>
+        <v>-0.01</v>
       </c>
       <c r="I25">
-        <v>968270.105</v>
+        <v>989870.105</v>
       </c>
       <c r="J25">
-        <v>0.968</v>
+        <v>0.99</v>
       </c>
       <c r="K25">
         <v>1000000</v>
@@ -1985,31 +1925,31 @@
         <v>58</v>
       </c>
       <c r="B26">
-        <v>-0.345</v>
+        <v>-0.142</v>
       </c>
       <c r="C26">
-        <v>631502.105</v>
+        <v>643994.105</v>
       </c>
       <c r="D26">
-        <v>-5760</v>
+        <v>-6540</v>
       </c>
       <c r="E26">
-        <v>-0.006</v>
+        <v>-0.007</v>
       </c>
       <c r="F26">
-        <v>827520</v>
+        <v>848340</v>
       </c>
       <c r="G26">
-        <v>0.968</v>
+        <v>0.99</v>
       </c>
       <c r="H26">
-        <v>-0.037</v>
+        <v>-0.017</v>
       </c>
       <c r="I26">
-        <v>962510.105</v>
+        <v>983330.105</v>
       </c>
       <c r="J26">
-        <v>0.963</v>
+        <v>0.983</v>
       </c>
       <c r="K26">
         <v>1000000</v>
@@ -2020,31 +1960,31 @@
         <v>59</v>
       </c>
       <c r="B27">
-        <v>-0.315</v>
+        <v>0.054</v>
       </c>
       <c r="C27">
-        <v>627866.105</v>
+        <v>657746.105</v>
       </c>
       <c r="D27">
-        <v>-6060</v>
+        <v>22920</v>
       </c>
       <c r="E27">
-        <v>-0.006</v>
+        <v>0.023</v>
       </c>
       <c r="F27">
-        <v>821460</v>
+        <v>871260</v>
       </c>
       <c r="G27">
-        <v>0.963</v>
+        <v>0.983</v>
       </c>
       <c r="H27">
-        <v>-0.044</v>
+        <v>0.006</v>
       </c>
       <c r="I27">
-        <v>956450.105</v>
+        <v>1006250.105</v>
       </c>
       <c r="J27">
-        <v>0.956</v>
+        <v>1.006</v>
       </c>
       <c r="K27">
         <v>1000000</v>
@@ -2055,31 +1995,31 @@
         <v>60</v>
       </c>
       <c r="B28">
-        <v>-0.158</v>
+        <v>-0.017</v>
       </c>
       <c r="C28">
-        <v>641690.105</v>
+        <v>652778.105</v>
       </c>
       <c r="D28">
-        <v>23040</v>
+        <v>-8280</v>
       </c>
       <c r="E28">
-        <v>0.024</v>
+        <v>-0.008</v>
       </c>
       <c r="F28">
-        <v>844500</v>
+        <v>862980</v>
       </c>
       <c r="G28">
-        <v>0.956</v>
+        <v>1.006</v>
       </c>
       <c r="H28">
-        <v>-0.021</v>
+        <v>-0.002</v>
       </c>
       <c r="I28">
-        <v>979490.105</v>
+        <v>997970.105</v>
       </c>
       <c r="J28">
-        <v>0.979</v>
+        <v>0.998</v>
       </c>
       <c r="K28">
         <v>1000000</v>
@@ -2090,31 +2030,31 @@
         <v>61</v>
       </c>
       <c r="B29">
-        <v>-0.125</v>
+        <v>0.018</v>
       </c>
       <c r="C29">
-        <v>644210.105</v>
+        <v>655334.105</v>
       </c>
       <c r="D29">
-        <v>4200</v>
+        <v>4260</v>
       </c>
       <c r="E29">
         <v>0.004</v>
       </c>
       <c r="F29">
-        <v>848700</v>
+        <v>867240</v>
       </c>
       <c r="G29">
-        <v>0.979</v>
+        <v>0.998</v>
       </c>
       <c r="H29">
-        <v>-0.016</v>
+        <v>0.002</v>
       </c>
       <c r="I29">
-        <v>983690.105</v>
+        <v>1002230.105</v>
       </c>
       <c r="J29">
-        <v>0.984</v>
+        <v>1.002</v>
       </c>
       <c r="K29">
         <v>1000000</v>
@@ -2125,31 +2065,31 @@
         <v>62</v>
       </c>
       <c r="B30">
-        <v>-0.113</v>
+        <v>0.221</v>
       </c>
       <c r="C30">
-        <v>645038.105</v>
+        <v>669266.105</v>
       </c>
       <c r="D30">
-        <v>1380</v>
+        <v>23220</v>
       </c>
       <c r="E30">
-        <v>0.001</v>
+        <v>0.023</v>
       </c>
       <c r="F30">
-        <v>850080</v>
+        <v>890460</v>
       </c>
       <c r="G30">
-        <v>0.984</v>
+        <v>1.002</v>
       </c>
       <c r="H30">
-        <v>-0.015</v>
+        <v>0.025</v>
       </c>
       <c r="I30">
-        <v>985070.105</v>
+        <v>1025450.105</v>
       </c>
       <c r="J30">
-        <v>0.985</v>
+        <v>1.025</v>
       </c>
       <c r="K30">
         <v>1000000</v>
@@ -2160,31 +2100,31 @@
         <v>63</v>
       </c>
       <c r="B31">
-        <v>-0.123</v>
+        <v>0.469</v>
       </c>
       <c r="C31">
-        <v>643922.105</v>
+        <v>684458.105</v>
       </c>
       <c r="D31">
-        <v>-1860</v>
+        <v>25320</v>
       </c>
       <c r="E31">
-        <v>-0.002</v>
+        <v>0.025</v>
       </c>
       <c r="F31">
-        <v>848220</v>
+        <v>915780</v>
       </c>
       <c r="G31">
-        <v>0.985</v>
+        <v>1.025</v>
       </c>
       <c r="H31">
-        <v>-0.017</v>
+        <v>0.051</v>
       </c>
       <c r="I31">
-        <v>983210.105</v>
+        <v>1050770.105</v>
       </c>
       <c r="J31">
-        <v>0.983</v>
+        <v>1.051</v>
       </c>
       <c r="K31">
         <v>1000000</v>
@@ -2195,31 +2135,31 @@
         <v>64</v>
       </c>
       <c r="B32">
-        <v>-0.02</v>
+        <v>0.712</v>
       </c>
       <c r="C32">
-        <v>652346.105</v>
+        <v>699830.105</v>
       </c>
       <c r="D32">
-        <v>14040</v>
+        <v>25620</v>
       </c>
       <c r="E32">
-        <v>0.014</v>
+        <v>0.024</v>
       </c>
       <c r="F32">
-        <v>862260</v>
+        <v>941400</v>
       </c>
       <c r="G32">
-        <v>0.983</v>
+        <v>1.051</v>
       </c>
       <c r="H32">
-        <v>-0.003</v>
+        <v>0.076</v>
       </c>
       <c r="I32">
-        <v>997250.105</v>
+        <v>1076390.105</v>
       </c>
       <c r="J32">
-        <v>0.997</v>
+        <v>1.076</v>
       </c>
       <c r="K32">
         <v>1000000</v>
@@ -2230,31 +2170,31 @@
         <v>65</v>
       </c>
       <c r="B33">
-        <v>-0.106</v>
+        <v>0.657</v>
       </c>
       <c r="C33">
-        <v>644678.105</v>
+        <v>697886.105</v>
       </c>
       <c r="D33">
-        <v>-12780</v>
+        <v>-3240</v>
       </c>
       <c r="E33">
-        <v>-0.013</v>
+        <v>-0.003</v>
       </c>
       <c r="F33">
-        <v>849480</v>
+        <v>938160</v>
       </c>
       <c r="G33">
-        <v>0.997</v>
+        <v>1.076</v>
       </c>
       <c r="H33">
-        <v>-0.016</v>
+        <v>0.073</v>
       </c>
       <c r="I33">
-        <v>984470.105</v>
+        <v>1073150.105</v>
       </c>
       <c r="J33">
-        <v>0.984</v>
+        <v>1.073</v>
       </c>
       <c r="K33">
         <v>1000000</v>
@@ -2265,31 +2205,31 @@
         <v>66</v>
       </c>
       <c r="B34">
-        <v>-0.08599999999999999</v>
+        <v>0.596</v>
       </c>
       <c r="C34">
-        <v>646370.105</v>
+        <v>695294.105</v>
       </c>
       <c r="D34">
-        <v>2820</v>
+        <v>-4320</v>
       </c>
       <c r="E34">
-        <v>0.003</v>
+        <v>-0.004</v>
       </c>
       <c r="F34">
-        <v>852300</v>
+        <v>933840</v>
       </c>
       <c r="G34">
-        <v>0.984</v>
+        <v>1.073</v>
       </c>
       <c r="H34">
-        <v>-0.013</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I34">
-        <v>987290.105</v>
+        <v>1068830.105</v>
       </c>
       <c r="J34">
-        <v>0.987</v>
+        <v>1.069</v>
       </c>
       <c r="K34">
         <v>1000000</v>
@@ -2300,31 +2240,31 @@
         <v>67</v>
       </c>
       <c r="B35">
-        <v>-0.316</v>
+        <v>0.454</v>
       </c>
       <c r="C35">
-        <v>621746.105</v>
+        <v>687518.105</v>
       </c>
       <c r="D35">
-        <v>-41040</v>
+        <v>-12960</v>
       </c>
       <c r="E35">
-        <v>-0.042</v>
+        <v>-0.012</v>
       </c>
       <c r="F35">
-        <v>811260</v>
+        <v>920880</v>
       </c>
       <c r="G35">
-        <v>0.987</v>
+        <v>1.069</v>
       </c>
       <c r="H35">
-        <v>-0.054</v>
+        <v>0.056</v>
       </c>
       <c r="I35">
-        <v>946250.105</v>
+        <v>1055870.105</v>
       </c>
       <c r="J35">
-        <v>0.946</v>
+        <v>1.056</v>
       </c>
       <c r="K35">
         <v>1000000</v>
@@ -2335,31 +2275,31 @@
         <v>68</v>
       </c>
       <c r="B36">
-        <v>-0.285</v>
+        <v>0.44</v>
       </c>
       <c r="C36">
-        <v>624950.105</v>
+        <v>687266.105</v>
       </c>
       <c r="D36">
-        <v>5340</v>
+        <v>-420</v>
       </c>
       <c r="E36">
-        <v>0.006</v>
+        <v>-0</v>
       </c>
       <c r="F36">
-        <v>816600</v>
+        <v>920460</v>
       </c>
       <c r="G36">
-        <v>0.946</v>
+        <v>1.056</v>
       </c>
       <c r="H36">
-        <v>-0.048</v>
+        <v>0.055</v>
       </c>
       <c r="I36">
-        <v>951590.105</v>
+        <v>1055450.105</v>
       </c>
       <c r="J36">
-        <v>0.952</v>
+        <v>1.055</v>
       </c>
       <c r="K36">
         <v>1000000</v>
@@ -2370,31 +2310,31 @@
         <v>69</v>
       </c>
       <c r="B37">
-        <v>-0.411</v>
+        <v>0.37</v>
       </c>
       <c r="C37">
-        <v>606374.105</v>
+        <v>684206.105</v>
       </c>
       <c r="D37">
-        <v>-30960</v>
+        <v>-5100</v>
       </c>
       <c r="E37">
-        <v>-0.033</v>
+        <v>-0.005</v>
       </c>
       <c r="F37">
-        <v>785640</v>
+        <v>915360</v>
       </c>
       <c r="G37">
-        <v>0.952</v>
+        <v>1.055</v>
       </c>
       <c r="H37">
-        <v>-0.079</v>
+        <v>0.05</v>
       </c>
       <c r="I37">
-        <v>920630.105</v>
+        <v>1050350.105</v>
       </c>
       <c r="J37">
-        <v>0.921</v>
+        <v>1.05</v>
       </c>
       <c r="K37">
         <v>1000000</v>
@@ -2405,31 +2345,31 @@
         <v>70</v>
       </c>
       <c r="B38">
-        <v>-0.283</v>
+        <v>0.252</v>
       </c>
       <c r="C38">
-        <v>623078.105</v>
+        <v>675818.105</v>
       </c>
       <c r="D38">
-        <v>27840</v>
+        <v>-13980</v>
       </c>
       <c r="E38">
-        <v>0.03</v>
+        <v>-0.013</v>
       </c>
       <c r="F38">
-        <v>813480</v>
+        <v>901380</v>
       </c>
       <c r="G38">
-        <v>0.921</v>
+        <v>1.05</v>
       </c>
       <c r="H38">
-        <v>-0.052</v>
+        <v>0.036</v>
       </c>
       <c r="I38">
-        <v>948470.105</v>
+        <v>1036370.105</v>
       </c>
       <c r="J38">
-        <v>0.948</v>
+        <v>1.036</v>
       </c>
       <c r="K38">
         <v>1000000</v>
@@ -2440,31 +2380,31 @@
         <v>71</v>
       </c>
       <c r="B39">
-        <v>-0.08699999999999999</v>
+        <v>0.439</v>
       </c>
       <c r="C39">
-        <v>645218.105</v>
+        <v>690362.105</v>
       </c>
       <c r="D39">
-        <v>36900</v>
+        <v>24240</v>
       </c>
       <c r="E39">
-        <v>0.039</v>
+        <v>0.023</v>
       </c>
       <c r="F39">
-        <v>850380</v>
+        <v>925620</v>
       </c>
       <c r="G39">
-        <v>0.948</v>
+        <v>1.036</v>
       </c>
       <c r="H39">
-        <v>-0.015</v>
+        <v>0.061</v>
       </c>
       <c r="I39">
-        <v>985370.105</v>
+        <v>1060610.105</v>
       </c>
       <c r="J39">
-        <v>0.985</v>
+        <v>1.061</v>
       </c>
       <c r="K39">
         <v>1000000</v>
@@ -2475,31 +2415,31 @@
         <v>72</v>
       </c>
       <c r="B40">
-        <v>-0.079</v>
+        <v>0.446</v>
       </c>
       <c r="C40">
-        <v>645938.105</v>
+        <v>691478.105</v>
       </c>
       <c r="D40">
-        <v>1200</v>
+        <v>1860</v>
       </c>
       <c r="E40">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F40">
-        <v>851580</v>
+        <v>927480</v>
       </c>
       <c r="G40">
-        <v>0.985</v>
+        <v>1.061</v>
       </c>
       <c r="H40">
-        <v>-0.013</v>
+        <v>0.062</v>
       </c>
       <c r="I40">
-        <v>986570.105</v>
+        <v>1062470.105</v>
       </c>
       <c r="J40">
-        <v>0.987</v>
+        <v>1.062</v>
       </c>
       <c r="K40">
         <v>1000000</v>
@@ -2510,31 +2450,31 @@
         <v>73</v>
       </c>
       <c r="B41">
-        <v>-0.033</v>
+        <v>0.434</v>
       </c>
       <c r="C41">
-        <v>650618.105</v>
+        <v>691226.105</v>
       </c>
       <c r="D41">
-        <v>7800</v>
+        <v>-420</v>
       </c>
       <c r="E41">
-        <v>0.008</v>
+        <v>-0</v>
       </c>
       <c r="F41">
-        <v>859380</v>
+        <v>927060</v>
       </c>
       <c r="G41">
-        <v>0.987</v>
+        <v>1.062</v>
       </c>
       <c r="H41">
-        <v>-0.006</v>
+        <v>0.062</v>
       </c>
       <c r="I41">
-        <v>994370.105</v>
+        <v>1062050.105</v>
       </c>
       <c r="J41">
-        <v>0.994</v>
+        <v>1.062</v>
       </c>
       <c r="K41">
         <v>1000000</v>
@@ -2545,31 +2485,31 @@
         <v>74</v>
       </c>
       <c r="B42">
-        <v>0.037</v>
+        <v>0.534</v>
       </c>
       <c r="C42">
-        <v>657782.105</v>
+        <v>701486.105</v>
       </c>
       <c r="D42">
-        <v>11940</v>
+        <v>17100</v>
       </c>
       <c r="E42">
-        <v>0.012</v>
+        <v>0.016</v>
       </c>
       <c r="F42">
-        <v>871320</v>
+        <v>944160</v>
       </c>
       <c r="G42">
-        <v>0.994</v>
+        <v>1.062</v>
       </c>
       <c r="H42">
-        <v>0.006</v>
+        <v>0.079</v>
       </c>
       <c r="I42">
-        <v>1006310.105</v>
+        <v>1079150.105</v>
       </c>
       <c r="J42">
-        <v>1.006</v>
+        <v>1.079</v>
       </c>
       <c r="K42">
         <v>1000000</v>
@@ -2580,31 +2520,31 @@
         <v>75</v>
       </c>
       <c r="B43">
-        <v>0.015</v>
+        <v>0.498</v>
       </c>
       <c r="C43">
-        <v>655550.105</v>
+        <v>699506.105</v>
       </c>
       <c r="D43">
-        <v>-3720</v>
+        <v>-3300</v>
       </c>
       <c r="E43">
-        <v>-0.004</v>
+        <v>-0.003</v>
       </c>
       <c r="F43">
-        <v>867600</v>
+        <v>940860</v>
       </c>
       <c r="G43">
-        <v>1.006</v>
+        <v>1.079</v>
       </c>
       <c r="H43">
-        <v>0.003</v>
+        <v>0.076</v>
       </c>
       <c r="I43">
-        <v>1002590.105</v>
+        <v>1075850.105</v>
       </c>
       <c r="J43">
-        <v>1.003</v>
+        <v>1.076</v>
       </c>
       <c r="K43">
         <v>1000000</v>
@@ -2615,31 +2555,31 @@
         <v>76</v>
       </c>
       <c r="B44">
-        <v>-0.043</v>
+        <v>-0.251</v>
       </c>
       <c r="C44">
-        <v>649214.105</v>
+        <v>575255.83</v>
       </c>
       <c r="D44">
-        <v>-10560</v>
+        <v>-127586.275</v>
       </c>
       <c r="E44">
-        <v>-0.011</v>
+        <v>-0.119</v>
       </c>
       <c r="F44">
-        <v>857040</v>
+        <v>-932520</v>
       </c>
       <c r="G44">
-        <v>1.003</v>
+        <v>1.076</v>
       </c>
       <c r="H44">
-        <v>-0.008</v>
+        <v>-0.052</v>
       </c>
       <c r="I44">
-        <v>992030.105</v>
+        <v>948263.83</v>
       </c>
       <c r="J44">
-        <v>0.992</v>
+        <v>0.948</v>
       </c>
       <c r="K44">
         <v>1000000</v>
@@ -2650,31 +2590,31 @@
         <v>77</v>
       </c>
       <c r="B45">
-        <v>-0.054</v>
+        <v>-0.187</v>
       </c>
       <c r="C45">
-        <v>647918.105</v>
+        <v>594575.83</v>
       </c>
       <c r="D45">
-        <v>-2160</v>
+        <v>13800</v>
       </c>
       <c r="E45">
-        <v>-0.002</v>
+        <v>0.015</v>
       </c>
       <c r="F45">
-        <v>854880</v>
+        <v>-918720</v>
       </c>
       <c r="G45">
-        <v>0.992</v>
+        <v>0.948</v>
       </c>
       <c r="H45">
-        <v>-0.01</v>
+        <v>-0.038</v>
       </c>
       <c r="I45">
-        <v>989870.105</v>
+        <v>962063.83</v>
       </c>
       <c r="J45">
-        <v>0.99</v>
+        <v>0.962</v>
       </c>
       <c r="K45">
         <v>1000000</v>
@@ -2685,31 +2625,31 @@
         <v>78</v>
       </c>
       <c r="B46">
-        <v>-0.08599999999999999</v>
+        <v>-0.271</v>
       </c>
       <c r="C46">
-        <v>643994.105</v>
+        <v>564335.83</v>
       </c>
       <c r="D46">
-        <v>-6540</v>
+        <v>-21600</v>
       </c>
       <c r="E46">
-        <v>-0.007</v>
+        <v>-0.022</v>
       </c>
       <c r="F46">
-        <v>848340</v>
+        <v>-940320</v>
       </c>
       <c r="G46">
-        <v>0.99</v>
+        <v>0.962</v>
       </c>
       <c r="H46">
-        <v>-0.017</v>
+        <v>-0.06</v>
       </c>
       <c r="I46">
-        <v>983330.105</v>
+        <v>940463.83</v>
       </c>
       <c r="J46">
-        <v>0.983</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K46">
         <v>1000000</v>
@@ -2720,31 +2660,31 @@
         <v>79</v>
       </c>
       <c r="B47">
-        <v>0.033</v>
+        <v>-0.237</v>
       </c>
       <c r="C47">
-        <v>657746.105</v>
+        <v>574919.83</v>
       </c>
       <c r="D47">
-        <v>22920</v>
+        <v>7560</v>
       </c>
       <c r="E47">
-        <v>0.023</v>
+        <v>0.008</v>
       </c>
       <c r="F47">
-        <v>871260</v>
+        <v>-932760</v>
       </c>
       <c r="G47">
-        <v>0.983</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H47">
-        <v>0.006</v>
+        <v>-0.052</v>
       </c>
       <c r="I47">
-        <v>1006250.105</v>
+        <v>948023.83</v>
       </c>
       <c r="J47">
-        <v>1.006</v>
+        <v>0.948</v>
       </c>
       <c r="K47">
         <v>1000000</v>
@@ -2755,31 +2695,31 @@
         <v>80</v>
       </c>
       <c r="B48">
-        <v>-0.01</v>
+        <v>-0.328</v>
       </c>
       <c r="C48">
-        <v>652778.105</v>
+        <v>540731.83</v>
       </c>
       <c r="D48">
-        <v>-8280</v>
+        <v>-24420</v>
       </c>
       <c r="E48">
-        <v>-0.008</v>
+        <v>-0.026</v>
       </c>
       <c r="F48">
-        <v>862980</v>
+        <v>-957180</v>
       </c>
       <c r="G48">
-        <v>1.006</v>
+        <v>0.948</v>
       </c>
       <c r="H48">
-        <v>-0.002</v>
+        <v>-0.076</v>
       </c>
       <c r="I48">
-        <v>997970.105</v>
+        <v>923603.83</v>
       </c>
       <c r="J48">
-        <v>0.998</v>
+        <v>0.924</v>
       </c>
       <c r="K48">
         <v>1000000</v>
@@ -2790,31 +2730,31 @@
         <v>81</v>
       </c>
       <c r="B49">
-        <v>0.011</v>
+        <v>-0.5639999999999999</v>
       </c>
       <c r="C49">
-        <v>655334.105</v>
+        <v>462685.578</v>
       </c>
       <c r="D49">
-        <v>4260</v>
+        <v>-78526.25199999999</v>
       </c>
       <c r="E49">
-        <v>0.004</v>
+        <v>-0.08500000000000001</v>
       </c>
       <c r="F49">
-        <v>867240</v>
+        <v>955980</v>
       </c>
       <c r="G49">
-        <v>0.998</v>
+        <v>0.924</v>
       </c>
       <c r="H49">
-        <v>0.002</v>
+        <v>-0.155</v>
       </c>
       <c r="I49">
-        <v>1002230.105</v>
+        <v>845077.578</v>
       </c>
       <c r="J49">
-        <v>1.002</v>
+        <v>0.845</v>
       </c>
       <c r="K49">
         <v>1000000</v>
@@ -2825,31 +2765,31 @@
         <v>82</v>
       </c>
       <c r="B50">
-        <v>0.132</v>
+        <v>-0.5590000000000001</v>
       </c>
       <c r="C50">
-        <v>669266.105</v>
+        <v>462649.578</v>
       </c>
       <c r="D50">
-        <v>23220</v>
+        <v>-60</v>
       </c>
       <c r="E50">
-        <v>0.023</v>
+        <v>-0</v>
       </c>
       <c r="F50">
-        <v>890460</v>
+        <v>955920</v>
       </c>
       <c r="G50">
-        <v>1.002</v>
+        <v>0.845</v>
       </c>
       <c r="H50">
-        <v>0.025</v>
+        <v>-0.155</v>
       </c>
       <c r="I50">
-        <v>1025450.105</v>
+        <v>845017.578</v>
       </c>
       <c r="J50">
-        <v>1.025</v>
+        <v>0.845</v>
       </c>
       <c r="K50">
         <v>1000000</v>
@@ -2860,31 +2800,31 @@
         <v>83</v>
       </c>
       <c r="B51">
-        <v>0.273</v>
+        <v>-0.794</v>
       </c>
       <c r="C51">
-        <v>684458.105</v>
+        <v>335708.347</v>
       </c>
       <c r="D51">
-        <v>25320</v>
+        <v>-131549.231</v>
       </c>
       <c r="E51">
-        <v>0.025</v>
+        <v>-0.156</v>
       </c>
       <c r="F51">
-        <v>915780</v>
+        <v>-944400</v>
       </c>
       <c r="G51">
-        <v>1.025</v>
+        <v>0.845</v>
       </c>
       <c r="H51">
-        <v>0.051</v>
+        <v>-0.287</v>
       </c>
       <c r="I51">
-        <v>1050770.105</v>
+        <v>713468.347</v>
       </c>
       <c r="J51">
-        <v>1.051</v>
+        <v>0.713</v>
       </c>
       <c r="K51">
         <v>1000000</v>
@@ -2895,31 +2835,31 @@
         <v>84</v>
       </c>
       <c r="B52">
-        <v>0.411</v>
+        <v>-0.789</v>
       </c>
       <c r="C52">
-        <v>699830.105</v>
+        <v>336380.347</v>
       </c>
       <c r="D52">
-        <v>25620</v>
+        <v>480</v>
       </c>
       <c r="E52">
-        <v>0.024</v>
+        <v>0.001</v>
       </c>
       <c r="F52">
-        <v>941400</v>
+        <v>-943920</v>
       </c>
       <c r="G52">
-        <v>1.051</v>
+        <v>0.713</v>
       </c>
       <c r="H52">
-        <v>0.076</v>
+        <v>-0.286</v>
       </c>
       <c r="I52">
-        <v>1076390.105</v>
+        <v>713948.347</v>
       </c>
       <c r="J52">
-        <v>1.076</v>
+        <v>0.714</v>
       </c>
       <c r="K52">
         <v>1000000</v>
@@ -2930,31 +2870,31 @@
         <v>85</v>
       </c>
       <c r="B53">
-        <v>0.386</v>
+        <v>-0.748</v>
       </c>
       <c r="C53">
-        <v>697886.105</v>
+        <v>372080.347</v>
       </c>
       <c r="D53">
-        <v>-3240</v>
+        <v>25500</v>
       </c>
       <c r="E53">
-        <v>-0.003</v>
+        <v>0.036</v>
       </c>
       <c r="F53">
-        <v>938160</v>
+        <v>-918420</v>
       </c>
       <c r="G53">
-        <v>1.076</v>
+        <v>0.714</v>
       </c>
       <c r="H53">
-        <v>0.073</v>
+        <v>-0.261</v>
       </c>
       <c r="I53">
-        <v>1073150.105</v>
+        <v>739448.347</v>
       </c>
       <c r="J53">
-        <v>1.073</v>
+        <v>0.739</v>
       </c>
       <c r="K53">
         <v>1000000</v>
@@ -2965,31 +2905,31 @@
         <v>86</v>
       </c>
       <c r="B54">
-        <v>0.355</v>
+        <v>-0.759</v>
       </c>
       <c r="C54">
-        <v>695294.105</v>
+        <v>358052.347</v>
       </c>
       <c r="D54">
-        <v>-4320</v>
+        <v>-10020</v>
       </c>
       <c r="E54">
-        <v>-0.004</v>
+        <v>-0.014</v>
       </c>
       <c r="F54">
-        <v>933840</v>
+        <v>-928440</v>
       </c>
       <c r="G54">
-        <v>1.073</v>
+        <v>0.739</v>
       </c>
       <c r="H54">
-        <v>0.06900000000000001</v>
+        <v>-0.271</v>
       </c>
       <c r="I54">
-        <v>1068830.105</v>
+        <v>729428.347</v>
       </c>
       <c r="J54">
-        <v>1.069</v>
+        <v>0.729</v>
       </c>
       <c r="K54">
         <v>1000000</v>
@@ -3000,31 +2940,31 @@
         <v>87</v>
       </c>
       <c r="B55">
-        <v>0.278</v>
+        <v>-0.755</v>
       </c>
       <c r="C55">
-        <v>687518.105</v>
+        <v>357884.347</v>
       </c>
       <c r="D55">
-        <v>-12960</v>
+        <v>-120</v>
       </c>
       <c r="E55">
-        <v>-0.012</v>
+        <v>-0</v>
       </c>
       <c r="F55">
-        <v>920880</v>
+        <v>-928560</v>
       </c>
       <c r="G55">
-        <v>1.069</v>
+        <v>0.729</v>
       </c>
       <c r="H55">
-        <v>0.056</v>
+        <v>-0.271</v>
       </c>
       <c r="I55">
-        <v>1055870.105</v>
+        <v>729308.347</v>
       </c>
       <c r="J55">
-        <v>1.056</v>
+        <v>0.729</v>
       </c>
       <c r="K55">
         <v>1000000</v>
@@ -3035,31 +2975,31 @@
         <v>88</v>
       </c>
       <c r="B56">
-        <v>0.272</v>
+        <v>-0.737</v>
       </c>
       <c r="C56">
-        <v>687266.105</v>
+        <v>363008.347</v>
       </c>
       <c r="D56">
-        <v>-420</v>
+        <v>3660</v>
       </c>
       <c r="E56">
-        <v>-0</v>
+        <v>0.005</v>
       </c>
       <c r="F56">
-        <v>920460</v>
+        <v>-924900</v>
       </c>
       <c r="G56">
-        <v>1.056</v>
+        <v>0.729</v>
       </c>
       <c r="H56">
-        <v>0.055</v>
+        <v>-0.267</v>
       </c>
       <c r="I56">
-        <v>1055450.105</v>
+        <v>732968.347</v>
       </c>
       <c r="J56">
-        <v>1.055</v>
+        <v>0.733</v>
       </c>
       <c r="K56">
         <v>1000000</v>
@@ -3070,31 +3010,31 @@
         <v>89</v>
       </c>
       <c r="B57">
-        <v>0.235</v>
+        <v>-0.734</v>
       </c>
       <c r="C57">
-        <v>684206.105</v>
+        <v>361244.347</v>
       </c>
       <c r="D57">
-        <v>-5100</v>
+        <v>-1260</v>
       </c>
       <c r="E57">
-        <v>-0.005</v>
+        <v>-0.002</v>
       </c>
       <c r="F57">
-        <v>915360</v>
+        <v>-926160</v>
       </c>
       <c r="G57">
-        <v>1.055</v>
+        <v>0.733</v>
       </c>
       <c r="H57">
-        <v>0.05</v>
+        <v>-0.268</v>
       </c>
       <c r="I57">
-        <v>1050350.105</v>
+        <v>731708.347</v>
       </c>
       <c r="J57">
-        <v>1.05</v>
+        <v>0.732</v>
       </c>
       <c r="K57">
         <v>1000000</v>
@@ -3105,31 +3045,31 @@
         <v>90</v>
       </c>
       <c r="B58">
-        <v>0.164</v>
+        <v>-0.73</v>
       </c>
       <c r="C58">
-        <v>675818.105</v>
+        <v>361748.347</v>
       </c>
       <c r="D58">
-        <v>-13980</v>
+        <v>360</v>
       </c>
       <c r="E58">
-        <v>-0.013</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>901380</v>
+        <v>-925800</v>
       </c>
       <c r="G58">
-        <v>1.05</v>
+        <v>0.732</v>
       </c>
       <c r="H58">
-        <v>0.036</v>
+        <v>-0.268</v>
       </c>
       <c r="I58">
-        <v>1036370.105</v>
+        <v>732068.347</v>
       </c>
       <c r="J58">
-        <v>1.036</v>
+        <v>0.732</v>
       </c>
       <c r="K58">
         <v>1000000</v>
@@ -3140,31 +3080,31 @@
         <v>91</v>
       </c>
       <c r="B59">
-        <v>0.28</v>
+        <v>-0.722</v>
       </c>
       <c r="C59">
-        <v>690362.105</v>
+        <v>365192.347</v>
       </c>
       <c r="D59">
-        <v>24240</v>
+        <v>2460</v>
       </c>
       <c r="E59">
-        <v>0.023</v>
+        <v>0.003</v>
       </c>
       <c r="F59">
-        <v>925620</v>
+        <v>-923340</v>
       </c>
       <c r="G59">
-        <v>1.036</v>
+        <v>0.732</v>
       </c>
       <c r="H59">
-        <v>0.061</v>
+        <v>-0.265</v>
       </c>
       <c r="I59">
-        <v>1060610.105</v>
+        <v>734528.347</v>
       </c>
       <c r="J59">
-        <v>1.061</v>
+        <v>0.735</v>
       </c>
       <c r="K59">
         <v>1000000</v>
@@ -3175,31 +3115,31 @@
         <v>92</v>
       </c>
       <c r="B60">
-        <v>0.286</v>
+        <v>-0.724</v>
       </c>
       <c r="C60">
-        <v>691478.105</v>
+        <v>359816.347</v>
       </c>
       <c r="D60">
-        <v>1860</v>
+        <v>-3840</v>
       </c>
       <c r="E60">
-        <v>0.002</v>
+        <v>-0.005</v>
       </c>
       <c r="F60">
-        <v>927480</v>
+        <v>-927180</v>
       </c>
       <c r="G60">
-        <v>1.061</v>
+        <v>0.735</v>
       </c>
       <c r="H60">
-        <v>0.062</v>
+        <v>-0.269</v>
       </c>
       <c r="I60">
-        <v>1062470.105</v>
+        <v>730688.347</v>
       </c>
       <c r="J60">
-        <v>1.062</v>
+        <v>0.731</v>
       </c>
       <c r="K60">
         <v>1000000</v>
@@ -3210,31 +3150,31 @@
         <v>93</v>
       </c>
       <c r="B61">
-        <v>0.28</v>
+        <v>-0.734</v>
       </c>
       <c r="C61">
-        <v>691226.105</v>
+        <v>336212.347</v>
       </c>
       <c r="D61">
-        <v>-420</v>
+        <v>-16860</v>
       </c>
       <c r="E61">
-        <v>-0</v>
+        <v>-0.023</v>
       </c>
       <c r="F61">
-        <v>927060</v>
+        <v>-944040</v>
       </c>
       <c r="G61">
-        <v>1.062</v>
+        <v>0.731</v>
       </c>
       <c r="H61">
-        <v>0.062</v>
+        <v>-0.286</v>
       </c>
       <c r="I61">
-        <v>1062050.105</v>
+        <v>713828.347</v>
       </c>
       <c r="J61">
-        <v>1.062</v>
+        <v>0.714</v>
       </c>
       <c r="K61">
         <v>1000000</v>
@@ -3245,31 +3185,31 @@
         <v>94</v>
       </c>
       <c r="B62">
-        <v>0.348</v>
+        <v>-0.729</v>
       </c>
       <c r="C62">
-        <v>701486.105</v>
+        <v>336884.347</v>
       </c>
       <c r="D62">
-        <v>17100</v>
+        <v>480</v>
       </c>
       <c r="E62">
-        <v>0.016</v>
+        <v>0.001</v>
       </c>
       <c r="F62">
-        <v>944160</v>
+        <v>-943560</v>
       </c>
       <c r="G62">
-        <v>1.062</v>
+        <v>0.714</v>
       </c>
       <c r="H62">
-        <v>0.079</v>
+        <v>-0.286</v>
       </c>
       <c r="I62">
-        <v>1079150.105</v>
+        <v>714308.347</v>
       </c>
       <c r="J62">
-        <v>1.079</v>
+        <v>0.714</v>
       </c>
       <c r="K62">
         <v>1000000</v>
@@ -3280,31 +3220,31 @@
         <v>95</v>
       </c>
       <c r="B63">
-        <v>0.328</v>
+        <v>-0.725</v>
       </c>
       <c r="C63">
-        <v>699506.105</v>
+        <v>337640.347</v>
       </c>
       <c r="D63">
-        <v>-3300</v>
+        <v>540</v>
       </c>
       <c r="E63">
-        <v>-0.003</v>
+        <v>0.001</v>
       </c>
       <c r="F63">
-        <v>940860</v>
+        <v>-943020</v>
       </c>
       <c r="G63">
-        <v>1.079</v>
+        <v>0.714</v>
       </c>
       <c r="H63">
-        <v>0.076</v>
+        <v>-0.285</v>
       </c>
       <c r="I63">
-        <v>1075850.105</v>
+        <v>714848.347</v>
       </c>
       <c r="J63">
-        <v>1.076</v>
+        <v>0.715</v>
       </c>
       <c r="K63">
         <v>1000000</v>
@@ -3315,31 +3255,31 @@
         <v>96</v>
       </c>
       <c r="B64">
-        <v>-0.185</v>
+        <v>-0.6879999999999999</v>
       </c>
       <c r="C64">
-        <v>575255.83</v>
+        <v>367292.347</v>
       </c>
       <c r="D64">
-        <v>-127586.275</v>
+        <v>21180</v>
       </c>
       <c r="E64">
-        <v>-0.119</v>
+        <v>0.03</v>
       </c>
       <c r="F64">
-        <v>-932520</v>
+        <v>-921840</v>
       </c>
       <c r="G64">
-        <v>1.076</v>
+        <v>0.715</v>
       </c>
       <c r="H64">
-        <v>-0.052</v>
+        <v>-0.264</v>
       </c>
       <c r="I64">
-        <v>948263.83</v>
+        <v>736028.347</v>
       </c>
       <c r="J64">
-        <v>0.948</v>
+        <v>0.736</v>
       </c>
       <c r="K64">
         <v>1000000</v>
@@ -3350,31 +3290,31 @@
         <v>97</v>
       </c>
       <c r="B65">
-        <v>-0.137</v>
+        <v>-0.636</v>
       </c>
       <c r="C65">
-        <v>594575.83</v>
+        <v>401060.347</v>
       </c>
       <c r="D65">
-        <v>13800</v>
+        <v>24120</v>
       </c>
       <c r="E65">
-        <v>0.015</v>
+        <v>0.033</v>
       </c>
       <c r="F65">
-        <v>-918720</v>
+        <v>-897720</v>
       </c>
       <c r="G65">
-        <v>0.948</v>
+        <v>0.736</v>
       </c>
       <c r="H65">
-        <v>-0.038</v>
+        <v>-0.24</v>
       </c>
       <c r="I65">
-        <v>962063.83</v>
+        <v>760148.347</v>
       </c>
       <c r="J65">
-        <v>0.962</v>
+        <v>0.76</v>
       </c>
       <c r="K65">
         <v>1000000</v>
@@ -3385,31 +3325,31 @@
         <v>98</v>
       </c>
       <c r="B66">
-        <v>-0.203</v>
+        <v>-0.636</v>
       </c>
       <c r="C66">
-        <v>564335.83</v>
+        <v>398624.347</v>
       </c>
       <c r="D66">
-        <v>-21600</v>
+        <v>-1740</v>
       </c>
       <c r="E66">
-        <v>-0.022</v>
+        <v>-0.002</v>
       </c>
       <c r="F66">
-        <v>-940320</v>
+        <v>-899460</v>
       </c>
       <c r="G66">
-        <v>0.962</v>
+        <v>0.76</v>
       </c>
       <c r="H66">
-        <v>-0.06</v>
+        <v>-0.242</v>
       </c>
       <c r="I66">
-        <v>940463.83</v>
+        <v>758408.347</v>
       </c>
       <c r="J66">
-        <v>0.9399999999999999</v>
+        <v>0.758</v>
       </c>
       <c r="K66">
         <v>1000000</v>
@@ -3420,31 +3360,31 @@
         <v>99</v>
       </c>
       <c r="B67">
-        <v>-0.177</v>
+        <v>-0.64</v>
       </c>
       <c r="C67">
-        <v>574919.83</v>
+        <v>391820.347</v>
       </c>
       <c r="D67">
-        <v>7560</v>
+        <v>-4860</v>
       </c>
       <c r="E67">
-        <v>0.008</v>
+        <v>-0.006</v>
       </c>
       <c r="F67">
-        <v>-932760</v>
+        <v>-904320</v>
       </c>
       <c r="G67">
-        <v>0.9399999999999999</v>
+        <v>0.758</v>
       </c>
       <c r="H67">
-        <v>-0.052</v>
+        <v>-0.246</v>
       </c>
       <c r="I67">
-        <v>948023.83</v>
+        <v>753548.347</v>
       </c>
       <c r="J67">
-        <v>0.948</v>
+        <v>0.754</v>
       </c>
       <c r="K67">
         <v>1000000</v>
@@ -3455,31 +3395,31 @@
         <v>100</v>
       </c>
       <c r="B68">
+        <v>-0.643</v>
+      </c>
+      <c r="C68">
+        <v>386360.347</v>
+      </c>
+      <c r="D68">
+        <v>-3900</v>
+      </c>
+      <c r="E68">
+        <v>-0.005</v>
+      </c>
+      <c r="F68">
+        <v>-908220</v>
+      </c>
+      <c r="G68">
+        <v>0.754</v>
+      </c>
+      <c r="H68">
         <v>-0.25</v>
       </c>
-      <c r="C68">
-        <v>540731.83</v>
-      </c>
-      <c r="D68">
-        <v>-24420</v>
-      </c>
-      <c r="E68">
-        <v>-0.026</v>
-      </c>
-      <c r="F68">
-        <v>-957180</v>
-      </c>
-      <c r="G68">
-        <v>0.948</v>
-      </c>
-      <c r="H68">
-        <v>-0.076</v>
-      </c>
       <c r="I68">
-        <v>923603.83</v>
+        <v>749648.347</v>
       </c>
       <c r="J68">
-        <v>0.924</v>
+        <v>0.75</v>
       </c>
       <c r="K68">
         <v>1000000</v>
@@ -3490,31 +3430,31 @@
         <v>101</v>
       </c>
       <c r="B69">
-        <v>-0.452</v>
+        <v>-0.638</v>
       </c>
       <c r="C69">
-        <v>462685.578</v>
+        <v>388124.347</v>
       </c>
       <c r="D69">
-        <v>-78526.25199999999</v>
+        <v>1260</v>
       </c>
       <c r="E69">
-        <v>-0.08500000000000001</v>
+        <v>0.002</v>
       </c>
       <c r="F69">
-        <v>955980</v>
+        <v>-906960</v>
       </c>
       <c r="G69">
-        <v>0.924</v>
+        <v>0.75</v>
       </c>
       <c r="H69">
-        <v>-0.155</v>
+        <v>-0.249</v>
       </c>
       <c r="I69">
-        <v>845077.578</v>
+        <v>750908.347</v>
       </c>
       <c r="J69">
-        <v>0.845</v>
+        <v>0.751</v>
       </c>
       <c r="K69">
         <v>1000000</v>
@@ -3525,31 +3465,31 @@
         <v>102</v>
       </c>
       <c r="B70">
-        <v>-0.449</v>
+        <v>-0.633</v>
       </c>
       <c r="C70">
-        <v>462649.578</v>
+        <v>383252.347</v>
       </c>
       <c r="D70">
-        <v>-60</v>
+        <v>-3480</v>
       </c>
       <c r="E70">
-        <v>-0</v>
+        <v>-0.005</v>
       </c>
       <c r="F70">
-        <v>955920</v>
+        <v>-910440</v>
       </c>
       <c r="G70">
-        <v>0.845</v>
+        <v>0.751</v>
       </c>
       <c r="H70">
-        <v>-0.155</v>
+        <v>-0.253</v>
       </c>
       <c r="I70">
-        <v>845017.578</v>
+        <v>747428.347</v>
       </c>
       <c r="J70">
-        <v>0.845</v>
+        <v>0.747</v>
       </c>
       <c r="K70">
         <v>1000000</v>
@@ -3560,31 +3500,31 @@
         <v>103</v>
       </c>
       <c r="B71">
-        <v>-0.6870000000000001</v>
+        <v>-0.634</v>
       </c>
       <c r="C71">
-        <v>335708.347</v>
+        <v>379808.347</v>
       </c>
       <c r="D71">
-        <v>-131549.231</v>
+        <v>-2460</v>
       </c>
       <c r="E71">
-        <v>-0.156</v>
+        <v>-0.003</v>
       </c>
       <c r="F71">
-        <v>-944400</v>
+        <v>-912900</v>
       </c>
       <c r="G71">
-        <v>0.845</v>
+        <v>0.747</v>
       </c>
       <c r="H71">
-        <v>-0.287</v>
+        <v>-0.255</v>
       </c>
       <c r="I71">
-        <v>713468.347</v>
+        <v>744968.347</v>
       </c>
       <c r="J71">
-        <v>0.713</v>
+        <v>0.745</v>
       </c>
       <c r="K71">
         <v>1000000</v>
@@ -3595,31 +3535,31 @@
         <v>104</v>
       </c>
       <c r="B72">
-        <v>-0.6830000000000001</v>
+        <v>-0.613</v>
       </c>
       <c r="C72">
-        <v>336380.347</v>
+        <v>394340.347</v>
       </c>
       <c r="D72">
-        <v>480</v>
+        <v>10380</v>
       </c>
       <c r="E72">
-        <v>0.001</v>
+        <v>0.014</v>
       </c>
       <c r="F72">
-        <v>-943920</v>
+        <v>-902520</v>
       </c>
       <c r="G72">
-        <v>0.713</v>
+        <v>0.745</v>
       </c>
       <c r="H72">
-        <v>-0.286</v>
+        <v>-0.245</v>
       </c>
       <c r="I72">
-        <v>713948.347</v>
+        <v>755348.347</v>
       </c>
       <c r="J72">
-        <v>0.714</v>
+        <v>0.755</v>
       </c>
       <c r="K72">
         <v>1000000</v>
@@ -3630,31 +3570,31 @@
         <v>105</v>
       </c>
       <c r="B73">
-        <v>-0.639</v>
+        <v>-0.616</v>
       </c>
       <c r="C73">
-        <v>372080.347</v>
+        <v>389048.347</v>
       </c>
       <c r="D73">
-        <v>25500</v>
+        <v>-3780</v>
       </c>
       <c r="E73">
-        <v>0.036</v>
+        <v>-0.005</v>
       </c>
       <c r="F73">
-        <v>-918420</v>
+        <v>-906300</v>
       </c>
       <c r="G73">
-        <v>0.714</v>
+        <v>0.755</v>
       </c>
       <c r="H73">
-        <v>-0.261</v>
+        <v>-0.248</v>
       </c>
       <c r="I73">
-        <v>739448.347</v>
+        <v>751568.347</v>
       </c>
       <c r="J73">
-        <v>0.739</v>
+        <v>0.752</v>
       </c>
       <c r="K73">
         <v>1000000</v>
@@ -3665,31 +3605,31 @@
         <v>106</v>
       </c>
       <c r="B74">
-        <v>-0.652</v>
+        <v>-0.621</v>
       </c>
       <c r="C74">
-        <v>358052.347</v>
+        <v>382328.347</v>
       </c>
       <c r="D74">
-        <v>-10020</v>
+        <v>-4800</v>
       </c>
       <c r="E74">
-        <v>-0.014</v>
+        <v>-0.006</v>
       </c>
       <c r="F74">
-        <v>-928440</v>
+        <v>-911100</v>
       </c>
       <c r="G74">
-        <v>0.739</v>
+        <v>0.752</v>
       </c>
       <c r="H74">
-        <v>-0.271</v>
+        <v>-0.253</v>
       </c>
       <c r="I74">
-        <v>729428.347</v>
+        <v>746768.347</v>
       </c>
       <c r="J74">
-        <v>0.729</v>
+        <v>0.747</v>
       </c>
       <c r="K74">
         <v>1000000</v>
@@ -3700,31 +3640,31 @@
         <v>107</v>
       </c>
       <c r="B75">
-        <v>-0.649</v>
+        <v>-0.614</v>
       </c>
       <c r="C75">
-        <v>357884.347</v>
+        <v>379304.347</v>
       </c>
       <c r="D75">
-        <v>-120</v>
+        <v>-2160</v>
       </c>
       <c r="E75">
-        <v>-0</v>
+        <v>-0.003</v>
       </c>
       <c r="F75">
-        <v>-928560</v>
+        <v>-913260</v>
       </c>
       <c r="G75">
-        <v>0.729</v>
+        <v>0.747</v>
       </c>
       <c r="H75">
-        <v>-0.271</v>
+        <v>-0.255</v>
       </c>
       <c r="I75">
-        <v>729308.347</v>
+        <v>744608.347</v>
       </c>
       <c r="J75">
-        <v>0.729</v>
+        <v>0.745</v>
       </c>
       <c r="K75">
         <v>1000000</v>
@@ -3735,31 +3675,31 @@
         <v>108</v>
       </c>
       <c r="B76">
-        <v>-0.633</v>
+        <v>-0.601</v>
       </c>
       <c r="C76">
-        <v>363008.347</v>
+        <v>387536.347</v>
       </c>
       <c r="D76">
-        <v>3660</v>
+        <v>5880</v>
       </c>
       <c r="E76">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
       <c r="F76">
-        <v>-924900</v>
+        <v>-907380</v>
       </c>
       <c r="G76">
-        <v>0.729</v>
+        <v>0.745</v>
       </c>
       <c r="H76">
-        <v>-0.267</v>
+        <v>-0.25</v>
       </c>
       <c r="I76">
-        <v>732968.347</v>
+        <v>750488.347</v>
       </c>
       <c r="J76">
-        <v>0.733</v>
+        <v>0.75</v>
       </c>
       <c r="K76">
         <v>1000000</v>
@@ -3770,31 +3710,31 @@
         <v>109</v>
       </c>
       <c r="B77">
-        <v>-0.632</v>
+        <v>-0.598</v>
       </c>
       <c r="C77">
-        <v>361244.347</v>
+        <v>387704.347</v>
       </c>
       <c r="D77">
-        <v>-1260</v>
+        <v>120</v>
       </c>
       <c r="E77">
-        <v>-0.002</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>-926160</v>
+        <v>-907260</v>
       </c>
       <c r="G77">
-        <v>0.733</v>
+        <v>0.75</v>
       </c>
       <c r="H77">
-        <v>-0.268</v>
+        <v>-0.249</v>
       </c>
       <c r="I77">
-        <v>731708.347</v>
+        <v>750608.347</v>
       </c>
       <c r="J77">
-        <v>0.732</v>
+        <v>0.751</v>
       </c>
       <c r="K77">
         <v>1000000</v>
@@ -3805,31 +3745,31 @@
         <v>110</v>
       </c>
       <c r="B78">
-        <v>-0.628</v>
+        <v>-0.593</v>
       </c>
       <c r="C78">
-        <v>361748.347</v>
+        <v>388712.347</v>
       </c>
       <c r="D78">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F78">
-        <v>-925800</v>
+        <v>-906540</v>
       </c>
       <c r="G78">
-        <v>0.732</v>
+        <v>0.751</v>
       </c>
       <c r="H78">
-        <v>-0.268</v>
+        <v>-0.249</v>
       </c>
       <c r="I78">
-        <v>732068.347</v>
+        <v>751328.347</v>
       </c>
       <c r="J78">
-        <v>0.732</v>
+        <v>0.751</v>
       </c>
       <c r="K78">
         <v>1000000</v>
@@ -3840,31 +3780,31 @@
         <v>111</v>
       </c>
       <c r="B79">
-        <v>-0.621</v>
+        <v>-0.705</v>
       </c>
       <c r="C79">
-        <v>365192.347</v>
+        <v>312249.99</v>
       </c>
       <c r="D79">
-        <v>2460</v>
+        <v>-75094.357</v>
       </c>
       <c r="E79">
-        <v>0.003</v>
+        <v>-0.1</v>
       </c>
       <c r="F79">
-        <v>-923340</v>
+        <v>909960</v>
       </c>
       <c r="G79">
-        <v>0.732</v>
+        <v>0.751</v>
       </c>
       <c r="H79">
-        <v>-0.265</v>
+        <v>-0.324</v>
       </c>
       <c r="I79">
-        <v>734528.347</v>
+        <v>676233.99</v>
       </c>
       <c r="J79">
-        <v>0.735</v>
+        <v>0.676</v>
       </c>
       <c r="K79">
         <v>1000000</v>
@@ -3875,31 +3815,31 @@
         <v>112</v>
       </c>
       <c r="B80">
-        <v>-0.624</v>
+        <v>-0.695</v>
       </c>
       <c r="C80">
-        <v>359816.347</v>
+        <v>312717.99</v>
       </c>
       <c r="D80">
-        <v>-3840</v>
+        <v>780</v>
       </c>
       <c r="E80">
-        <v>-0.005</v>
+        <v>0.001</v>
       </c>
       <c r="F80">
-        <v>-927180</v>
+        <v>910740</v>
       </c>
       <c r="G80">
-        <v>0.735</v>
+        <v>0.676</v>
       </c>
       <c r="H80">
-        <v>-0.269</v>
+        <v>-0.323</v>
       </c>
       <c r="I80">
-        <v>730688.347</v>
+        <v>677013.99</v>
       </c>
       <c r="J80">
-        <v>0.731</v>
+        <v>0.677</v>
       </c>
       <c r="K80">
         <v>1000000</v>
@@ -3910,31 +3850,31 @@
         <v>113</v>
       </c>
       <c r="B81">
-        <v>-0.638</v>
+        <v>-0.645</v>
       </c>
       <c r="C81">
-        <v>336212.347</v>
+        <v>331977.99</v>
       </c>
       <c r="D81">
-        <v>-16860</v>
+        <v>32100</v>
       </c>
       <c r="E81">
-        <v>-0.023</v>
+        <v>0.047</v>
       </c>
       <c r="F81">
-        <v>-944040</v>
+        <v>942840</v>
       </c>
       <c r="G81">
-        <v>0.731</v>
+        <v>0.677</v>
       </c>
       <c r="H81">
-        <v>-0.286</v>
+        <v>-0.291</v>
       </c>
       <c r="I81">
-        <v>713828.347</v>
+        <v>709113.99</v>
       </c>
       <c r="J81">
-        <v>0.714</v>
+        <v>0.709</v>
       </c>
       <c r="K81">
         <v>1000000</v>
@@ -3942,736 +3882,36 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="B82">
-        <v>-0.635</v>
+        <v>-0.646</v>
       </c>
       <c r="C82">
-        <v>336884.347</v>
+        <v>330717.99</v>
       </c>
       <c r="D82">
-        <v>480</v>
+        <v>-2100</v>
       </c>
       <c r="E82">
-        <v>0.001</v>
+        <v>-0.003</v>
       </c>
       <c r="F82">
-        <v>-943560</v>
+        <v>940740</v>
       </c>
       <c r="G82">
-        <v>0.714</v>
+        <v>0.709</v>
       </c>
       <c r="H82">
-        <v>-0.286</v>
+        <v>-0.293</v>
       </c>
       <c r="I82">
-        <v>714308.347</v>
+        <v>707013.99</v>
       </c>
       <c r="J82">
-        <v>0.714</v>
+        <v>0.707</v>
       </c>
       <c r="K82">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B83">
-        <v>-0.631</v>
-      </c>
-      <c r="C83">
-        <v>337640.347</v>
-      </c>
-      <c r="D83">
-        <v>540</v>
-      </c>
-      <c r="E83">
-        <v>0.001</v>
-      </c>
-      <c r="F83">
-        <v>-943020</v>
-      </c>
-      <c r="G83">
-        <v>0.714</v>
-      </c>
-      <c r="H83">
-        <v>-0.285</v>
-      </c>
-      <c r="I83">
-        <v>714848.347</v>
-      </c>
-      <c r="J83">
-        <v>0.715</v>
-      </c>
-      <c r="K83">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B84">
-        <v>-0.594</v>
-      </c>
-      <c r="C84">
-        <v>367292.347</v>
-      </c>
-      <c r="D84">
-        <v>21180</v>
-      </c>
-      <c r="E84">
-        <v>0.03</v>
-      </c>
-      <c r="F84">
-        <v>-921840</v>
-      </c>
-      <c r="G84">
-        <v>0.715</v>
-      </c>
-      <c r="H84">
-        <v>-0.264</v>
-      </c>
-      <c r="I84">
-        <v>736028.347</v>
-      </c>
-      <c r="J84">
-        <v>0.736</v>
-      </c>
-      <c r="K84">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B85">
-        <v>-0.545</v>
-      </c>
-      <c r="C85">
-        <v>401060.347</v>
-      </c>
-      <c r="D85">
-        <v>24120</v>
-      </c>
-      <c r="E85">
-        <v>0.033</v>
-      </c>
-      <c r="F85">
-        <v>-897720</v>
-      </c>
-      <c r="G85">
-        <v>0.736</v>
-      </c>
-      <c r="H85">
-        <v>-0.24</v>
-      </c>
-      <c r="I85">
-        <v>760148.347</v>
-      </c>
-      <c r="J85">
-        <v>0.76</v>
-      </c>
-      <c r="K85">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B86">
-        <v>-0.545</v>
-      </c>
-      <c r="C86">
-        <v>398624.347</v>
-      </c>
-      <c r="D86">
-        <v>-1740</v>
-      </c>
-      <c r="E86">
-        <v>-0.002</v>
-      </c>
-      <c r="F86">
-        <v>-899460</v>
-      </c>
-      <c r="G86">
-        <v>0.76</v>
-      </c>
-      <c r="H86">
-        <v>-0.242</v>
-      </c>
-      <c r="I86">
-        <v>758408.347</v>
-      </c>
-      <c r="J86">
-        <v>0.758</v>
-      </c>
-      <c r="K86">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B87">
-        <v>-0.551</v>
-      </c>
-      <c r="C87">
-        <v>391820.347</v>
-      </c>
-      <c r="D87">
-        <v>-4860</v>
-      </c>
-      <c r="E87">
-        <v>-0.006</v>
-      </c>
-      <c r="F87">
-        <v>-904320</v>
-      </c>
-      <c r="G87">
-        <v>0.758</v>
-      </c>
-      <c r="H87">
-        <v>-0.246</v>
-      </c>
-      <c r="I87">
-        <v>753548.347</v>
-      </c>
-      <c r="J87">
-        <v>0.754</v>
-      </c>
-      <c r="K87">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B88">
-        <v>-0.555</v>
-      </c>
-      <c r="C88">
-        <v>386360.347</v>
-      </c>
-      <c r="D88">
-        <v>-3900</v>
-      </c>
-      <c r="E88">
-        <v>-0.005</v>
-      </c>
-      <c r="F88">
-        <v>-908220</v>
-      </c>
-      <c r="G88">
-        <v>0.754</v>
-      </c>
-      <c r="H88">
-        <v>-0.25</v>
-      </c>
-      <c r="I88">
-        <v>749648.347</v>
-      </c>
-      <c r="J88">
-        <v>0.75</v>
-      </c>
-      <c r="K88">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B89">
-        <v>-0.55</v>
-      </c>
-      <c r="C89">
-        <v>388124.347</v>
-      </c>
-      <c r="D89">
-        <v>1260</v>
-      </c>
-      <c r="E89">
-        <v>0.002</v>
-      </c>
-      <c r="F89">
-        <v>-906960</v>
-      </c>
-      <c r="G89">
-        <v>0.75</v>
-      </c>
-      <c r="H89">
-        <v>-0.249</v>
-      </c>
-      <c r="I89">
-        <v>750908.347</v>
-      </c>
-      <c r="J89">
-        <v>0.751</v>
-      </c>
-      <c r="K89">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B90">
-        <v>-0.547</v>
-      </c>
-      <c r="C90">
-        <v>383252.347</v>
-      </c>
-      <c r="D90">
-        <v>-3480</v>
-      </c>
-      <c r="E90">
-        <v>-0.005</v>
-      </c>
-      <c r="F90">
-        <v>-910440</v>
-      </c>
-      <c r="G90">
-        <v>0.751</v>
-      </c>
-      <c r="H90">
-        <v>-0.253</v>
-      </c>
-      <c r="I90">
-        <v>747428.347</v>
-      </c>
-      <c r="J90">
-        <v>0.747</v>
-      </c>
-      <c r="K90">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B91">
-        <v>-0.549</v>
-      </c>
-      <c r="C91">
-        <v>379808.347</v>
-      </c>
-      <c r="D91">
-        <v>-2460</v>
-      </c>
-      <c r="E91">
-        <v>-0.003</v>
-      </c>
-      <c r="F91">
-        <v>-912900</v>
-      </c>
-      <c r="G91">
-        <v>0.747</v>
-      </c>
-      <c r="H91">
-        <v>-0.255</v>
-      </c>
-      <c r="I91">
-        <v>744968.347</v>
-      </c>
-      <c r="J91">
-        <v>0.745</v>
-      </c>
-      <c r="K91">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B92">
-        <v>-0.529</v>
-      </c>
-      <c r="C92">
-        <v>394340.347</v>
-      </c>
-      <c r="D92">
-        <v>10380</v>
-      </c>
-      <c r="E92">
-        <v>0.014</v>
-      </c>
-      <c r="F92">
-        <v>-902520</v>
-      </c>
-      <c r="G92">
-        <v>0.745</v>
-      </c>
-      <c r="H92">
-        <v>-0.245</v>
-      </c>
-      <c r="I92">
-        <v>755348.347</v>
-      </c>
-      <c r="J92">
-        <v>0.755</v>
-      </c>
-      <c r="K92">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B93">
-        <v>-0.533</v>
-      </c>
-      <c r="C93">
-        <v>389048.347</v>
-      </c>
-      <c r="D93">
-        <v>-3780</v>
-      </c>
-      <c r="E93">
-        <v>-0.005</v>
-      </c>
-      <c r="F93">
-        <v>-906300</v>
-      </c>
-      <c r="G93">
-        <v>0.755</v>
-      </c>
-      <c r="H93">
-        <v>-0.248</v>
-      </c>
-      <c r="I93">
-        <v>751568.347</v>
-      </c>
-      <c r="J93">
-        <v>0.752</v>
-      </c>
-      <c r="K93">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B94">
-        <v>-0.538</v>
-      </c>
-      <c r="C94">
-        <v>382328.347</v>
-      </c>
-      <c r="D94">
-        <v>-4800</v>
-      </c>
-      <c r="E94">
-        <v>-0.006</v>
-      </c>
-      <c r="F94">
-        <v>-911100</v>
-      </c>
-      <c r="G94">
-        <v>0.752</v>
-      </c>
-      <c r="H94">
-        <v>-0.253</v>
-      </c>
-      <c r="I94">
-        <v>746768.347</v>
-      </c>
-      <c r="J94">
-        <v>0.747</v>
-      </c>
-      <c r="K94">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B95">
-        <v>-0.534</v>
-      </c>
-      <c r="C95">
-        <v>379304.347</v>
-      </c>
-      <c r="D95">
-        <v>-2160</v>
-      </c>
-      <c r="E95">
-        <v>-0.003</v>
-      </c>
-      <c r="F95">
-        <v>-913260</v>
-      </c>
-      <c r="G95">
-        <v>0.747</v>
-      </c>
-      <c r="H95">
-        <v>-0.255</v>
-      </c>
-      <c r="I95">
-        <v>744608.347</v>
-      </c>
-      <c r="J95">
-        <v>0.745</v>
-      </c>
-      <c r="K95">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B96">
-        <v>-0.522</v>
-      </c>
-      <c r="C96">
-        <v>387536.347</v>
-      </c>
-      <c r="D96">
-        <v>5880</v>
-      </c>
-      <c r="E96">
-        <v>0.008</v>
-      </c>
-      <c r="F96">
-        <v>-907380</v>
-      </c>
-      <c r="G96">
-        <v>0.745</v>
-      </c>
-      <c r="H96">
-        <v>-0.25</v>
-      </c>
-      <c r="I96">
-        <v>750488.347</v>
-      </c>
-      <c r="J96">
-        <v>0.75</v>
-      </c>
-      <c r="K96">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B97">
-        <v>-0.519</v>
-      </c>
-      <c r="C97">
-        <v>387704.347</v>
-      </c>
-      <c r="D97">
-        <v>120</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>-907260</v>
-      </c>
-      <c r="G97">
-        <v>0.75</v>
-      </c>
-      <c r="H97">
-        <v>-0.249</v>
-      </c>
-      <c r="I97">
-        <v>750608.347</v>
-      </c>
-      <c r="J97">
-        <v>0.751</v>
-      </c>
-      <c r="K97">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B98">
-        <v>-0.516</v>
-      </c>
-      <c r="C98">
-        <v>388712.347</v>
-      </c>
-      <c r="D98">
-        <v>720</v>
-      </c>
-      <c r="E98">
-        <v>0.001</v>
-      </c>
-      <c r="F98">
-        <v>-906540</v>
-      </c>
-      <c r="G98">
-        <v>0.751</v>
-      </c>
-      <c r="H98">
-        <v>-0.249</v>
-      </c>
-      <c r="I98">
-        <v>751328.347</v>
-      </c>
-      <c r="J98">
-        <v>0.751</v>
-      </c>
-      <c r="K98">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B99">
-        <v>-0.626</v>
-      </c>
-      <c r="C99">
-        <v>312249.99</v>
-      </c>
-      <c r="D99">
-        <v>-75094.357</v>
-      </c>
-      <c r="E99">
-        <v>-0.1</v>
-      </c>
-      <c r="F99">
-        <v>909960</v>
-      </c>
-      <c r="G99">
-        <v>0.751</v>
-      </c>
-      <c r="H99">
-        <v>-0.324</v>
-      </c>
-      <c r="I99">
-        <v>676233.99</v>
-      </c>
-      <c r="J99">
-        <v>0.676</v>
-      </c>
-      <c r="K99">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B100">
-        <v>-0.618</v>
-      </c>
-      <c r="C100">
-        <v>312717.99</v>
-      </c>
-      <c r="D100">
-        <v>780</v>
-      </c>
-      <c r="E100">
-        <v>0.001</v>
-      </c>
-      <c r="F100">
-        <v>910740</v>
-      </c>
-      <c r="G100">
-        <v>0.676</v>
-      </c>
-      <c r="H100">
-        <v>-0.323</v>
-      </c>
-      <c r="I100">
-        <v>677013.99</v>
-      </c>
-      <c r="J100">
-        <v>0.677</v>
-      </c>
-      <c r="K100">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B101">
-        <v>-0.569</v>
-      </c>
-      <c r="C101">
-        <v>331977.99</v>
-      </c>
-      <c r="D101">
-        <v>32100</v>
-      </c>
-      <c r="E101">
-        <v>0.047</v>
-      </c>
-      <c r="F101">
-        <v>942840</v>
-      </c>
-      <c r="G101">
-        <v>0.677</v>
-      </c>
-      <c r="H101">
-        <v>-0.291</v>
-      </c>
-      <c r="I101">
-        <v>709113.99</v>
-      </c>
-      <c r="J101">
-        <v>0.709</v>
-      </c>
-      <c r="K101">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B102">
-        <v>-0.57</v>
-      </c>
-      <c r="C102">
-        <v>330717.99</v>
-      </c>
-      <c r="D102">
-        <v>-2100</v>
-      </c>
-      <c r="E102">
-        <v>-0.003</v>
-      </c>
-      <c r="F102">
-        <v>940740</v>
-      </c>
-      <c r="G102">
-        <v>0.709</v>
-      </c>
-      <c r="H102">
-        <v>-0.293</v>
-      </c>
-      <c r="I102">
-        <v>707013.99</v>
-      </c>
-      <c r="J102">
-        <v>0.707</v>
-      </c>
-      <c r="K102">
         <v>1000000</v>
       </c>
     </row>
@@ -4682,7 +3922,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4696,25 +3936,25 @@
         <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4786,19 +4026,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>327504</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>818760</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1000000</v>
+        <v>626246.105</v>
       </c>
       <c r="H4">
-        <v>1000000</v>
+        <v>953750.105</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4815,19 +4055,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>333312</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>833280</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1000000</v>
+        <v>634958.105</v>
       </c>
       <c r="H5">
-        <v>1000000</v>
+        <v>968270.105</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4844,19 +4084,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>331008</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>827520</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1000000</v>
+        <v>631502.105</v>
       </c>
       <c r="H6">
-        <v>1000000</v>
+        <v>962510.105</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4873,19 +4113,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>328584</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>821460</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1000000</v>
+        <v>627866.105</v>
       </c>
       <c r="H7">
-        <v>1000000</v>
+        <v>956450.105</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4902,19 +4142,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>337800</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>844500</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1000000</v>
+        <v>641690.105</v>
       </c>
       <c r="H8">
-        <v>1000000</v>
+        <v>979490.105</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -4931,19 +4171,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>339480</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>848700</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1000000</v>
+        <v>644210.105</v>
       </c>
       <c r="H9">
-        <v>1000000</v>
+        <v>983690.105</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -4960,19 +4200,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>340032</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>850080</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1000000</v>
+        <v>645038.105</v>
       </c>
       <c r="H10">
-        <v>1000000</v>
+        <v>985070.105</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -4989,19 +4229,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>339288</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>848220</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1000000</v>
+        <v>643922.105</v>
       </c>
       <c r="H11">
-        <v>1000000</v>
+        <v>983210.105</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -5018,19 +4258,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>344904</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>862260</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1000000</v>
+        <v>652346.105</v>
       </c>
       <c r="H12">
-        <v>1000000</v>
+        <v>997250.105</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -5047,19 +4287,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>339792</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>849480</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1000000</v>
+        <v>644678.105</v>
       </c>
       <c r="H13">
-        <v>1000000</v>
+        <v>984470.105</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -5076,19 +4316,19 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>340920</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>852300</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1000000</v>
+        <v>646370.105</v>
       </c>
       <c r="H14">
-        <v>1000000</v>
+        <v>987290.105</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -5105,19 +4345,19 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>324504</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>811260</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1000000</v>
+        <v>621746.105</v>
       </c>
       <c r="H15">
-        <v>1000000</v>
+        <v>946250.105</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -5134,19 +4374,19 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>326640</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>816600</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1000000</v>
+        <v>624950.105</v>
       </c>
       <c r="H16">
-        <v>1000000</v>
+        <v>951590.105</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -5163,19 +4403,19 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>314256</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>785640</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1000000</v>
+        <v>606374.105</v>
       </c>
       <c r="H17">
-        <v>1000000</v>
+        <v>920630.105</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -5192,19 +4432,19 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>325392</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>813480</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1000000</v>
+        <v>623078.105</v>
       </c>
       <c r="H18">
-        <v>1000000</v>
+        <v>948470.105</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -5221,19 +4461,19 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>340152</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>850380</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1000000</v>
+        <v>645218.105</v>
       </c>
       <c r="H19">
-        <v>1000000</v>
+        <v>985370.105</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -5250,19 +4490,19 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>340632</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>851580</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1000000</v>
+        <v>645938.105</v>
       </c>
       <c r="H20">
-        <v>1000000</v>
+        <v>986570.105</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -5279,19 +4519,19 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>343752</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>859380</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1000000</v>
+        <v>650618.105</v>
       </c>
       <c r="H21">
-        <v>1000000</v>
+        <v>994370.105</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -5308,19 +4548,19 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>348528</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>871320</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1000000</v>
+        <v>657782.105</v>
       </c>
       <c r="H22">
-        <v>1000000</v>
+        <v>1006310.105</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -5337,19 +4577,19 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>347040</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>867600</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1000000</v>
+        <v>655550.105</v>
       </c>
       <c r="H23">
-        <v>1000000</v>
+        <v>1002590.105</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -5366,19 +4606,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>327504</v>
+        <v>342816</v>
       </c>
       <c r="E24">
-        <v>818760</v>
+        <v>857040</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>626246.105</v>
+        <v>649214.105</v>
       </c>
       <c r="H24">
-        <v>953750.105</v>
+        <v>992030.105</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -5395,19 +4635,19 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>333312</v>
+        <v>341952</v>
       </c>
       <c r="E25">
-        <v>833280</v>
+        <v>854880</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>634958.105</v>
+        <v>647918.105</v>
       </c>
       <c r="H25">
-        <v>968270.105</v>
+        <v>989870.105</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5424,19 +4664,19 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>331008</v>
+        <v>339336</v>
       </c>
       <c r="E26">
-        <v>827520</v>
+        <v>848340</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>631502.105</v>
+        <v>643994.105</v>
       </c>
       <c r="H26">
-        <v>962510.105</v>
+        <v>983330.105</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -5453,19 +4693,19 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>328584</v>
+        <v>348504</v>
       </c>
       <c r="E27">
-        <v>821460</v>
+        <v>871260</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>627866.105</v>
+        <v>657746.105</v>
       </c>
       <c r="H27">
-        <v>956450.105</v>
+        <v>1006250.105</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -5482,19 +4722,19 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>337800</v>
+        <v>345192</v>
       </c>
       <c r="E28">
-        <v>844500</v>
+        <v>862980</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>641690.105</v>
+        <v>652778.105</v>
       </c>
       <c r="H28">
-        <v>979490.105</v>
+        <v>997970.105</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -5511,19 +4751,19 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>339480</v>
+        <v>346896</v>
       </c>
       <c r="E29">
-        <v>848700</v>
+        <v>867240</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>644210.105</v>
+        <v>655334.105</v>
       </c>
       <c r="H29">
-        <v>983690.105</v>
+        <v>1002230.105</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -5540,19 +4780,19 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>340032</v>
+        <v>356184</v>
       </c>
       <c r="E30">
-        <v>850080</v>
+        <v>890460</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>645038.105</v>
+        <v>669266.105</v>
       </c>
       <c r="H30">
-        <v>985070.105</v>
+        <v>1025450.105</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -5569,19 +4809,19 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>339288</v>
+        <v>366312</v>
       </c>
       <c r="E31">
-        <v>848220</v>
+        <v>915780</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>643922.105</v>
+        <v>684458.105</v>
       </c>
       <c r="H31">
-        <v>983210.105</v>
+        <v>1050770.105</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -5598,19 +4838,19 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>344904</v>
+        <v>376560</v>
       </c>
       <c r="E32">
-        <v>862260</v>
+        <v>941400</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>652346.105</v>
+        <v>699830.105</v>
       </c>
       <c r="H32">
-        <v>997250.105</v>
+        <v>1076390.105</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -5627,19 +4867,19 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>339792</v>
+        <v>375264</v>
       </c>
       <c r="E33">
-        <v>849480</v>
+        <v>938160</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>644678.105</v>
+        <v>697886.105</v>
       </c>
       <c r="H33">
-        <v>984470.105</v>
+        <v>1073150.105</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -5656,19 +4896,19 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>340920</v>
+        <v>373536</v>
       </c>
       <c r="E34">
-        <v>852300</v>
+        <v>933840</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>646370.105</v>
+        <v>695294.105</v>
       </c>
       <c r="H34">
-        <v>987290.105</v>
+        <v>1068830.105</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -5685,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>324504</v>
+        <v>368352</v>
       </c>
       <c r="E35">
-        <v>811260</v>
+        <v>920880</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>621746.105</v>
+        <v>687518.105</v>
       </c>
       <c r="H35">
-        <v>946250.105</v>
+        <v>1055870.105</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -5714,19 +4954,19 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>326640</v>
+        <v>368184</v>
       </c>
       <c r="E36">
-        <v>816600</v>
+        <v>920460</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>624950.105</v>
+        <v>687266.105</v>
       </c>
       <c r="H36">
-        <v>951590.105</v>
+        <v>1055450.105</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -5743,19 +4983,19 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>314256</v>
+        <v>366144</v>
       </c>
       <c r="E37">
-        <v>785640</v>
+        <v>915360</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>606374.105</v>
+        <v>684206.105</v>
       </c>
       <c r="H37">
-        <v>920630.105</v>
+        <v>1050350.105</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -5772,19 +5012,19 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>325392</v>
+        <v>360552</v>
       </c>
       <c r="E38">
-        <v>813480</v>
+        <v>901380</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>623078.105</v>
+        <v>675818.105</v>
       </c>
       <c r="H38">
-        <v>948470.105</v>
+        <v>1036370.105</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -5801,19 +5041,19 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>340152</v>
+        <v>370248</v>
       </c>
       <c r="E39">
-        <v>850380</v>
+        <v>925620</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>645218.105</v>
+        <v>690362.105</v>
       </c>
       <c r="H39">
-        <v>985370.105</v>
+        <v>1060610.105</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -5830,19 +5070,19 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>340632</v>
+        <v>370992</v>
       </c>
       <c r="E40">
-        <v>851580</v>
+        <v>927480</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>645938.105</v>
+        <v>691478.105</v>
       </c>
       <c r="H40">
-        <v>986570.105</v>
+        <v>1062470.105</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -5859,19 +5099,19 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>343752</v>
+        <v>370824</v>
       </c>
       <c r="E41">
-        <v>859380</v>
+        <v>927060</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>650618.105</v>
+        <v>691226.105</v>
       </c>
       <c r="H41">
-        <v>994370.105</v>
+        <v>1062050.105</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -5888,19 +5128,19 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>348528</v>
+        <v>377664</v>
       </c>
       <c r="E42">
-        <v>871320</v>
+        <v>944160</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>657782.105</v>
+        <v>701486.105</v>
       </c>
       <c r="H42">
-        <v>1006310.105</v>
+        <v>1079150.105</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -5917,19 +5157,19 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>347040</v>
+        <v>376344</v>
       </c>
       <c r="E43">
-        <v>867600</v>
+        <v>940860</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>655550.105</v>
+        <v>699506.105</v>
       </c>
       <c r="H43">
-        <v>1002590.105</v>
+        <v>1075850.105</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -5946,19 +5186,19 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>342816</v>
+        <v>373008</v>
       </c>
       <c r="E44">
-        <v>857040</v>
+        <v>-932520</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>649214.105</v>
+        <v>575255.83</v>
       </c>
       <c r="H44">
-        <v>992030.105</v>
+        <v>948263.83</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -5975,19 +5215,19 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>341952</v>
+        <v>367488</v>
       </c>
       <c r="E45">
-        <v>854880</v>
+        <v>-918720</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>647918.105</v>
+        <v>594575.83</v>
       </c>
       <c r="H45">
-        <v>989870.105</v>
+        <v>962063.83</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -6004,19 +5244,19 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>339336</v>
+        <v>376128</v>
       </c>
       <c r="E46">
-        <v>848340</v>
+        <v>-940320</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>643994.105</v>
+        <v>564335.83</v>
       </c>
       <c r="H46">
-        <v>983330.105</v>
+        <v>940463.83</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -6033,19 +5273,19 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>348504</v>
+        <v>373104</v>
       </c>
       <c r="E47">
-        <v>871260</v>
+        <v>-932760</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>657746.105</v>
+        <v>574919.83</v>
       </c>
       <c r="H47">
-        <v>1006250.105</v>
+        <v>948023.83</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -6062,19 +5302,19 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>345192</v>
+        <v>382872</v>
       </c>
       <c r="E48">
-        <v>862980</v>
+        <v>-957180</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>652778.105</v>
+        <v>540731.83</v>
       </c>
       <c r="H48">
-        <v>997970.105</v>
+        <v>923603.83</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -6091,19 +5331,19 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>346896</v>
+        <v>382392</v>
       </c>
       <c r="E49">
-        <v>867240</v>
+        <v>955980</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>655334.105</v>
+        <v>462685.578</v>
       </c>
       <c r="H49">
-        <v>1002230.105</v>
+        <v>845077.578</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -6120,19 +5360,19 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>356184</v>
+        <v>382368</v>
       </c>
       <c r="E50">
-        <v>890460</v>
+        <v>955920</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>669266.105</v>
+        <v>462649.578</v>
       </c>
       <c r="H50">
-        <v>1025450.105</v>
+        <v>845017.578</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -6149,19 +5389,19 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>366312</v>
+        <v>377760</v>
       </c>
       <c r="E51">
-        <v>915780</v>
+        <v>-944400</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>684458.105</v>
+        <v>335708.347</v>
       </c>
       <c r="H51">
-        <v>1050770.105</v>
+        <v>713468.347</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -6178,19 +5418,19 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>376560</v>
+        <v>377568</v>
       </c>
       <c r="E52">
-        <v>941400</v>
+        <v>-943920</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>699830.105</v>
+        <v>336380.347</v>
       </c>
       <c r="H52">
-        <v>1076390.105</v>
+        <v>713948.347</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -6207,19 +5447,19 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>375264</v>
+        <v>367368</v>
       </c>
       <c r="E53">
-        <v>938160</v>
+        <v>-918420</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>697886.105</v>
+        <v>372080.347</v>
       </c>
       <c r="H53">
-        <v>1073150.105</v>
+        <v>739448.347</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -6236,19 +5476,19 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>373536</v>
+        <v>371376</v>
       </c>
       <c r="E54">
-        <v>933840</v>
+        <v>-928440</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>695294.105</v>
+        <v>358052.347</v>
       </c>
       <c r="H54">
-        <v>1068830.105</v>
+        <v>729428.347</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -6265,19 +5505,19 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>368352</v>
+        <v>371424</v>
       </c>
       <c r="E55">
-        <v>920880</v>
+        <v>-928560</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>687518.105</v>
+        <v>357884.347</v>
       </c>
       <c r="H55">
-        <v>1055870.105</v>
+        <v>729308.347</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -6294,19 +5534,19 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>368184</v>
+        <v>369960</v>
       </c>
       <c r="E56">
-        <v>920460</v>
+        <v>-924900</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>687266.105</v>
+        <v>363008.347</v>
       </c>
       <c r="H56">
-        <v>1055450.105</v>
+        <v>732968.347</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -6323,19 +5563,19 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>366144</v>
+        <v>370464</v>
       </c>
       <c r="E57">
-        <v>915360</v>
+        <v>-926160</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>684206.105</v>
+        <v>361244.347</v>
       </c>
       <c r="H57">
-        <v>1050350.105</v>
+        <v>731708.347</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -6352,19 +5592,19 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>360552</v>
+        <v>370320</v>
       </c>
       <c r="E58">
-        <v>901380</v>
+        <v>-925800</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>675818.105</v>
+        <v>361748.347</v>
       </c>
       <c r="H58">
-        <v>1036370.105</v>
+        <v>732068.347</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -6381,19 +5621,19 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>370248</v>
+        <v>369336</v>
       </c>
       <c r="E59">
-        <v>925620</v>
+        <v>-923340</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>690362.105</v>
+        <v>365192.347</v>
       </c>
       <c r="H59">
-        <v>1060610.105</v>
+        <v>734528.347</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -6410,19 +5650,19 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>370992</v>
+        <v>370872</v>
       </c>
       <c r="E60">
-        <v>927480</v>
+        <v>-927180</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>691478.105</v>
+        <v>359816.347</v>
       </c>
       <c r="H60">
-        <v>1062470.105</v>
+        <v>730688.347</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -6439,19 +5679,19 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>370824</v>
+        <v>377616</v>
       </c>
       <c r="E61">
-        <v>927060</v>
+        <v>-944040</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>691226.105</v>
+        <v>336212.347</v>
       </c>
       <c r="H61">
-        <v>1062050.105</v>
+        <v>713828.347</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -6468,19 +5708,19 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>377664</v>
+        <v>377424</v>
       </c>
       <c r="E62">
-        <v>944160</v>
+        <v>-943560</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>701486.105</v>
+        <v>336884.347</v>
       </c>
       <c r="H62">
-        <v>1079150.105</v>
+        <v>714308.347</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -6497,19 +5737,19 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>376344</v>
+        <v>377208</v>
       </c>
       <c r="E63">
-        <v>940860</v>
+        <v>-943020</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>699506.105</v>
+        <v>337640.347</v>
       </c>
       <c r="H63">
-        <v>1075850.105</v>
+        <v>714848.347</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6526,19 +5766,19 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>373008</v>
+        <v>368736</v>
       </c>
       <c r="E64">
-        <v>-932520</v>
+        <v>-921840</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>575255.83</v>
+        <v>367292.347</v>
       </c>
       <c r="H64">
-        <v>948263.83</v>
+        <v>736028.347</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6555,19 +5795,19 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>367488</v>
+        <v>359088</v>
       </c>
       <c r="E65">
-        <v>-918720</v>
+        <v>-897720</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>594575.83</v>
+        <v>401060.347</v>
       </c>
       <c r="H65">
-        <v>962063.83</v>
+        <v>760148.347</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -6584,19 +5824,19 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>376128</v>
+        <v>359784</v>
       </c>
       <c r="E66">
-        <v>-940320</v>
+        <v>-899460</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>564335.83</v>
+        <v>398624.347</v>
       </c>
       <c r="H66">
-        <v>940463.83</v>
+        <v>758408.347</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -6613,19 +5853,19 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>373104</v>
+        <v>361728</v>
       </c>
       <c r="E67">
-        <v>-932760</v>
+        <v>-904320</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>574919.83</v>
+        <v>391820.347</v>
       </c>
       <c r="H67">
-        <v>948023.83</v>
+        <v>753548.347</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -6642,19 +5882,19 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>382872</v>
+        <v>363288</v>
       </c>
       <c r="E68">
-        <v>-957180</v>
+        <v>-908220</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>540731.83</v>
+        <v>386360.347</v>
       </c>
       <c r="H68">
-        <v>923603.83</v>
+        <v>749648.347</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -6671,19 +5911,19 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>382392</v>
+        <v>362784</v>
       </c>
       <c r="E69">
-        <v>955980</v>
+        <v>-906960</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>462685.578</v>
+        <v>388124.347</v>
       </c>
       <c r="H69">
-        <v>845077.578</v>
+        <v>750908.347</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -6700,19 +5940,19 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>382368</v>
+        <v>364176</v>
       </c>
       <c r="E70">
-        <v>955920</v>
+        <v>-910440</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>462649.578</v>
+        <v>383252.347</v>
       </c>
       <c r="H70">
-        <v>845017.578</v>
+        <v>747428.347</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6729,19 +5969,19 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>377760</v>
+        <v>365160</v>
       </c>
       <c r="E71">
-        <v>-944400</v>
+        <v>-912900</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>335708.347</v>
+        <v>379808.347</v>
       </c>
       <c r="H71">
-        <v>713468.347</v>
+        <v>744968.347</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -6758,19 +5998,19 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>377568</v>
+        <v>361008</v>
       </c>
       <c r="E72">
-        <v>-943920</v>
+        <v>-902520</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>336380.347</v>
+        <v>394340.347</v>
       </c>
       <c r="H72">
-        <v>713948.347</v>
+        <v>755348.347</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6787,19 +6027,19 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>367368</v>
+        <v>362520</v>
       </c>
       <c r="E73">
-        <v>-918420</v>
+        <v>-906300</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>372080.347</v>
+        <v>389048.347</v>
       </c>
       <c r="H73">
-        <v>739448.347</v>
+        <v>751568.347</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -6816,19 +6056,19 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>371376</v>
+        <v>364440</v>
       </c>
       <c r="E74">
-        <v>-928440</v>
+        <v>-911100</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>358052.347</v>
+        <v>382328.347</v>
       </c>
       <c r="H74">
-        <v>729428.347</v>
+        <v>746768.347</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -6845,19 +6085,19 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>371424</v>
+        <v>365304</v>
       </c>
       <c r="E75">
-        <v>-928560</v>
+        <v>-913260</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>357884.347</v>
+        <v>379304.347</v>
       </c>
       <c r="H75">
-        <v>729308.347</v>
+        <v>744608.347</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -6874,19 +6114,19 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>369960</v>
+        <v>362952</v>
       </c>
       <c r="E76">
-        <v>-924900</v>
+        <v>-907380</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>363008.347</v>
+        <v>387536.347</v>
       </c>
       <c r="H76">
-        <v>732968.347</v>
+        <v>750488.347</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -6903,19 +6143,19 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>370464</v>
+        <v>362904</v>
       </c>
       <c r="E77">
-        <v>-926160</v>
+        <v>-907260</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>361244.347</v>
+        <v>387704.347</v>
       </c>
       <c r="H77">
-        <v>731708.347</v>
+        <v>750608.347</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -6932,19 +6172,19 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>370320</v>
+        <v>362616</v>
       </c>
       <c r="E78">
-        <v>-925800</v>
+        <v>-906540</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>361748.347</v>
+        <v>388712.347</v>
       </c>
       <c r="H78">
-        <v>732068.347</v>
+        <v>751328.347</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -6961,19 +6201,19 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>369336</v>
+        <v>363984</v>
       </c>
       <c r="E79">
-        <v>-923340</v>
+        <v>909960</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>365192.347</v>
+        <v>312249.99</v>
       </c>
       <c r="H79">
-        <v>734528.347</v>
+        <v>676233.99</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -6990,19 +6230,19 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>370872</v>
+        <v>364296</v>
       </c>
       <c r="E80">
-        <v>-927180</v>
+        <v>910740</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>359816.347</v>
+        <v>312717.99</v>
       </c>
       <c r="H80">
-        <v>730688.347</v>
+        <v>677013.99</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7019,19 +6259,19 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>377616</v>
+        <v>377136</v>
       </c>
       <c r="E81">
-        <v>-944040</v>
+        <v>942840</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>336212.347</v>
+        <v>331977.99</v>
       </c>
       <c r="H81">
-        <v>713828.347</v>
+        <v>709113.99</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -7039,7 +6279,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -7048,601 +6288,21 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>377424</v>
+        <v>376296</v>
       </c>
       <c r="E82">
-        <v>-943560</v>
+        <v>940740</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>336884.347</v>
+        <v>330717.99</v>
       </c>
       <c r="H82">
-        <v>714308.347</v>
+        <v>707013.99</v>
       </c>
       <c r="I82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>377208</v>
-      </c>
-      <c r="E83">
-        <v>-943020</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>337640.347</v>
-      </c>
-      <c r="H83">
-        <v>714848.347</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>368736</v>
-      </c>
-      <c r="E84">
-        <v>-921840</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>367292.347</v>
-      </c>
-      <c r="H84">
-        <v>736028.347</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>359088</v>
-      </c>
-      <c r="E85">
-        <v>-897720</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>401060.347</v>
-      </c>
-      <c r="H85">
-        <v>760148.347</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>359784</v>
-      </c>
-      <c r="E86">
-        <v>-899460</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>398624.347</v>
-      </c>
-      <c r="H86">
-        <v>758408.347</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>361728</v>
-      </c>
-      <c r="E87">
-        <v>-904320</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>391820.347</v>
-      </c>
-      <c r="H87">
-        <v>753548.347</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>363288</v>
-      </c>
-      <c r="E88">
-        <v>-908220</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>386360.347</v>
-      </c>
-      <c r="H88">
-        <v>749648.347</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>362784</v>
-      </c>
-      <c r="E89">
-        <v>-906960</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>388124.347</v>
-      </c>
-      <c r="H89">
-        <v>750908.347</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>364176</v>
-      </c>
-      <c r="E90">
-        <v>-910440</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>383252.347</v>
-      </c>
-      <c r="H90">
-        <v>747428.347</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>365160</v>
-      </c>
-      <c r="E91">
-        <v>-912900</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>379808.347</v>
-      </c>
-      <c r="H91">
-        <v>744968.347</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>361008</v>
-      </c>
-      <c r="E92">
-        <v>-902520</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>394340.347</v>
-      </c>
-      <c r="H92">
-        <v>755348.347</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>362520</v>
-      </c>
-      <c r="E93">
-        <v>-906300</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>389048.347</v>
-      </c>
-      <c r="H93">
-        <v>751568.347</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>364440</v>
-      </c>
-      <c r="E94">
-        <v>-911100</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>382328.347</v>
-      </c>
-      <c r="H94">
-        <v>746768.347</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>365304</v>
-      </c>
-      <c r="E95">
-        <v>-913260</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>379304.347</v>
-      </c>
-      <c r="H95">
-        <v>744608.347</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>362952</v>
-      </c>
-      <c r="E96">
-        <v>-907380</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>387536.347</v>
-      </c>
-      <c r="H96">
-        <v>750488.347</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>362904</v>
-      </c>
-      <c r="E97">
-        <v>-907260</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>387704.347</v>
-      </c>
-      <c r="H97">
-        <v>750608.347</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>362616</v>
-      </c>
-      <c r="E98">
-        <v>-906540</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>388712.347</v>
-      </c>
-      <c r="H98">
-        <v>751328.347</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>363984</v>
-      </c>
-      <c r="E99">
-        <v>909960</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>312249.99</v>
-      </c>
-      <c r="H99">
-        <v>676233.99</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>364296</v>
-      </c>
-      <c r="E100">
-        <v>910740</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>312717.99</v>
-      </c>
-      <c r="H100">
-        <v>677013.99</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>377136</v>
-      </c>
-      <c r="E101">
-        <v>942840</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>331977.99</v>
-      </c>
-      <c r="H101">
-        <v>709113.99</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
-        <v>376296</v>
-      </c>
-      <c r="E102">
-        <v>940740</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>330717.99</v>
-      </c>
-      <c r="H102">
-        <v>707013.99</v>
-      </c>
-      <c r="I102">
         <v>0</v>
       </c>
     </row>
@@ -7664,72 +6324,72 @@
         <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>2729.2</v>
@@ -7765,7 +6425,7 @@
         <v>818760</v>
       </c>
       <c r="M2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N2">
         <v>-46230</v>
@@ -7792,12 +6452,12 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>2777.6</v>
@@ -7833,7 +6493,7 @@
         <v>833280</v>
       </c>
       <c r="M3" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N3">
         <v>-31710</v>
@@ -7860,12 +6520,12 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>2758.4</v>
@@ -7901,7 +6561,7 @@
         <v>827520</v>
       </c>
       <c r="M4" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N4">
         <v>-37470</v>
@@ -7928,12 +6588,12 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>2738.2</v>
@@ -7969,7 +6629,7 @@
         <v>821460</v>
       </c>
       <c r="M5" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N5">
         <v>-43530</v>
@@ -7996,12 +6656,12 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>2815</v>
@@ -8037,7 +6697,7 @@
         <v>844500</v>
       </c>
       <c r="M6" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N6">
         <v>-20490</v>
@@ -8064,12 +6724,12 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>2829</v>
@@ -8105,7 +6765,7 @@
         <v>848700</v>
       </c>
       <c r="M7" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N7">
         <v>-16290</v>
@@ -8132,12 +6792,12 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>2833.6</v>
@@ -8173,7 +6833,7 @@
         <v>850080</v>
       </c>
       <c r="M8" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N8">
         <v>-14910</v>
@@ -8200,12 +6860,12 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>2827.4</v>
@@ -8241,7 +6901,7 @@
         <v>848220</v>
       </c>
       <c r="M9" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N9">
         <v>-16770</v>
@@ -8268,12 +6928,12 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>2874.2</v>
@@ -8309,7 +6969,7 @@
         <v>862260</v>
       </c>
       <c r="M10" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N10">
         <v>-2730</v>
@@ -8336,12 +6996,12 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>2831.6</v>
@@ -8377,7 +7037,7 @@
         <v>849480</v>
       </c>
       <c r="M11" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N11">
         <v>-15510</v>
@@ -8404,12 +7064,12 @@
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>2841</v>
@@ -8445,7 +7105,7 @@
         <v>852300</v>
       </c>
       <c r="M12" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N12">
         <v>-12690</v>
@@ -8472,12 +7132,12 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>2704.2</v>
@@ -8513,7 +7173,7 @@
         <v>811260</v>
       </c>
       <c r="M13" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N13">
         <v>-53730</v>
@@ -8540,12 +7200,12 @@
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>2722</v>
@@ -8581,7 +7241,7 @@
         <v>816600</v>
       </c>
       <c r="M14" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N14">
         <v>-48390</v>
@@ -8608,12 +7268,12 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>2618.8</v>
@@ -8649,7 +7309,7 @@
         <v>785640</v>
       </c>
       <c r="M15" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N15">
         <v>-79350</v>
@@ -8676,12 +7336,12 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>2711.6</v>
@@ -8717,7 +7377,7 @@
         <v>813480</v>
       </c>
       <c r="M16" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N16">
         <v>-51510</v>
@@ -8744,12 +7404,12 @@
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>2834.6</v>
@@ -8785,7 +7445,7 @@
         <v>850380</v>
       </c>
       <c r="M17" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N17">
         <v>-14610</v>
@@ -8812,12 +7472,12 @@
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <v>2838.6</v>
@@ -8853,7 +7513,7 @@
         <v>851580</v>
       </c>
       <c r="M18" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N18">
         <v>-13410</v>
@@ -8880,12 +7540,12 @@
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>2864.6</v>
@@ -8921,7 +7581,7 @@
         <v>859380</v>
       </c>
       <c r="M19" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N19">
         <v>-5610</v>
@@ -8948,12 +7608,12 @@
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B20">
         <v>2904.4</v>
@@ -8989,7 +7649,7 @@
         <v>871320</v>
       </c>
       <c r="M20" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N20">
         <v>6330</v>
@@ -9016,12 +7676,12 @@
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>2892</v>
@@ -9057,7 +7717,7 @@
         <v>867600</v>
       </c>
       <c r="M21" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N21">
         <v>2610</v>
@@ -9084,12 +7744,12 @@
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>2856.8</v>
@@ -9125,7 +7785,7 @@
         <v>857040</v>
       </c>
       <c r="M22" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N22">
         <v>-7950</v>
@@ -9152,12 +7812,12 @@
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B23">
         <v>2849.6</v>
@@ -9193,7 +7853,7 @@
         <v>854880</v>
       </c>
       <c r="M23" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N23">
         <v>-10110</v>
@@ -9220,12 +7880,12 @@
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B24">
         <v>2827.8</v>
@@ -9261,7 +7921,7 @@
         <v>848340</v>
       </c>
       <c r="M24" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N24">
         <v>-16650</v>
@@ -9288,12 +7948,12 @@
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B25">
         <v>2904.2</v>
@@ -9329,7 +7989,7 @@
         <v>871260</v>
       </c>
       <c r="M25" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N25">
         <v>6270</v>
@@ -9356,12 +8016,12 @@
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B26">
         <v>2876.6</v>
@@ -9397,7 +8057,7 @@
         <v>862980</v>
       </c>
       <c r="M26" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N26">
         <v>-2010</v>
@@ -9424,12 +8084,12 @@
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B27">
         <v>2890.8</v>
@@ -9465,7 +8125,7 @@
         <v>867240</v>
       </c>
       <c r="M27" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N27">
         <v>2250</v>
@@ -9492,12 +8152,12 @@
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B28">
         <v>2968.2</v>
@@ -9533,7 +8193,7 @@
         <v>890460</v>
       </c>
       <c r="M28" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N28">
         <v>25470</v>
@@ -9560,12 +8220,12 @@
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>3052.6</v>
@@ -9601,7 +8261,7 @@
         <v>915780</v>
       </c>
       <c r="M29" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N29">
         <v>50790</v>
@@ -9628,12 +8288,12 @@
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B30">
         <v>3138</v>
@@ -9669,7 +8329,7 @@
         <v>941400</v>
       </c>
       <c r="M30" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N30">
         <v>76410</v>
@@ -9696,12 +8356,12 @@
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B31">
         <v>3127.2</v>
@@ -9737,7 +8397,7 @@
         <v>938160</v>
       </c>
       <c r="M31" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N31">
         <v>73170</v>
@@ -9764,12 +8424,12 @@
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B32">
         <v>3112.8</v>
@@ -9805,7 +8465,7 @@
         <v>933840</v>
       </c>
       <c r="M32" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N32">
         <v>68850</v>
@@ -9832,12 +8492,12 @@
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B33">
         <v>3069.6</v>
@@ -9873,7 +8533,7 @@
         <v>920880</v>
       </c>
       <c r="M33" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N33">
         <v>55890</v>
@@ -9900,12 +8560,12 @@
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B34">
         <v>3068.2</v>
@@ -9941,7 +8601,7 @@
         <v>920460</v>
       </c>
       <c r="M34" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N34">
         <v>55470</v>
@@ -9968,12 +8628,12 @@
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B35">
         <v>3051.2</v>
@@ -10009,7 +8669,7 @@
         <v>915360</v>
       </c>
       <c r="M35" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N35">
         <v>50370</v>
@@ -10036,12 +8696,12 @@
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B36">
         <v>3004.6</v>
@@ -10077,7 +8737,7 @@
         <v>901380</v>
       </c>
       <c r="M36" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N36">
         <v>36390</v>
@@ -10104,12 +8764,12 @@
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B37">
         <v>3085.4</v>
@@ -10145,7 +8805,7 @@
         <v>925620</v>
       </c>
       <c r="M37" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N37">
         <v>60630</v>
@@ -10172,12 +8832,12 @@
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B38">
         <v>3091.6</v>
@@ -10213,7 +8873,7 @@
         <v>927480</v>
       </c>
       <c r="M38" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N38">
         <v>62490</v>
@@ -10240,12 +8900,12 @@
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B39">
         <v>3090.2</v>
@@ -10281,7 +8941,7 @@
         <v>927060</v>
       </c>
       <c r="M39" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N39">
         <v>62070</v>
@@ -10308,12 +8968,12 @@
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B40">
         <v>3147.2</v>
@@ -10349,7 +9009,7 @@
         <v>944160</v>
       </c>
       <c r="M40" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N40">
         <v>79170</v>
@@ -10376,12 +9036,12 @@
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B41">
         <v>3136.2</v>
@@ -10417,7 +9077,7 @@
         <v>940860</v>
       </c>
       <c r="M41" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N41">
         <v>75870</v>
@@ -10444,12 +9104,12 @@
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -10485,7 +9145,7 @@
         <v>-932520</v>
       </c>
       <c r="M42" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N42">
         <v>-48279</v>
@@ -10512,12 +9172,12 @@
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -10553,7 +9213,7 @@
         <v>-918720</v>
       </c>
       <c r="M43" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N43">
         <v>-34479</v>
@@ -10580,12 +9240,12 @@
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -10621,7 +9281,7 @@
         <v>-940320</v>
       </c>
       <c r="M44" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N44">
         <v>-56079</v>
@@ -10648,12 +9308,12 @@
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -10689,7 +9349,7 @@
         <v>-932760</v>
       </c>
       <c r="M45" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N45">
         <v>-48519</v>
@@ -10716,12 +9376,12 @@
         <v>0</v>
       </c>
       <c r="V45" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:22">
       <c r="A46" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -10757,7 +9417,7 @@
         <v>-957180</v>
       </c>
       <c r="M46" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N46">
         <v>-72939</v>
@@ -10784,12 +9444,12 @@
         <v>0</v>
       </c>
       <c r="V46" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B47">
         <v>3186.6</v>
@@ -10825,7 +9485,7 @@
         <v>955980</v>
       </c>
       <c r="M47" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N47">
         <v>-49500</v>
@@ -10852,12 +9512,12 @@
         <v>0</v>
       </c>
       <c r="V47" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B48">
         <v>3186.4</v>
@@ -10893,7 +9553,7 @@
         <v>955920</v>
       </c>
       <c r="M48" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N48">
         <v>-49560</v>
@@ -10920,12 +9580,12 @@
         <v>0</v>
       </c>
       <c r="V48" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -10961,7 +9621,7 @@
         <v>-944400</v>
       </c>
       <c r="M49" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N49">
         <v>-48075</v>
@@ -10988,12 +9648,12 @@
         <v>0</v>
       </c>
       <c r="V49" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -11029,7 +9689,7 @@
         <v>-943920</v>
       </c>
       <c r="M50" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N50">
         <v>-47595</v>
@@ -11056,12 +9716,12 @@
         <v>0</v>
       </c>
       <c r="V50" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -11097,7 +9757,7 @@
         <v>-918420</v>
       </c>
       <c r="M51" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N51">
         <v>-22095</v>
@@ -11124,12 +9784,12 @@
         <v>0</v>
       </c>
       <c r="V51" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -11165,7 +9825,7 @@
         <v>-928440</v>
       </c>
       <c r="M52" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N52">
         <v>-32115</v>
@@ -11192,12 +9852,12 @@
         <v>0</v>
       </c>
       <c r="V52" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="1" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -11233,7 +9893,7 @@
         <v>-928560</v>
       </c>
       <c r="M53" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N53">
         <v>-32235</v>
@@ -11260,12 +9920,12 @@
         <v>0</v>
       </c>
       <c r="V53" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -11301,7 +9961,7 @@
         <v>-924900</v>
       </c>
       <c r="M54" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N54">
         <v>-28575</v>
@@ -11328,12 +9988,12 @@
         <v>0</v>
       </c>
       <c r="V54" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -11369,7 +10029,7 @@
         <v>-926160</v>
       </c>
       <c r="M55" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N55">
         <v>-29835</v>
@@ -11396,12 +10056,12 @@
         <v>0</v>
       </c>
       <c r="V55" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -11437,7 +10097,7 @@
         <v>-925800</v>
       </c>
       <c r="M56" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N56">
         <v>-29475</v>
@@ -11464,12 +10124,12 @@
         <v>0</v>
       </c>
       <c r="V56" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -11505,7 +10165,7 @@
         <v>-923340</v>
       </c>
       <c r="M57" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N57">
         <v>-27015</v>
@@ -11532,12 +10192,12 @@
         <v>0</v>
       </c>
       <c r="V57" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -11573,7 +10233,7 @@
         <v>-927180</v>
       </c>
       <c r="M58" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N58">
         <v>-30855</v>
@@ -11600,12 +10260,12 @@
         <v>0</v>
       </c>
       <c r="V58" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -11641,7 +10301,7 @@
         <v>-944040</v>
       </c>
       <c r="M59" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N59">
         <v>-47715</v>
@@ -11668,12 +10328,12 @@
         <v>0</v>
       </c>
       <c r="V59" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -11709,7 +10369,7 @@
         <v>-943560</v>
       </c>
       <c r="M60" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N60">
         <v>-47235</v>
@@ -11736,12 +10396,12 @@
         <v>0</v>
       </c>
       <c r="V60" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="1" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -11777,7 +10437,7 @@
         <v>-943020</v>
       </c>
       <c r="M61" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N61">
         <v>-46695</v>
@@ -11804,12 +10464,12 @@
         <v>0</v>
       </c>
       <c r="V61" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="1" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -11845,7 +10505,7 @@
         <v>-921840</v>
       </c>
       <c r="M62" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N62">
         <v>-25515</v>
@@ -11872,12 +10532,12 @@
         <v>0</v>
       </c>
       <c r="V62" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -11913,7 +10573,7 @@
         <v>-897720</v>
       </c>
       <c r="M63" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N63">
         <v>-1395</v>
@@ -11940,12 +10600,12 @@
         <v>0</v>
       </c>
       <c r="V63" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -11981,7 +10641,7 @@
         <v>-899460</v>
       </c>
       <c r="M64" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N64">
         <v>-3135</v>
@@ -12008,12 +10668,12 @@
         <v>0</v>
       </c>
       <c r="V64" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="1" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -12049,7 +10709,7 @@
         <v>-904320</v>
       </c>
       <c r="M65" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N65">
         <v>-7995</v>
@@ -12076,12 +10736,12 @@
         <v>0</v>
       </c>
       <c r="V65" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="1" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -12117,7 +10777,7 @@
         <v>-908220</v>
       </c>
       <c r="M66" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N66">
         <v>-11895</v>
@@ -12144,12 +10804,12 @@
         <v>0</v>
       </c>
       <c r="V66" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="1" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -12185,7 +10845,7 @@
         <v>-906960</v>
       </c>
       <c r="M67" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N67">
         <v>-10635</v>
@@ -12212,12 +10872,12 @@
         <v>0</v>
       </c>
       <c r="V67" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="1" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -12253,7 +10913,7 @@
         <v>-910440</v>
       </c>
       <c r="M68" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N68">
         <v>-14115</v>
@@ -12280,12 +10940,12 @@
         <v>0</v>
       </c>
       <c r="V68" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -12321,7 +10981,7 @@
         <v>-912900</v>
       </c>
       <c r="M69" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N69">
         <v>-16575</v>
@@ -12348,12 +11008,12 @@
         <v>0</v>
       </c>
       <c r="V69" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -12389,7 +11049,7 @@
         <v>-902520</v>
       </c>
       <c r="M70" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N70">
         <v>-6195</v>
@@ -12416,12 +11076,12 @@
         <v>0</v>
       </c>
       <c r="V70" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="1" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -12457,7 +11117,7 @@
         <v>-906300</v>
       </c>
       <c r="M71" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N71">
         <v>-9975</v>
@@ -12484,12 +11144,12 @@
         <v>0</v>
       </c>
       <c r="V71" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -12525,7 +11185,7 @@
         <v>-911100</v>
       </c>
       <c r="M72" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N72">
         <v>-14775</v>
@@ -12552,12 +11212,12 @@
         <v>0</v>
       </c>
       <c r="V72" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="1" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -12593,7 +11253,7 @@
         <v>-913260</v>
       </c>
       <c r="M73" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N73">
         <v>-16935</v>
@@ -12620,12 +11280,12 @@
         <v>0</v>
       </c>
       <c r="V73" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -12661,7 +11321,7 @@
         <v>-907380</v>
       </c>
       <c r="M74" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N74">
         <v>-11055</v>
@@ -12688,12 +11348,12 @@
         <v>0</v>
       </c>
       <c r="V74" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -12729,7 +11389,7 @@
         <v>-907260</v>
       </c>
       <c r="M75" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N75">
         <v>-10935</v>
@@ -12756,12 +11416,12 @@
         <v>0</v>
       </c>
       <c r="V75" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -12797,7 +11457,7 @@
         <v>-906540</v>
       </c>
       <c r="M76" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N76">
         <v>-10215</v>
@@ -12824,12 +11484,12 @@
         <v>0</v>
       </c>
       <c r="V76" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="1" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B77">
         <v>3033.2</v>
@@ -12865,7 +11525,7 @@
         <v>909960</v>
       </c>
       <c r="M77" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N77">
         <v>-45624</v>
@@ -12892,12 +11552,12 @@
         <v>0</v>
       </c>
       <c r="V77" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:22">
       <c r="A78" s="1" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B78">
         <v>3035.8</v>
@@ -12933,7 +11593,7 @@
         <v>910740</v>
       </c>
       <c r="M78" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N78">
         <v>-44844</v>
@@ -12960,12 +11620,12 @@
         <v>0</v>
       </c>
       <c r="V78" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:22">
       <c r="A79" s="1" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B79">
         <v>3142.8</v>
@@ -13001,7 +11661,7 @@
         <v>942840</v>
       </c>
       <c r="M79" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N79">
         <v>-12744</v>
@@ -13028,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="V79" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:22">
@@ -13069,7 +11729,7 @@
         <v>940740</v>
       </c>
       <c r="M80" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="N80">
         <v>-14844</v>
@@ -13096,7 +11756,7 @@
         <v>0</v>
       </c>
       <c r="V80" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -13114,54 +11774,54 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B2">
         <v>19.89477</v>
       </c>
       <c r="C2">
-        <v>1492234776</v>
+        <v>1492265567</v>
       </c>
       <c r="D2">
         <v>2883.3</v>
@@ -13170,25 +11830,25 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="G2">
-        <v>1492234770</v>
+        <v>1492265525</v>
       </c>
       <c r="H2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="I2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="J2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="M2">
         <v>19.89477</v>
@@ -13196,13 +11856,13 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="B3">
         <v>20.337543</v>
       </c>
       <c r="C3">
-        <v>1492234777</v>
+        <v>1492265568</v>
       </c>
       <c r="D3">
         <v>2947.47</v>
@@ -13211,25 +11871,25 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3">
+        <v>1492265526</v>
+      </c>
+      <c r="H3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" t="s">
         <v>155</v>
       </c>
-      <c r="G3">
-        <v>1492234771</v>
-      </c>
-      <c r="H3" t="s">
-        <v>173</v>
-      </c>
-      <c r="I3" t="s">
-        <v>175</v>
-      </c>
       <c r="J3" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="M3">
         <v>20.337543</v>
@@ -13237,13 +11897,13 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="B4">
         <v>20.337543</v>
       </c>
       <c r="C4">
-        <v>1492234778</v>
+        <v>1492265569</v>
       </c>
       <c r="D4">
         <v>2947.47</v>
@@ -13252,25 +11912,25 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4">
+        <v>1492265527</v>
+      </c>
+      <c r="H4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" t="s">
         <v>155</v>
       </c>
-      <c r="G4">
-        <v>1492234772</v>
-      </c>
-      <c r="H4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I4" t="s">
-        <v>175</v>
-      </c>
       <c r="J4" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="M4">
         <v>20.337543</v>
@@ -13278,13 +11938,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B5">
         <v>23.12604</v>
       </c>
       <c r="C5">
-        <v>1492234779</v>
+        <v>1492265570</v>
       </c>
       <c r="D5">
         <v>3351.6</v>
@@ -13293,25 +11953,25 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="G5">
-        <v>1492234773</v>
+        <v>1492265528</v>
       </c>
       <c r="H5" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="I5" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="J5" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="M5">
         <v>23.12604</v>
@@ -13319,13 +11979,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B6">
         <v>23.12604</v>
       </c>
       <c r="C6">
-        <v>1492234780</v>
+        <v>1492265571</v>
       </c>
       <c r="D6">
         <v>3351.6</v>
@@ -13334,25 +11994,25 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="G6">
-        <v>1492234774</v>
+        <v>1492265529</v>
       </c>
       <c r="H6" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="I6" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="J6" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="M6">
         <v>23.12604</v>
@@ -13360,13 +12020,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B7">
         <v>20.615475</v>
       </c>
       <c r="C7">
-        <v>1492234781</v>
+        <v>1492265572</v>
       </c>
       <c r="D7">
         <v>2987.75</v>
@@ -13375,25 +12035,25 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7">
+        <v>1492265530</v>
+      </c>
+      <c r="H7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" t="s">
         <v>155</v>
       </c>
-      <c r="G7">
-        <v>1492234775</v>
-      </c>
-      <c r="H7" t="s">
-        <v>173</v>
-      </c>
-      <c r="I7" t="s">
-        <v>175</v>
-      </c>
       <c r="J7" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="M7">
         <v>20.615475</v>
@@ -13401,13 +12061,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B8">
         <v>20.615475</v>
       </c>
       <c r="C8">
-        <v>1492234782</v>
+        <v>1492265573</v>
       </c>
       <c r="D8">
         <v>2987.75</v>
@@ -13416,25 +12076,25 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8">
+        <v>1492265531</v>
+      </c>
+      <c r="H8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" t="s">
         <v>155</v>
       </c>
-      <c r="G8">
-        <v>1492234776</v>
-      </c>
-      <c r="H8" t="s">
-        <v>172</v>
-      </c>
-      <c r="I8" t="s">
-        <v>175</v>
-      </c>
       <c r="J8" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="M8">
         <v>20.615475</v>
@@ -13442,13 +12102,13 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B9">
         <v>21.978432</v>
       </c>
       <c r="C9">
-        <v>1492234783</v>
+        <v>1492265574</v>
       </c>
       <c r="D9">
         <v>3185.28</v>
@@ -13457,25 +12117,25 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="G9">
-        <v>1492234777</v>
+        <v>1492265532</v>
       </c>
       <c r="H9" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="I9" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="J9" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="M9">
         <v>21.978432</v>
@@ -13483,13 +12143,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B10">
         <v>21.978432</v>
       </c>
       <c r="C10">
-        <v>1492234784</v>
+        <v>1492265575</v>
       </c>
       <c r="D10">
         <v>3185.28</v>
@@ -13498,25 +12158,25 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="G10">
-        <v>1492234778</v>
+        <v>1492265533</v>
       </c>
       <c r="H10" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="I10" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="J10" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="M10">
         <v>21.978432</v>

--- a/InplusTrader/futureBacktest/result/IF_macd/report.xlsx
+++ b/InplusTrader/futureBacktest/result/IF_macd/report.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="176">
   <si>
     <t>val</t>
   </si>
@@ -101,28 +101,88 @@
     <t>[u'future']</t>
   </si>
   <si>
+    <t>2016-01-04</t>
+  </si>
+  <si>
+    <t>/home/vinson/PycharmProjects/InplusTrader_Linux/InplusTrader/futureBacktest/strategy/IF_macd.py</t>
+  </si>
+  <si>
+    <t>IF_macd</t>
+  </si>
+  <si>
+    <t>daily_pnl</t>
+  </si>
+  <si>
+    <t>daily_returns</t>
+  </si>
+  <si>
+    <t>market_value</t>
+  </si>
+  <si>
+    <t>static_unit_net_value</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>2016-01-05</t>
+  </si>
+  <si>
+    <t>2016-01-06</t>
+  </si>
+  <si>
+    <t>2016-01-07</t>
+  </si>
+  <si>
+    <t>2016-01-08</t>
+  </si>
+  <si>
+    <t>2016-01-11</t>
+  </si>
+  <si>
+    <t>2016-01-12</t>
+  </si>
+  <si>
+    <t>2016-01-13</t>
+  </si>
+  <si>
+    <t>2016-01-14</t>
+  </si>
+  <si>
+    <t>2016-01-15</t>
+  </si>
+  <si>
+    <t>2016-01-18</t>
+  </si>
+  <si>
+    <t>2016-01-19</t>
+  </si>
+  <si>
+    <t>2016-01-20</t>
+  </si>
+  <si>
+    <t>2016-01-21</t>
+  </si>
+  <si>
+    <t>2016-01-22</t>
+  </si>
+  <si>
+    <t>2016-01-25</t>
+  </si>
+  <si>
+    <t>2016-01-26</t>
+  </si>
+  <si>
+    <t>2016-01-27</t>
+  </si>
+  <si>
+    <t>2016-01-28</t>
+  </si>
+  <si>
+    <t>2016-01-29</t>
+  </si>
+  <si>
     <t>2016-02-01</t>
-  </si>
-  <si>
-    <t>/home/vinson/PycharmProjects/InplusTrader_Linux/InplusTrader/futureBacktest/strategy/IF_macd.py</t>
-  </si>
-  <si>
-    <t>IF_macd</t>
-  </si>
-  <si>
-    <t>daily_pnl</t>
-  </si>
-  <si>
-    <t>daily_returns</t>
-  </si>
-  <si>
-    <t>market_value</t>
-  </si>
-  <si>
-    <t>static_unit_net_value</t>
-  </si>
-  <si>
-    <t>date</t>
   </si>
   <si>
     <t>2016-02-02</t>
@@ -864,7 +924,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.646</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -885,7 +945,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.44</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -909,7 +969,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-1.926</v>
+        <v>-1.724</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -941,7 +1001,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-1.972</v>
+        <v>-1.778</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -949,7 +1009,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-2.147</v>
+        <v>-1.938</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1005,7 +1065,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.479</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1029,7 +1089,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.479</v>
+        <v>0.429</v>
       </c>
     </row>
   </sheetData>
@@ -1039,7 +1099,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1155,31 +1215,31 @@
         <v>36</v>
       </c>
       <c r="B4">
-        <v>-0.997</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>626246.105</v>
+        <v>1000000</v>
       </c>
       <c r="D4">
-        <v>-46249.895</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.046</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>818760</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>-0.046</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>953750.105</v>
+        <v>1000000</v>
       </c>
       <c r="J4">
-        <v>0.954</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>1000000</v>
@@ -1190,31 +1250,31 @@
         <v>37</v>
       </c>
       <c r="B5">
-        <v>-0.947</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>634958.105</v>
+        <v>1000000</v>
       </c>
       <c r="D5">
-        <v>14520</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>833280</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.954</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>-0.032</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>968270.105</v>
+        <v>1000000</v>
       </c>
       <c r="J5">
-        <v>0.968</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>1000000</v>
@@ -1225,31 +1285,31 @@
         <v>38</v>
       </c>
       <c r="B6">
-        <v>-0.9389999999999999</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>631502.105</v>
+        <v>1000000</v>
       </c>
       <c r="D6">
-        <v>-5760</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>-0.006</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>827520</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.968</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>-0.037</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>962510.105</v>
+        <v>1000000</v>
       </c>
       <c r="J6">
-        <v>0.963</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>1000000</v>
@@ -1260,31 +1320,31 @@
         <v>39</v>
       </c>
       <c r="B7">
-        <v>-0.662</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>627866.105</v>
+        <v>1000000</v>
       </c>
       <c r="D7">
-        <v>-6060</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>-0.006</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>821460</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.963</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>-0.044</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>956450.105</v>
+        <v>1000000</v>
       </c>
       <c r="J7">
-        <v>0.956</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>1000000</v>
@@ -1295,31 +1355,31 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>-0.377</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>641690.105</v>
+        <v>1000000</v>
       </c>
       <c r="D8">
-        <v>23040</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>844500</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.956</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>-0.021</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>979490.105</v>
+        <v>1000000</v>
       </c>
       <c r="J8">
-        <v>0.979</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>1000000</v>
@@ -1330,31 +1390,31 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <v>-0.297</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>644210.105</v>
+        <v>1000000</v>
       </c>
       <c r="D9">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>848700</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.979</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>-0.016</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>983690.105</v>
+        <v>1000000</v>
       </c>
       <c r="J9">
-        <v>0.984</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>1000000</v>
@@ -1365,31 +1425,31 @@
         <v>42</v>
       </c>
       <c r="B10">
-        <v>-0.263</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>645038.105</v>
+        <v>1000000</v>
       </c>
       <c r="D10">
-        <v>1380</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>850080</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.984</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>-0.015</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>985070.105</v>
+        <v>1000000</v>
       </c>
       <c r="J10">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>1000000</v>
@@ -1400,31 +1460,31 @@
         <v>43</v>
       </c>
       <c r="B11">
-        <v>-0.278</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>643922.105</v>
+        <v>1000000</v>
       </c>
       <c r="D11">
-        <v>-1860</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>-0.002</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>848220</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>-0.017</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>983210.105</v>
+        <v>1000000</v>
       </c>
       <c r="J11">
-        <v>0.983</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>1000000</v>
@@ -1435,31 +1495,31 @@
         <v>44</v>
       </c>
       <c r="B12">
-        <v>-0.045</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>652346.105</v>
+        <v>1000000</v>
       </c>
       <c r="D12">
-        <v>14040</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>862260</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.983</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>-0.003</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>997250.105</v>
+        <v>1000000</v>
       </c>
       <c r="J12">
-        <v>0.997</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>1000000</v>
@@ -1470,31 +1530,31 @@
         <v>45</v>
       </c>
       <c r="B13">
-        <v>-0.22</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>644678.105</v>
+        <v>1000000</v>
       </c>
       <c r="D13">
-        <v>-12780</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>-0.013</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>849480</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.997</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>-0.016</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>984470.105</v>
+        <v>1000000</v>
       </c>
       <c r="J13">
-        <v>0.984</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>1000000</v>
@@ -1505,31 +1565,31 @@
         <v>46</v>
       </c>
       <c r="B14">
-        <v>-0.177</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>646370.105</v>
+        <v>1000000</v>
       </c>
       <c r="D14">
-        <v>2820</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>852300</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.984</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>-0.013</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>987290.105</v>
+        <v>1000000</v>
       </c>
       <c r="J14">
-        <v>0.987</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>1000000</v>
@@ -1540,31 +1600,31 @@
         <v>47</v>
       </c>
       <c r="B15">
-        <v>-0.554</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>621746.105</v>
+        <v>1000000</v>
       </c>
       <c r="D15">
-        <v>-41040</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>-0.042</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>811260</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.987</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>-0.054</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>946250.105</v>
+        <v>1000000</v>
       </c>
       <c r="J15">
-        <v>0.946</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>1000000</v>
@@ -1575,31 +1635,31 @@
         <v>48</v>
       </c>
       <c r="B16">
-        <v>-0.502</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>624950.105</v>
+        <v>1000000</v>
       </c>
       <c r="D16">
-        <v>5340</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>816600</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.946</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>-0.048</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>951590.105</v>
+        <v>1000000</v>
       </c>
       <c r="J16">
-        <v>0.952</v>
+        <v>1</v>
       </c>
       <c r="K16">
         <v>1000000</v>
@@ -1610,31 +1670,31 @@
         <v>49</v>
       </c>
       <c r="B17">
-        <v>-0.647</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>606374.105</v>
+        <v>1000000</v>
       </c>
       <c r="D17">
-        <v>-30960</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>-0.033</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>785640</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0.952</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>-0.079</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>920630.105</v>
+        <v>1000000</v>
       </c>
       <c r="J17">
-        <v>0.921</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>1000000</v>
@@ -1645,31 +1705,31 @@
         <v>50</v>
       </c>
       <c r="B18">
-        <v>-0.475</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>623078.105</v>
+        <v>1000000</v>
       </c>
       <c r="D18">
-        <v>27840</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>813480</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0.921</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>-0.052</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>948470.105</v>
+        <v>1000000</v>
       </c>
       <c r="J18">
-        <v>0.948</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>1000000</v>
@@ -1680,31 +1740,31 @@
         <v>51</v>
       </c>
       <c r="B19">
-        <v>-0.159</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>645218.105</v>
+        <v>1000000</v>
       </c>
       <c r="D19">
-        <v>36900</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.039</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>850380</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0.948</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>-0.015</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>985370.105</v>
+        <v>1000000</v>
       </c>
       <c r="J19">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>1000000</v>
@@ -1715,31 +1775,31 @@
         <v>52</v>
       </c>
       <c r="B20">
-        <v>-0.143</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>645938.105</v>
+        <v>1000000</v>
       </c>
       <c r="D20">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>851580</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>-0.013</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>986570.105</v>
+        <v>1000000</v>
       </c>
       <c r="J20">
-        <v>0.987</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <v>1000000</v>
@@ -1750,31 +1810,31 @@
         <v>53</v>
       </c>
       <c r="B21">
-        <v>-0.061</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>650618.105</v>
+        <v>1000000</v>
       </c>
       <c r="D21">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>859380</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.987</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>-0.006</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>994370.105</v>
+        <v>1000000</v>
       </c>
       <c r="J21">
-        <v>0.994</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <v>1000000</v>
@@ -1785,31 +1845,31 @@
         <v>54</v>
       </c>
       <c r="B22">
-        <v>0.066</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>657782.105</v>
+        <v>1000000</v>
       </c>
       <c r="D22">
-        <v>11940</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>871320</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.994</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1006310.105</v>
+        <v>1000000</v>
       </c>
       <c r="J22">
-        <v>1.006</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <v>1000000</v>
@@ -1820,31 +1880,31 @@
         <v>55</v>
       </c>
       <c r="B23">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>655550.105</v>
+        <v>1000000</v>
       </c>
       <c r="D23">
-        <v>-3720</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>-0.004</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>867600</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>1.006</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1002590.105</v>
+        <v>1000000</v>
       </c>
       <c r="J23">
-        <v>1.003</v>
+        <v>1</v>
       </c>
       <c r="K23">
         <v>1000000</v>
@@ -1855,31 +1915,31 @@
         <v>56</v>
       </c>
       <c r="B24">
-        <v>-0.074</v>
+        <v>-0.427</v>
       </c>
       <c r="C24">
-        <v>649214.105</v>
+        <v>626246.105</v>
       </c>
       <c r="D24">
-        <v>-10560</v>
+        <v>-46249.895</v>
       </c>
       <c r="E24">
-        <v>-0.011</v>
+        <v>-0.046</v>
       </c>
       <c r="F24">
-        <v>857040</v>
+        <v>818760</v>
       </c>
       <c r="G24">
-        <v>1.003</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>-0.008</v>
+        <v>-0.046</v>
       </c>
       <c r="I24">
-        <v>992030.105</v>
+        <v>953750.105</v>
       </c>
       <c r="J24">
-        <v>0.992</v>
+        <v>0.954</v>
       </c>
       <c r="K24">
         <v>1000000</v>
@@ -1890,31 +1950,31 @@
         <v>57</v>
       </c>
       <c r="B25">
-        <v>-0.091</v>
+        <v>-0.308</v>
       </c>
       <c r="C25">
-        <v>647918.105</v>
+        <v>634958.105</v>
       </c>
       <c r="D25">
-        <v>-2160</v>
+        <v>14520</v>
       </c>
       <c r="E25">
-        <v>-0.002</v>
+        <v>0.015</v>
       </c>
       <c r="F25">
-        <v>854880</v>
+        <v>833280</v>
       </c>
       <c r="G25">
-        <v>0.992</v>
+        <v>0.954</v>
       </c>
       <c r="H25">
-        <v>-0.01</v>
+        <v>-0.032</v>
       </c>
       <c r="I25">
-        <v>989870.105</v>
+        <v>968270.105</v>
       </c>
       <c r="J25">
-        <v>0.99</v>
+        <v>0.968</v>
       </c>
       <c r="K25">
         <v>1000000</v>
@@ -1925,31 +1985,31 @@
         <v>58</v>
       </c>
       <c r="B26">
-        <v>-0.142</v>
+        <v>-0.345</v>
       </c>
       <c r="C26">
-        <v>643994.105</v>
+        <v>631502.105</v>
       </c>
       <c r="D26">
-        <v>-6540</v>
+        <v>-5760</v>
       </c>
       <c r="E26">
-        <v>-0.007</v>
+        <v>-0.006</v>
       </c>
       <c r="F26">
-        <v>848340</v>
+        <v>827520</v>
       </c>
       <c r="G26">
-        <v>0.99</v>
+        <v>0.968</v>
       </c>
       <c r="H26">
-        <v>-0.017</v>
+        <v>-0.037</v>
       </c>
       <c r="I26">
-        <v>983330.105</v>
+        <v>962510.105</v>
       </c>
       <c r="J26">
-        <v>0.983</v>
+        <v>0.963</v>
       </c>
       <c r="K26">
         <v>1000000</v>
@@ -1960,31 +2020,31 @@
         <v>59</v>
       </c>
       <c r="B27">
-        <v>0.054</v>
+        <v>-0.315</v>
       </c>
       <c r="C27">
-        <v>657746.105</v>
+        <v>627866.105</v>
       </c>
       <c r="D27">
-        <v>22920</v>
+        <v>-6060</v>
       </c>
       <c r="E27">
-        <v>0.023</v>
+        <v>-0.006</v>
       </c>
       <c r="F27">
-        <v>871260</v>
+        <v>821460</v>
       </c>
       <c r="G27">
-        <v>0.983</v>
+        <v>0.963</v>
       </c>
       <c r="H27">
-        <v>0.006</v>
+        <v>-0.044</v>
       </c>
       <c r="I27">
-        <v>1006250.105</v>
+        <v>956450.105</v>
       </c>
       <c r="J27">
-        <v>1.006</v>
+        <v>0.956</v>
       </c>
       <c r="K27">
         <v>1000000</v>
@@ -1995,31 +2055,31 @@
         <v>60</v>
       </c>
       <c r="B28">
-        <v>-0.017</v>
+        <v>-0.158</v>
       </c>
       <c r="C28">
-        <v>652778.105</v>
+        <v>641690.105</v>
       </c>
       <c r="D28">
-        <v>-8280</v>
+        <v>23040</v>
       </c>
       <c r="E28">
-        <v>-0.008</v>
+        <v>0.024</v>
       </c>
       <c r="F28">
-        <v>862980</v>
+        <v>844500</v>
       </c>
       <c r="G28">
-        <v>1.006</v>
+        <v>0.956</v>
       </c>
       <c r="H28">
-        <v>-0.002</v>
+        <v>-0.021</v>
       </c>
       <c r="I28">
-        <v>997970.105</v>
+        <v>979490.105</v>
       </c>
       <c r="J28">
-        <v>0.998</v>
+        <v>0.979</v>
       </c>
       <c r="K28">
         <v>1000000</v>
@@ -2030,31 +2090,31 @@
         <v>61</v>
       </c>
       <c r="B29">
-        <v>0.018</v>
+        <v>-0.125</v>
       </c>
       <c r="C29">
-        <v>655334.105</v>
+        <v>644210.105</v>
       </c>
       <c r="D29">
-        <v>4260</v>
+        <v>4200</v>
       </c>
       <c r="E29">
         <v>0.004</v>
       </c>
       <c r="F29">
-        <v>867240</v>
+        <v>848700</v>
       </c>
       <c r="G29">
-        <v>0.998</v>
+        <v>0.979</v>
       </c>
       <c r="H29">
-        <v>0.002</v>
+        <v>-0.016</v>
       </c>
       <c r="I29">
-        <v>1002230.105</v>
+        <v>983690.105</v>
       </c>
       <c r="J29">
-        <v>1.002</v>
+        <v>0.984</v>
       </c>
       <c r="K29">
         <v>1000000</v>
@@ -2065,31 +2125,31 @@
         <v>62</v>
       </c>
       <c r="B30">
-        <v>0.221</v>
+        <v>-0.113</v>
       </c>
       <c r="C30">
-        <v>669266.105</v>
+        <v>645038.105</v>
       </c>
       <c r="D30">
-        <v>23220</v>
+        <v>1380</v>
       </c>
       <c r="E30">
-        <v>0.023</v>
+        <v>0.001</v>
       </c>
       <c r="F30">
-        <v>890460</v>
+        <v>850080</v>
       </c>
       <c r="G30">
-        <v>1.002</v>
+        <v>0.984</v>
       </c>
       <c r="H30">
-        <v>0.025</v>
+        <v>-0.015</v>
       </c>
       <c r="I30">
-        <v>1025450.105</v>
+        <v>985070.105</v>
       </c>
       <c r="J30">
-        <v>1.025</v>
+        <v>0.985</v>
       </c>
       <c r="K30">
         <v>1000000</v>
@@ -2100,31 +2160,31 @@
         <v>63</v>
       </c>
       <c r="B31">
-        <v>0.469</v>
+        <v>-0.123</v>
       </c>
       <c r="C31">
-        <v>684458.105</v>
+        <v>643922.105</v>
       </c>
       <c r="D31">
-        <v>25320</v>
+        <v>-1860</v>
       </c>
       <c r="E31">
-        <v>0.025</v>
+        <v>-0.002</v>
       </c>
       <c r="F31">
-        <v>915780</v>
+        <v>848220</v>
       </c>
       <c r="G31">
-        <v>1.025</v>
+        <v>0.985</v>
       </c>
       <c r="H31">
-        <v>0.051</v>
+        <v>-0.017</v>
       </c>
       <c r="I31">
-        <v>1050770.105</v>
+        <v>983210.105</v>
       </c>
       <c r="J31">
-        <v>1.051</v>
+        <v>0.983</v>
       </c>
       <c r="K31">
         <v>1000000</v>
@@ -2135,31 +2195,31 @@
         <v>64</v>
       </c>
       <c r="B32">
-        <v>0.712</v>
+        <v>-0.02</v>
       </c>
       <c r="C32">
-        <v>699830.105</v>
+        <v>652346.105</v>
       </c>
       <c r="D32">
-        <v>25620</v>
+        <v>14040</v>
       </c>
       <c r="E32">
-        <v>0.024</v>
+        <v>0.014</v>
       </c>
       <c r="F32">
-        <v>941400</v>
+        <v>862260</v>
       </c>
       <c r="G32">
-        <v>1.051</v>
+        <v>0.983</v>
       </c>
       <c r="H32">
-        <v>0.076</v>
+        <v>-0.003</v>
       </c>
       <c r="I32">
-        <v>1076390.105</v>
+        <v>997250.105</v>
       </c>
       <c r="J32">
-        <v>1.076</v>
+        <v>0.997</v>
       </c>
       <c r="K32">
         <v>1000000</v>
@@ -2170,31 +2230,31 @@
         <v>65</v>
       </c>
       <c r="B33">
-        <v>0.657</v>
+        <v>-0.106</v>
       </c>
       <c r="C33">
-        <v>697886.105</v>
+        <v>644678.105</v>
       </c>
       <c r="D33">
-        <v>-3240</v>
+        <v>-12780</v>
       </c>
       <c r="E33">
-        <v>-0.003</v>
+        <v>-0.013</v>
       </c>
       <c r="F33">
-        <v>938160</v>
+        <v>849480</v>
       </c>
       <c r="G33">
-        <v>1.076</v>
+        <v>0.997</v>
       </c>
       <c r="H33">
-        <v>0.073</v>
+        <v>-0.016</v>
       </c>
       <c r="I33">
-        <v>1073150.105</v>
+        <v>984470.105</v>
       </c>
       <c r="J33">
-        <v>1.073</v>
+        <v>0.984</v>
       </c>
       <c r="K33">
         <v>1000000</v>
@@ -2205,31 +2265,31 @@
         <v>66</v>
       </c>
       <c r="B34">
-        <v>0.596</v>
+        <v>-0.08599999999999999</v>
       </c>
       <c r="C34">
-        <v>695294.105</v>
+        <v>646370.105</v>
       </c>
       <c r="D34">
-        <v>-4320</v>
+        <v>2820</v>
       </c>
       <c r="E34">
-        <v>-0.004</v>
+        <v>0.003</v>
       </c>
       <c r="F34">
-        <v>933840</v>
+        <v>852300</v>
       </c>
       <c r="G34">
-        <v>1.073</v>
+        <v>0.984</v>
       </c>
       <c r="H34">
-        <v>0.06900000000000001</v>
+        <v>-0.013</v>
       </c>
       <c r="I34">
-        <v>1068830.105</v>
+        <v>987290.105</v>
       </c>
       <c r="J34">
-        <v>1.069</v>
+        <v>0.987</v>
       </c>
       <c r="K34">
         <v>1000000</v>
@@ -2240,31 +2300,31 @@
         <v>67</v>
       </c>
       <c r="B35">
-        <v>0.454</v>
+        <v>-0.316</v>
       </c>
       <c r="C35">
-        <v>687518.105</v>
+        <v>621746.105</v>
       </c>
       <c r="D35">
-        <v>-12960</v>
+        <v>-41040</v>
       </c>
       <c r="E35">
-        <v>-0.012</v>
+        <v>-0.042</v>
       </c>
       <c r="F35">
-        <v>920880</v>
+        <v>811260</v>
       </c>
       <c r="G35">
-        <v>1.069</v>
+        <v>0.987</v>
       </c>
       <c r="H35">
-        <v>0.056</v>
+        <v>-0.054</v>
       </c>
       <c r="I35">
-        <v>1055870.105</v>
+        <v>946250.105</v>
       </c>
       <c r="J35">
-        <v>1.056</v>
+        <v>0.946</v>
       </c>
       <c r="K35">
         <v>1000000</v>
@@ -2275,31 +2335,31 @@
         <v>68</v>
       </c>
       <c r="B36">
-        <v>0.44</v>
+        <v>-0.285</v>
       </c>
       <c r="C36">
-        <v>687266.105</v>
+        <v>624950.105</v>
       </c>
       <c r="D36">
-        <v>-420</v>
+        <v>5340</v>
       </c>
       <c r="E36">
-        <v>-0</v>
+        <v>0.006</v>
       </c>
       <c r="F36">
-        <v>920460</v>
+        <v>816600</v>
       </c>
       <c r="G36">
-        <v>1.056</v>
+        <v>0.946</v>
       </c>
       <c r="H36">
-        <v>0.055</v>
+        <v>-0.048</v>
       </c>
       <c r="I36">
-        <v>1055450.105</v>
+        <v>951590.105</v>
       </c>
       <c r="J36">
-        <v>1.055</v>
+        <v>0.952</v>
       </c>
       <c r="K36">
         <v>1000000</v>
@@ -2310,31 +2370,31 @@
         <v>69</v>
       </c>
       <c r="B37">
-        <v>0.37</v>
+        <v>-0.411</v>
       </c>
       <c r="C37">
-        <v>684206.105</v>
+        <v>606374.105</v>
       </c>
       <c r="D37">
-        <v>-5100</v>
+        <v>-30960</v>
       </c>
       <c r="E37">
-        <v>-0.005</v>
+        <v>-0.033</v>
       </c>
       <c r="F37">
-        <v>915360</v>
+        <v>785640</v>
       </c>
       <c r="G37">
-        <v>1.055</v>
+        <v>0.952</v>
       </c>
       <c r="H37">
-        <v>0.05</v>
+        <v>-0.079</v>
       </c>
       <c r="I37">
-        <v>1050350.105</v>
+        <v>920630.105</v>
       </c>
       <c r="J37">
-        <v>1.05</v>
+        <v>0.921</v>
       </c>
       <c r="K37">
         <v>1000000</v>
@@ -2345,31 +2405,31 @@
         <v>70</v>
       </c>
       <c r="B38">
-        <v>0.252</v>
+        <v>-0.283</v>
       </c>
       <c r="C38">
-        <v>675818.105</v>
+        <v>623078.105</v>
       </c>
       <c r="D38">
-        <v>-13980</v>
+        <v>27840</v>
       </c>
       <c r="E38">
-        <v>-0.013</v>
+        <v>0.03</v>
       </c>
       <c r="F38">
-        <v>901380</v>
+        <v>813480</v>
       </c>
       <c r="G38">
-        <v>1.05</v>
+        <v>0.921</v>
       </c>
       <c r="H38">
-        <v>0.036</v>
+        <v>-0.052</v>
       </c>
       <c r="I38">
-        <v>1036370.105</v>
+        <v>948470.105</v>
       </c>
       <c r="J38">
-        <v>1.036</v>
+        <v>0.948</v>
       </c>
       <c r="K38">
         <v>1000000</v>
@@ -2380,31 +2440,31 @@
         <v>71</v>
       </c>
       <c r="B39">
-        <v>0.439</v>
+        <v>-0.08699999999999999</v>
       </c>
       <c r="C39">
-        <v>690362.105</v>
+        <v>645218.105</v>
       </c>
       <c r="D39">
-        <v>24240</v>
+        <v>36900</v>
       </c>
       <c r="E39">
-        <v>0.023</v>
+        <v>0.039</v>
       </c>
       <c r="F39">
-        <v>925620</v>
+        <v>850380</v>
       </c>
       <c r="G39">
-        <v>1.036</v>
+        <v>0.948</v>
       </c>
       <c r="H39">
-        <v>0.061</v>
+        <v>-0.015</v>
       </c>
       <c r="I39">
-        <v>1060610.105</v>
+        <v>985370.105</v>
       </c>
       <c r="J39">
-        <v>1.061</v>
+        <v>0.985</v>
       </c>
       <c r="K39">
         <v>1000000</v>
@@ -2415,31 +2475,31 @@
         <v>72</v>
       </c>
       <c r="B40">
-        <v>0.446</v>
+        <v>-0.079</v>
       </c>
       <c r="C40">
-        <v>691478.105</v>
+        <v>645938.105</v>
       </c>
       <c r="D40">
-        <v>1860</v>
+        <v>1200</v>
       </c>
       <c r="E40">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F40">
-        <v>927480</v>
+        <v>851580</v>
       </c>
       <c r="G40">
-        <v>1.061</v>
+        <v>0.985</v>
       </c>
       <c r="H40">
-        <v>0.062</v>
+        <v>-0.013</v>
       </c>
       <c r="I40">
-        <v>1062470.105</v>
+        <v>986570.105</v>
       </c>
       <c r="J40">
-        <v>1.062</v>
+        <v>0.987</v>
       </c>
       <c r="K40">
         <v>1000000</v>
@@ -2450,31 +2510,31 @@
         <v>73</v>
       </c>
       <c r="B41">
-        <v>0.434</v>
+        <v>-0.033</v>
       </c>
       <c r="C41">
-        <v>691226.105</v>
+        <v>650618.105</v>
       </c>
       <c r="D41">
-        <v>-420</v>
+        <v>7800</v>
       </c>
       <c r="E41">
-        <v>-0</v>
+        <v>0.008</v>
       </c>
       <c r="F41">
-        <v>927060</v>
+        <v>859380</v>
       </c>
       <c r="G41">
-        <v>1.062</v>
+        <v>0.987</v>
       </c>
       <c r="H41">
-        <v>0.062</v>
+        <v>-0.006</v>
       </c>
       <c r="I41">
-        <v>1062050.105</v>
+        <v>994370.105</v>
       </c>
       <c r="J41">
-        <v>1.062</v>
+        <v>0.994</v>
       </c>
       <c r="K41">
         <v>1000000</v>
@@ -2485,31 +2545,31 @@
         <v>74</v>
       </c>
       <c r="B42">
-        <v>0.534</v>
+        <v>0.037</v>
       </c>
       <c r="C42">
-        <v>701486.105</v>
+        <v>657782.105</v>
       </c>
       <c r="D42">
-        <v>17100</v>
+        <v>11940</v>
       </c>
       <c r="E42">
-        <v>0.016</v>
+        <v>0.012</v>
       </c>
       <c r="F42">
-        <v>944160</v>
+        <v>871320</v>
       </c>
       <c r="G42">
-        <v>1.062</v>
+        <v>0.994</v>
       </c>
       <c r="H42">
-        <v>0.079</v>
+        <v>0.006</v>
       </c>
       <c r="I42">
-        <v>1079150.105</v>
+        <v>1006310.105</v>
       </c>
       <c r="J42">
-        <v>1.079</v>
+        <v>1.006</v>
       </c>
       <c r="K42">
         <v>1000000</v>
@@ -2520,31 +2580,31 @@
         <v>75</v>
       </c>
       <c r="B43">
-        <v>0.498</v>
+        <v>0.015</v>
       </c>
       <c r="C43">
-        <v>699506.105</v>
+        <v>655550.105</v>
       </c>
       <c r="D43">
-        <v>-3300</v>
+        <v>-3720</v>
       </c>
       <c r="E43">
-        <v>-0.003</v>
+        <v>-0.004</v>
       </c>
       <c r="F43">
-        <v>940860</v>
+        <v>867600</v>
       </c>
       <c r="G43">
-        <v>1.079</v>
+        <v>1.006</v>
       </c>
       <c r="H43">
-        <v>0.076</v>
+        <v>0.003</v>
       </c>
       <c r="I43">
-        <v>1075850.105</v>
+        <v>1002590.105</v>
       </c>
       <c r="J43">
-        <v>1.076</v>
+        <v>1.003</v>
       </c>
       <c r="K43">
         <v>1000000</v>
@@ -2555,31 +2615,31 @@
         <v>76</v>
       </c>
       <c r="B44">
-        <v>-0.251</v>
+        <v>-0.043</v>
       </c>
       <c r="C44">
-        <v>575255.83</v>
+        <v>649214.105</v>
       </c>
       <c r="D44">
-        <v>-127586.275</v>
+        <v>-10560</v>
       </c>
       <c r="E44">
-        <v>-0.119</v>
+        <v>-0.011</v>
       </c>
       <c r="F44">
-        <v>-932520</v>
+        <v>857040</v>
       </c>
       <c r="G44">
-        <v>1.076</v>
+        <v>1.003</v>
       </c>
       <c r="H44">
-        <v>-0.052</v>
+        <v>-0.008</v>
       </c>
       <c r="I44">
-        <v>948263.83</v>
+        <v>992030.105</v>
       </c>
       <c r="J44">
-        <v>0.948</v>
+        <v>0.992</v>
       </c>
       <c r="K44">
         <v>1000000</v>
@@ -2590,31 +2650,31 @@
         <v>77</v>
       </c>
       <c r="B45">
-        <v>-0.187</v>
+        <v>-0.054</v>
       </c>
       <c r="C45">
-        <v>594575.83</v>
+        <v>647918.105</v>
       </c>
       <c r="D45">
-        <v>13800</v>
+        <v>-2160</v>
       </c>
       <c r="E45">
-        <v>0.015</v>
+        <v>-0.002</v>
       </c>
       <c r="F45">
-        <v>-918720</v>
+        <v>854880</v>
       </c>
       <c r="G45">
-        <v>0.948</v>
+        <v>0.992</v>
       </c>
       <c r="H45">
-        <v>-0.038</v>
+        <v>-0.01</v>
       </c>
       <c r="I45">
-        <v>962063.83</v>
+        <v>989870.105</v>
       </c>
       <c r="J45">
-        <v>0.962</v>
+        <v>0.99</v>
       </c>
       <c r="K45">
         <v>1000000</v>
@@ -2625,31 +2685,31 @@
         <v>78</v>
       </c>
       <c r="B46">
-        <v>-0.271</v>
+        <v>-0.08599999999999999</v>
       </c>
       <c r="C46">
-        <v>564335.83</v>
+        <v>643994.105</v>
       </c>
       <c r="D46">
-        <v>-21600</v>
+        <v>-6540</v>
       </c>
       <c r="E46">
-        <v>-0.022</v>
+        <v>-0.007</v>
       </c>
       <c r="F46">
-        <v>-940320</v>
+        <v>848340</v>
       </c>
       <c r="G46">
-        <v>0.962</v>
+        <v>0.99</v>
       </c>
       <c r="H46">
-        <v>-0.06</v>
+        <v>-0.017</v>
       </c>
       <c r="I46">
-        <v>940463.83</v>
+        <v>983330.105</v>
       </c>
       <c r="J46">
-        <v>0.9399999999999999</v>
+        <v>0.983</v>
       </c>
       <c r="K46">
         <v>1000000</v>
@@ -2660,31 +2720,31 @@
         <v>79</v>
       </c>
       <c r="B47">
-        <v>-0.237</v>
+        <v>0.033</v>
       </c>
       <c r="C47">
-        <v>574919.83</v>
+        <v>657746.105</v>
       </c>
       <c r="D47">
-        <v>7560</v>
+        <v>22920</v>
       </c>
       <c r="E47">
-        <v>0.008</v>
+        <v>0.023</v>
       </c>
       <c r="F47">
-        <v>-932760</v>
+        <v>871260</v>
       </c>
       <c r="G47">
-        <v>0.9399999999999999</v>
+        <v>0.983</v>
       </c>
       <c r="H47">
-        <v>-0.052</v>
+        <v>0.006</v>
       </c>
       <c r="I47">
-        <v>948023.83</v>
+        <v>1006250.105</v>
       </c>
       <c r="J47">
-        <v>0.948</v>
+        <v>1.006</v>
       </c>
       <c r="K47">
         <v>1000000</v>
@@ -2695,31 +2755,31 @@
         <v>80</v>
       </c>
       <c r="B48">
-        <v>-0.328</v>
+        <v>-0.01</v>
       </c>
       <c r="C48">
-        <v>540731.83</v>
+        <v>652778.105</v>
       </c>
       <c r="D48">
-        <v>-24420</v>
+        <v>-8280</v>
       </c>
       <c r="E48">
-        <v>-0.026</v>
+        <v>-0.008</v>
       </c>
       <c r="F48">
-        <v>-957180</v>
+        <v>862980</v>
       </c>
       <c r="G48">
-        <v>0.948</v>
+        <v>1.006</v>
       </c>
       <c r="H48">
-        <v>-0.076</v>
+        <v>-0.002</v>
       </c>
       <c r="I48">
-        <v>923603.83</v>
+        <v>997970.105</v>
       </c>
       <c r="J48">
-        <v>0.924</v>
+        <v>0.998</v>
       </c>
       <c r="K48">
         <v>1000000</v>
@@ -2730,31 +2790,31 @@
         <v>81</v>
       </c>
       <c r="B49">
-        <v>-0.5639999999999999</v>
+        <v>0.011</v>
       </c>
       <c r="C49">
-        <v>462685.578</v>
+        <v>655334.105</v>
       </c>
       <c r="D49">
-        <v>-78526.25199999999</v>
+        <v>4260</v>
       </c>
       <c r="E49">
-        <v>-0.08500000000000001</v>
+        <v>0.004</v>
       </c>
       <c r="F49">
-        <v>955980</v>
+        <v>867240</v>
       </c>
       <c r="G49">
-        <v>0.924</v>
+        <v>0.998</v>
       </c>
       <c r="H49">
-        <v>-0.155</v>
+        <v>0.002</v>
       </c>
       <c r="I49">
-        <v>845077.578</v>
+        <v>1002230.105</v>
       </c>
       <c r="J49">
-        <v>0.845</v>
+        <v>1.002</v>
       </c>
       <c r="K49">
         <v>1000000</v>
@@ -2765,31 +2825,31 @@
         <v>82</v>
       </c>
       <c r="B50">
-        <v>-0.5590000000000001</v>
+        <v>0.132</v>
       </c>
       <c r="C50">
-        <v>462649.578</v>
+        <v>669266.105</v>
       </c>
       <c r="D50">
-        <v>-60</v>
+        <v>23220</v>
       </c>
       <c r="E50">
-        <v>-0</v>
+        <v>0.023</v>
       </c>
       <c r="F50">
-        <v>955920</v>
+        <v>890460</v>
       </c>
       <c r="G50">
-        <v>0.845</v>
+        <v>1.002</v>
       </c>
       <c r="H50">
-        <v>-0.155</v>
+        <v>0.025</v>
       </c>
       <c r="I50">
-        <v>845017.578</v>
+        <v>1025450.105</v>
       </c>
       <c r="J50">
-        <v>0.845</v>
+        <v>1.025</v>
       </c>
       <c r="K50">
         <v>1000000</v>
@@ -2800,31 +2860,31 @@
         <v>83</v>
       </c>
       <c r="B51">
-        <v>-0.794</v>
+        <v>0.273</v>
       </c>
       <c r="C51">
-        <v>335708.347</v>
+        <v>684458.105</v>
       </c>
       <c r="D51">
-        <v>-131549.231</v>
+        <v>25320</v>
       </c>
       <c r="E51">
-        <v>-0.156</v>
+        <v>0.025</v>
       </c>
       <c r="F51">
-        <v>-944400</v>
+        <v>915780</v>
       </c>
       <c r="G51">
-        <v>0.845</v>
+        <v>1.025</v>
       </c>
       <c r="H51">
-        <v>-0.287</v>
+        <v>0.051</v>
       </c>
       <c r="I51">
-        <v>713468.347</v>
+        <v>1050770.105</v>
       </c>
       <c r="J51">
-        <v>0.713</v>
+        <v>1.051</v>
       </c>
       <c r="K51">
         <v>1000000</v>
@@ -2835,31 +2895,31 @@
         <v>84</v>
       </c>
       <c r="B52">
-        <v>-0.789</v>
+        <v>0.411</v>
       </c>
       <c r="C52">
-        <v>336380.347</v>
+        <v>699830.105</v>
       </c>
       <c r="D52">
-        <v>480</v>
+        <v>25620</v>
       </c>
       <c r="E52">
-        <v>0.001</v>
+        <v>0.024</v>
       </c>
       <c r="F52">
-        <v>-943920</v>
+        <v>941400</v>
       </c>
       <c r="G52">
-        <v>0.713</v>
+        <v>1.051</v>
       </c>
       <c r="H52">
-        <v>-0.286</v>
+        <v>0.076</v>
       </c>
       <c r="I52">
-        <v>713948.347</v>
+        <v>1076390.105</v>
       </c>
       <c r="J52">
-        <v>0.714</v>
+        <v>1.076</v>
       </c>
       <c r="K52">
         <v>1000000</v>
@@ -2870,31 +2930,31 @@
         <v>85</v>
       </c>
       <c r="B53">
-        <v>-0.748</v>
+        <v>0.386</v>
       </c>
       <c r="C53">
-        <v>372080.347</v>
+        <v>697886.105</v>
       </c>
       <c r="D53">
-        <v>25500</v>
+        <v>-3240</v>
       </c>
       <c r="E53">
-        <v>0.036</v>
+        <v>-0.003</v>
       </c>
       <c r="F53">
-        <v>-918420</v>
+        <v>938160</v>
       </c>
       <c r="G53">
-        <v>0.714</v>
+        <v>1.076</v>
       </c>
       <c r="H53">
-        <v>-0.261</v>
+        <v>0.073</v>
       </c>
       <c r="I53">
-        <v>739448.347</v>
+        <v>1073150.105</v>
       </c>
       <c r="J53">
-        <v>0.739</v>
+        <v>1.073</v>
       </c>
       <c r="K53">
         <v>1000000</v>
@@ -2905,31 +2965,31 @@
         <v>86</v>
       </c>
       <c r="B54">
-        <v>-0.759</v>
+        <v>0.355</v>
       </c>
       <c r="C54">
-        <v>358052.347</v>
+        <v>695294.105</v>
       </c>
       <c r="D54">
-        <v>-10020</v>
+        <v>-4320</v>
       </c>
       <c r="E54">
-        <v>-0.014</v>
+        <v>-0.004</v>
       </c>
       <c r="F54">
-        <v>-928440</v>
+        <v>933840</v>
       </c>
       <c r="G54">
-        <v>0.739</v>
+        <v>1.073</v>
       </c>
       <c r="H54">
-        <v>-0.271</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I54">
-        <v>729428.347</v>
+        <v>1068830.105</v>
       </c>
       <c r="J54">
-        <v>0.729</v>
+        <v>1.069</v>
       </c>
       <c r="K54">
         <v>1000000</v>
@@ -2940,31 +3000,31 @@
         <v>87</v>
       </c>
       <c r="B55">
-        <v>-0.755</v>
+        <v>0.278</v>
       </c>
       <c r="C55">
-        <v>357884.347</v>
+        <v>687518.105</v>
       </c>
       <c r="D55">
-        <v>-120</v>
+        <v>-12960</v>
       </c>
       <c r="E55">
-        <v>-0</v>
+        <v>-0.012</v>
       </c>
       <c r="F55">
-        <v>-928560</v>
+        <v>920880</v>
       </c>
       <c r="G55">
-        <v>0.729</v>
+        <v>1.069</v>
       </c>
       <c r="H55">
-        <v>-0.271</v>
+        <v>0.056</v>
       </c>
       <c r="I55">
-        <v>729308.347</v>
+        <v>1055870.105</v>
       </c>
       <c r="J55">
-        <v>0.729</v>
+        <v>1.056</v>
       </c>
       <c r="K55">
         <v>1000000</v>
@@ -2975,31 +3035,31 @@
         <v>88</v>
       </c>
       <c r="B56">
-        <v>-0.737</v>
+        <v>0.272</v>
       </c>
       <c r="C56">
-        <v>363008.347</v>
+        <v>687266.105</v>
       </c>
       <c r="D56">
-        <v>3660</v>
+        <v>-420</v>
       </c>
       <c r="E56">
-        <v>0.005</v>
+        <v>-0</v>
       </c>
       <c r="F56">
-        <v>-924900</v>
+        <v>920460</v>
       </c>
       <c r="G56">
-        <v>0.729</v>
+        <v>1.056</v>
       </c>
       <c r="H56">
-        <v>-0.267</v>
+        <v>0.055</v>
       </c>
       <c r="I56">
-        <v>732968.347</v>
+        <v>1055450.105</v>
       </c>
       <c r="J56">
-        <v>0.733</v>
+        <v>1.055</v>
       </c>
       <c r="K56">
         <v>1000000</v>
@@ -3010,31 +3070,31 @@
         <v>89</v>
       </c>
       <c r="B57">
-        <v>-0.734</v>
+        <v>0.235</v>
       </c>
       <c r="C57">
-        <v>361244.347</v>
+        <v>684206.105</v>
       </c>
       <c r="D57">
-        <v>-1260</v>
+        <v>-5100</v>
       </c>
       <c r="E57">
-        <v>-0.002</v>
+        <v>-0.005</v>
       </c>
       <c r="F57">
-        <v>-926160</v>
+        <v>915360</v>
       </c>
       <c r="G57">
-        <v>0.733</v>
+        <v>1.055</v>
       </c>
       <c r="H57">
-        <v>-0.268</v>
+        <v>0.05</v>
       </c>
       <c r="I57">
-        <v>731708.347</v>
+        <v>1050350.105</v>
       </c>
       <c r="J57">
-        <v>0.732</v>
+        <v>1.05</v>
       </c>
       <c r="K57">
         <v>1000000</v>
@@ -3045,31 +3105,31 @@
         <v>90</v>
       </c>
       <c r="B58">
-        <v>-0.73</v>
+        <v>0.164</v>
       </c>
       <c r="C58">
-        <v>361748.347</v>
+        <v>675818.105</v>
       </c>
       <c r="D58">
-        <v>360</v>
+        <v>-13980</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>-0.013</v>
       </c>
       <c r="F58">
-        <v>-925800</v>
+        <v>901380</v>
       </c>
       <c r="G58">
-        <v>0.732</v>
+        <v>1.05</v>
       </c>
       <c r="H58">
-        <v>-0.268</v>
+        <v>0.036</v>
       </c>
       <c r="I58">
-        <v>732068.347</v>
+        <v>1036370.105</v>
       </c>
       <c r="J58">
-        <v>0.732</v>
+        <v>1.036</v>
       </c>
       <c r="K58">
         <v>1000000</v>
@@ -3080,31 +3140,31 @@
         <v>91</v>
       </c>
       <c r="B59">
-        <v>-0.722</v>
+        <v>0.28</v>
       </c>
       <c r="C59">
-        <v>365192.347</v>
+        <v>690362.105</v>
       </c>
       <c r="D59">
-        <v>2460</v>
+        <v>24240</v>
       </c>
       <c r="E59">
-        <v>0.003</v>
+        <v>0.023</v>
       </c>
       <c r="F59">
-        <v>-923340</v>
+        <v>925620</v>
       </c>
       <c r="G59">
-        <v>0.732</v>
+        <v>1.036</v>
       </c>
       <c r="H59">
-        <v>-0.265</v>
+        <v>0.061</v>
       </c>
       <c r="I59">
-        <v>734528.347</v>
+        <v>1060610.105</v>
       </c>
       <c r="J59">
-        <v>0.735</v>
+        <v>1.061</v>
       </c>
       <c r="K59">
         <v>1000000</v>
@@ -3115,31 +3175,31 @@
         <v>92</v>
       </c>
       <c r="B60">
-        <v>-0.724</v>
+        <v>0.286</v>
       </c>
       <c r="C60">
-        <v>359816.347</v>
+        <v>691478.105</v>
       </c>
       <c r="D60">
-        <v>-3840</v>
+        <v>1860</v>
       </c>
       <c r="E60">
-        <v>-0.005</v>
+        <v>0.002</v>
       </c>
       <c r="F60">
-        <v>-927180</v>
+        <v>927480</v>
       </c>
       <c r="G60">
-        <v>0.735</v>
+        <v>1.061</v>
       </c>
       <c r="H60">
-        <v>-0.269</v>
+        <v>0.062</v>
       </c>
       <c r="I60">
-        <v>730688.347</v>
+        <v>1062470.105</v>
       </c>
       <c r="J60">
-        <v>0.731</v>
+        <v>1.062</v>
       </c>
       <c r="K60">
         <v>1000000</v>
@@ -3150,31 +3210,31 @@
         <v>93</v>
       </c>
       <c r="B61">
-        <v>-0.734</v>
+        <v>0.28</v>
       </c>
       <c r="C61">
-        <v>336212.347</v>
+        <v>691226.105</v>
       </c>
       <c r="D61">
-        <v>-16860</v>
+        <v>-420</v>
       </c>
       <c r="E61">
-        <v>-0.023</v>
+        <v>-0</v>
       </c>
       <c r="F61">
-        <v>-944040</v>
+        <v>927060</v>
       </c>
       <c r="G61">
-        <v>0.731</v>
+        <v>1.062</v>
       </c>
       <c r="H61">
-        <v>-0.286</v>
+        <v>0.062</v>
       </c>
       <c r="I61">
-        <v>713828.347</v>
+        <v>1062050.105</v>
       </c>
       <c r="J61">
-        <v>0.714</v>
+        <v>1.062</v>
       </c>
       <c r="K61">
         <v>1000000</v>
@@ -3185,31 +3245,31 @@
         <v>94</v>
       </c>
       <c r="B62">
-        <v>-0.729</v>
+        <v>0.348</v>
       </c>
       <c r="C62">
-        <v>336884.347</v>
+        <v>701486.105</v>
       </c>
       <c r="D62">
-        <v>480</v>
+        <v>17100</v>
       </c>
       <c r="E62">
-        <v>0.001</v>
+        <v>0.016</v>
       </c>
       <c r="F62">
-        <v>-943560</v>
+        <v>944160</v>
       </c>
       <c r="G62">
-        <v>0.714</v>
+        <v>1.062</v>
       </c>
       <c r="H62">
-        <v>-0.286</v>
+        <v>0.079</v>
       </c>
       <c r="I62">
-        <v>714308.347</v>
+        <v>1079150.105</v>
       </c>
       <c r="J62">
-        <v>0.714</v>
+        <v>1.079</v>
       </c>
       <c r="K62">
         <v>1000000</v>
@@ -3220,31 +3280,31 @@
         <v>95</v>
       </c>
       <c r="B63">
-        <v>-0.725</v>
+        <v>0.328</v>
       </c>
       <c r="C63">
-        <v>337640.347</v>
+        <v>699506.105</v>
       </c>
       <c r="D63">
-        <v>540</v>
+        <v>-3300</v>
       </c>
       <c r="E63">
-        <v>0.001</v>
+        <v>-0.003</v>
       </c>
       <c r="F63">
-        <v>-943020</v>
+        <v>940860</v>
       </c>
       <c r="G63">
-        <v>0.714</v>
+        <v>1.079</v>
       </c>
       <c r="H63">
-        <v>-0.285</v>
+        <v>0.076</v>
       </c>
       <c r="I63">
-        <v>714848.347</v>
+        <v>1075850.105</v>
       </c>
       <c r="J63">
-        <v>0.715</v>
+        <v>1.076</v>
       </c>
       <c r="K63">
         <v>1000000</v>
@@ -3255,31 +3315,31 @@
         <v>96</v>
       </c>
       <c r="B64">
-        <v>-0.6879999999999999</v>
+        <v>-0.185</v>
       </c>
       <c r="C64">
-        <v>367292.347</v>
+        <v>575255.83</v>
       </c>
       <c r="D64">
-        <v>21180</v>
+        <v>-127586.275</v>
       </c>
       <c r="E64">
-        <v>0.03</v>
+        <v>-0.119</v>
       </c>
       <c r="F64">
-        <v>-921840</v>
+        <v>-932520</v>
       </c>
       <c r="G64">
-        <v>0.715</v>
+        <v>1.076</v>
       </c>
       <c r="H64">
-        <v>-0.264</v>
+        <v>-0.052</v>
       </c>
       <c r="I64">
-        <v>736028.347</v>
+        <v>948263.83</v>
       </c>
       <c r="J64">
-        <v>0.736</v>
+        <v>0.948</v>
       </c>
       <c r="K64">
         <v>1000000</v>
@@ -3290,31 +3350,31 @@
         <v>97</v>
       </c>
       <c r="B65">
-        <v>-0.636</v>
+        <v>-0.137</v>
       </c>
       <c r="C65">
-        <v>401060.347</v>
+        <v>594575.83</v>
       </c>
       <c r="D65">
-        <v>24120</v>
+        <v>13800</v>
       </c>
       <c r="E65">
-        <v>0.033</v>
+        <v>0.015</v>
       </c>
       <c r="F65">
-        <v>-897720</v>
+        <v>-918720</v>
       </c>
       <c r="G65">
-        <v>0.736</v>
+        <v>0.948</v>
       </c>
       <c r="H65">
-        <v>-0.24</v>
+        <v>-0.038</v>
       </c>
       <c r="I65">
-        <v>760148.347</v>
+        <v>962063.83</v>
       </c>
       <c r="J65">
-        <v>0.76</v>
+        <v>0.962</v>
       </c>
       <c r="K65">
         <v>1000000</v>
@@ -3325,31 +3385,31 @@
         <v>98</v>
       </c>
       <c r="B66">
-        <v>-0.636</v>
+        <v>-0.203</v>
       </c>
       <c r="C66">
-        <v>398624.347</v>
+        <v>564335.83</v>
       </c>
       <c r="D66">
-        <v>-1740</v>
+        <v>-21600</v>
       </c>
       <c r="E66">
-        <v>-0.002</v>
+        <v>-0.022</v>
       </c>
       <c r="F66">
-        <v>-899460</v>
+        <v>-940320</v>
       </c>
       <c r="G66">
-        <v>0.76</v>
+        <v>0.962</v>
       </c>
       <c r="H66">
-        <v>-0.242</v>
+        <v>-0.06</v>
       </c>
       <c r="I66">
-        <v>758408.347</v>
+        <v>940463.83</v>
       </c>
       <c r="J66">
-        <v>0.758</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K66">
         <v>1000000</v>
@@ -3360,31 +3420,31 @@
         <v>99</v>
       </c>
       <c r="B67">
-        <v>-0.64</v>
+        <v>-0.177</v>
       </c>
       <c r="C67">
-        <v>391820.347</v>
+        <v>574919.83</v>
       </c>
       <c r="D67">
-        <v>-4860</v>
+        <v>7560</v>
       </c>
       <c r="E67">
-        <v>-0.006</v>
+        <v>0.008</v>
       </c>
       <c r="F67">
-        <v>-904320</v>
+        <v>-932760</v>
       </c>
       <c r="G67">
-        <v>0.758</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H67">
-        <v>-0.246</v>
+        <v>-0.052</v>
       </c>
       <c r="I67">
-        <v>753548.347</v>
+        <v>948023.83</v>
       </c>
       <c r="J67">
-        <v>0.754</v>
+        <v>0.948</v>
       </c>
       <c r="K67">
         <v>1000000</v>
@@ -3395,31 +3455,31 @@
         <v>100</v>
       </c>
       <c r="B68">
-        <v>-0.643</v>
+        <v>-0.25</v>
       </c>
       <c r="C68">
-        <v>386360.347</v>
+        <v>540731.83</v>
       </c>
       <c r="D68">
-        <v>-3900</v>
+        <v>-24420</v>
       </c>
       <c r="E68">
-        <v>-0.005</v>
+        <v>-0.026</v>
       </c>
       <c r="F68">
-        <v>-908220</v>
+        <v>-957180</v>
       </c>
       <c r="G68">
-        <v>0.754</v>
+        <v>0.948</v>
       </c>
       <c r="H68">
-        <v>-0.25</v>
+        <v>-0.076</v>
       </c>
       <c r="I68">
-        <v>749648.347</v>
+        <v>923603.83</v>
       </c>
       <c r="J68">
-        <v>0.75</v>
+        <v>0.924</v>
       </c>
       <c r="K68">
         <v>1000000</v>
@@ -3430,31 +3490,31 @@
         <v>101</v>
       </c>
       <c r="B69">
-        <v>-0.638</v>
+        <v>-0.452</v>
       </c>
       <c r="C69">
-        <v>388124.347</v>
+        <v>462685.578</v>
       </c>
       <c r="D69">
-        <v>1260</v>
+        <v>-78526.25199999999</v>
       </c>
       <c r="E69">
-        <v>0.002</v>
+        <v>-0.08500000000000001</v>
       </c>
       <c r="F69">
-        <v>-906960</v>
+        <v>955980</v>
       </c>
       <c r="G69">
-        <v>0.75</v>
+        <v>0.924</v>
       </c>
       <c r="H69">
-        <v>-0.249</v>
+        <v>-0.155</v>
       </c>
       <c r="I69">
-        <v>750908.347</v>
+        <v>845077.578</v>
       </c>
       <c r="J69">
-        <v>0.751</v>
+        <v>0.845</v>
       </c>
       <c r="K69">
         <v>1000000</v>
@@ -3465,31 +3525,31 @@
         <v>102</v>
       </c>
       <c r="B70">
-        <v>-0.633</v>
+        <v>-0.449</v>
       </c>
       <c r="C70">
-        <v>383252.347</v>
+        <v>462649.578</v>
       </c>
       <c r="D70">
-        <v>-3480</v>
+        <v>-60</v>
       </c>
       <c r="E70">
-        <v>-0.005</v>
+        <v>-0</v>
       </c>
       <c r="F70">
-        <v>-910440</v>
+        <v>955920</v>
       </c>
       <c r="G70">
-        <v>0.751</v>
+        <v>0.845</v>
       </c>
       <c r="H70">
-        <v>-0.253</v>
+        <v>-0.155</v>
       </c>
       <c r="I70">
-        <v>747428.347</v>
+        <v>845017.578</v>
       </c>
       <c r="J70">
-        <v>0.747</v>
+        <v>0.845</v>
       </c>
       <c r="K70">
         <v>1000000</v>
@@ -3500,31 +3560,31 @@
         <v>103</v>
       </c>
       <c r="B71">
-        <v>-0.634</v>
+        <v>-0.6870000000000001</v>
       </c>
       <c r="C71">
-        <v>379808.347</v>
+        <v>335708.347</v>
       </c>
       <c r="D71">
-        <v>-2460</v>
+        <v>-131549.231</v>
       </c>
       <c r="E71">
-        <v>-0.003</v>
+        <v>-0.156</v>
       </c>
       <c r="F71">
-        <v>-912900</v>
+        <v>-944400</v>
       </c>
       <c r="G71">
-        <v>0.747</v>
+        <v>0.845</v>
       </c>
       <c r="H71">
-        <v>-0.255</v>
+        <v>-0.287</v>
       </c>
       <c r="I71">
-        <v>744968.347</v>
+        <v>713468.347</v>
       </c>
       <c r="J71">
-        <v>0.745</v>
+        <v>0.713</v>
       </c>
       <c r="K71">
         <v>1000000</v>
@@ -3535,31 +3595,31 @@
         <v>104</v>
       </c>
       <c r="B72">
-        <v>-0.613</v>
+        <v>-0.6830000000000001</v>
       </c>
       <c r="C72">
-        <v>394340.347</v>
+        <v>336380.347</v>
       </c>
       <c r="D72">
-        <v>10380</v>
+        <v>480</v>
       </c>
       <c r="E72">
-        <v>0.014</v>
+        <v>0.001</v>
       </c>
       <c r="F72">
-        <v>-902520</v>
+        <v>-943920</v>
       </c>
       <c r="G72">
-        <v>0.745</v>
+        <v>0.713</v>
       </c>
       <c r="H72">
-        <v>-0.245</v>
+        <v>-0.286</v>
       </c>
       <c r="I72">
-        <v>755348.347</v>
+        <v>713948.347</v>
       </c>
       <c r="J72">
-        <v>0.755</v>
+        <v>0.714</v>
       </c>
       <c r="K72">
         <v>1000000</v>
@@ -3570,31 +3630,31 @@
         <v>105</v>
       </c>
       <c r="B73">
-        <v>-0.616</v>
+        <v>-0.639</v>
       </c>
       <c r="C73">
-        <v>389048.347</v>
+        <v>372080.347</v>
       </c>
       <c r="D73">
-        <v>-3780</v>
+        <v>25500</v>
       </c>
       <c r="E73">
-        <v>-0.005</v>
+        <v>0.036</v>
       </c>
       <c r="F73">
-        <v>-906300</v>
+        <v>-918420</v>
       </c>
       <c r="G73">
-        <v>0.755</v>
+        <v>0.714</v>
       </c>
       <c r="H73">
-        <v>-0.248</v>
+        <v>-0.261</v>
       </c>
       <c r="I73">
-        <v>751568.347</v>
+        <v>739448.347</v>
       </c>
       <c r="J73">
-        <v>0.752</v>
+        <v>0.739</v>
       </c>
       <c r="K73">
         <v>1000000</v>
@@ -3605,31 +3665,31 @@
         <v>106</v>
       </c>
       <c r="B74">
-        <v>-0.621</v>
+        <v>-0.652</v>
       </c>
       <c r="C74">
-        <v>382328.347</v>
+        <v>358052.347</v>
       </c>
       <c r="D74">
-        <v>-4800</v>
+        <v>-10020</v>
       </c>
       <c r="E74">
-        <v>-0.006</v>
+        <v>-0.014</v>
       </c>
       <c r="F74">
-        <v>-911100</v>
+        <v>-928440</v>
       </c>
       <c r="G74">
-        <v>0.752</v>
+        <v>0.739</v>
       </c>
       <c r="H74">
-        <v>-0.253</v>
+        <v>-0.271</v>
       </c>
       <c r="I74">
-        <v>746768.347</v>
+        <v>729428.347</v>
       </c>
       <c r="J74">
-        <v>0.747</v>
+        <v>0.729</v>
       </c>
       <c r="K74">
         <v>1000000</v>
@@ -3640,31 +3700,31 @@
         <v>107</v>
       </c>
       <c r="B75">
-        <v>-0.614</v>
+        <v>-0.649</v>
       </c>
       <c r="C75">
-        <v>379304.347</v>
+        <v>357884.347</v>
       </c>
       <c r="D75">
-        <v>-2160</v>
+        <v>-120</v>
       </c>
       <c r="E75">
-        <v>-0.003</v>
+        <v>-0</v>
       </c>
       <c r="F75">
-        <v>-913260</v>
+        <v>-928560</v>
       </c>
       <c r="G75">
-        <v>0.747</v>
+        <v>0.729</v>
       </c>
       <c r="H75">
-        <v>-0.255</v>
+        <v>-0.271</v>
       </c>
       <c r="I75">
-        <v>744608.347</v>
+        <v>729308.347</v>
       </c>
       <c r="J75">
-        <v>0.745</v>
+        <v>0.729</v>
       </c>
       <c r="K75">
         <v>1000000</v>
@@ -3675,31 +3735,31 @@
         <v>108</v>
       </c>
       <c r="B76">
-        <v>-0.601</v>
+        <v>-0.633</v>
       </c>
       <c r="C76">
-        <v>387536.347</v>
+        <v>363008.347</v>
       </c>
       <c r="D76">
-        <v>5880</v>
+        <v>3660</v>
       </c>
       <c r="E76">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="F76">
-        <v>-907380</v>
+        <v>-924900</v>
       </c>
       <c r="G76">
-        <v>0.745</v>
+        <v>0.729</v>
       </c>
       <c r="H76">
-        <v>-0.25</v>
+        <v>-0.267</v>
       </c>
       <c r="I76">
-        <v>750488.347</v>
+        <v>732968.347</v>
       </c>
       <c r="J76">
-        <v>0.75</v>
+        <v>0.733</v>
       </c>
       <c r="K76">
         <v>1000000</v>
@@ -3710,31 +3770,31 @@
         <v>109</v>
       </c>
       <c r="B77">
-        <v>-0.598</v>
+        <v>-0.632</v>
       </c>
       <c r="C77">
-        <v>387704.347</v>
+        <v>361244.347</v>
       </c>
       <c r="D77">
-        <v>120</v>
+        <v>-1260</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="F77">
-        <v>-907260</v>
+        <v>-926160</v>
       </c>
       <c r="G77">
-        <v>0.75</v>
+        <v>0.733</v>
       </c>
       <c r="H77">
-        <v>-0.249</v>
+        <v>-0.268</v>
       </c>
       <c r="I77">
-        <v>750608.347</v>
+        <v>731708.347</v>
       </c>
       <c r="J77">
-        <v>0.751</v>
+        <v>0.732</v>
       </c>
       <c r="K77">
         <v>1000000</v>
@@ -3745,31 +3805,31 @@
         <v>110</v>
       </c>
       <c r="B78">
-        <v>-0.593</v>
+        <v>-0.628</v>
       </c>
       <c r="C78">
-        <v>388712.347</v>
+        <v>361748.347</v>
       </c>
       <c r="D78">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="E78">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>-906540</v>
+        <v>-925800</v>
       </c>
       <c r="G78">
-        <v>0.751</v>
+        <v>0.732</v>
       </c>
       <c r="H78">
-        <v>-0.249</v>
+        <v>-0.268</v>
       </c>
       <c r="I78">
-        <v>751328.347</v>
+        <v>732068.347</v>
       </c>
       <c r="J78">
-        <v>0.751</v>
+        <v>0.732</v>
       </c>
       <c r="K78">
         <v>1000000</v>
@@ -3780,31 +3840,31 @@
         <v>111</v>
       </c>
       <c r="B79">
-        <v>-0.705</v>
+        <v>-0.621</v>
       </c>
       <c r="C79">
-        <v>312249.99</v>
+        <v>365192.347</v>
       </c>
       <c r="D79">
-        <v>-75094.357</v>
+        <v>2460</v>
       </c>
       <c r="E79">
-        <v>-0.1</v>
+        <v>0.003</v>
       </c>
       <c r="F79">
-        <v>909960</v>
+        <v>-923340</v>
       </c>
       <c r="G79">
-        <v>0.751</v>
+        <v>0.732</v>
       </c>
       <c r="H79">
-        <v>-0.324</v>
+        <v>-0.265</v>
       </c>
       <c r="I79">
-        <v>676233.99</v>
+        <v>734528.347</v>
       </c>
       <c r="J79">
-        <v>0.676</v>
+        <v>0.735</v>
       </c>
       <c r="K79">
         <v>1000000</v>
@@ -3815,31 +3875,31 @@
         <v>112</v>
       </c>
       <c r="B80">
-        <v>-0.695</v>
+        <v>-0.624</v>
       </c>
       <c r="C80">
-        <v>312717.99</v>
+        <v>359816.347</v>
       </c>
       <c r="D80">
-        <v>780</v>
+        <v>-3840</v>
       </c>
       <c r="E80">
-        <v>0.001</v>
+        <v>-0.005</v>
       </c>
       <c r="F80">
-        <v>910740</v>
+        <v>-927180</v>
       </c>
       <c r="G80">
-        <v>0.676</v>
+        <v>0.735</v>
       </c>
       <c r="H80">
-        <v>-0.323</v>
+        <v>-0.269</v>
       </c>
       <c r="I80">
-        <v>677013.99</v>
+        <v>730688.347</v>
       </c>
       <c r="J80">
-        <v>0.677</v>
+        <v>0.731</v>
       </c>
       <c r="K80">
         <v>1000000</v>
@@ -3850,31 +3910,31 @@
         <v>113</v>
       </c>
       <c r="B81">
-        <v>-0.645</v>
+        <v>-0.638</v>
       </c>
       <c r="C81">
-        <v>331977.99</v>
+        <v>336212.347</v>
       </c>
       <c r="D81">
-        <v>32100</v>
+        <v>-16860</v>
       </c>
       <c r="E81">
-        <v>0.047</v>
+        <v>-0.023</v>
       </c>
       <c r="F81">
-        <v>942840</v>
+        <v>-944040</v>
       </c>
       <c r="G81">
-        <v>0.677</v>
+        <v>0.731</v>
       </c>
       <c r="H81">
-        <v>-0.291</v>
+        <v>-0.286</v>
       </c>
       <c r="I81">
-        <v>709113.99</v>
+        <v>713828.347</v>
       </c>
       <c r="J81">
-        <v>0.709</v>
+        <v>0.714</v>
       </c>
       <c r="K81">
         <v>1000000</v>
@@ -3882,36 +3942,736 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82">
+        <v>-0.635</v>
+      </c>
+      <c r="C82">
+        <v>336884.347</v>
+      </c>
+      <c r="D82">
+        <v>480</v>
+      </c>
+      <c r="E82">
+        <v>0.001</v>
+      </c>
+      <c r="F82">
+        <v>-943560</v>
+      </c>
+      <c r="G82">
+        <v>0.714</v>
+      </c>
+      <c r="H82">
+        <v>-0.286</v>
+      </c>
+      <c r="I82">
+        <v>714308.347</v>
+      </c>
+      <c r="J82">
+        <v>0.714</v>
+      </c>
+      <c r="K82">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83">
+        <v>-0.631</v>
+      </c>
+      <c r="C83">
+        <v>337640.347</v>
+      </c>
+      <c r="D83">
+        <v>540</v>
+      </c>
+      <c r="E83">
+        <v>0.001</v>
+      </c>
+      <c r="F83">
+        <v>-943020</v>
+      </c>
+      <c r="G83">
+        <v>0.714</v>
+      </c>
+      <c r="H83">
+        <v>-0.285</v>
+      </c>
+      <c r="I83">
+        <v>714848.347</v>
+      </c>
+      <c r="J83">
+        <v>0.715</v>
+      </c>
+      <c r="K83">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84">
+        <v>-0.594</v>
+      </c>
+      <c r="C84">
+        <v>367292.347</v>
+      </c>
+      <c r="D84">
+        <v>21180</v>
+      </c>
+      <c r="E84">
+        <v>0.03</v>
+      </c>
+      <c r="F84">
+        <v>-921840</v>
+      </c>
+      <c r="G84">
+        <v>0.715</v>
+      </c>
+      <c r="H84">
+        <v>-0.264</v>
+      </c>
+      <c r="I84">
+        <v>736028.347</v>
+      </c>
+      <c r="J84">
+        <v>0.736</v>
+      </c>
+      <c r="K84">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85">
+        <v>-0.545</v>
+      </c>
+      <c r="C85">
+        <v>401060.347</v>
+      </c>
+      <c r="D85">
+        <v>24120</v>
+      </c>
+      <c r="E85">
+        <v>0.033</v>
+      </c>
+      <c r="F85">
+        <v>-897720</v>
+      </c>
+      <c r="G85">
+        <v>0.736</v>
+      </c>
+      <c r="H85">
+        <v>-0.24</v>
+      </c>
+      <c r="I85">
+        <v>760148.347</v>
+      </c>
+      <c r="J85">
+        <v>0.76</v>
+      </c>
+      <c r="K85">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86">
+        <v>-0.545</v>
+      </c>
+      <c r="C86">
+        <v>398624.347</v>
+      </c>
+      <c r="D86">
+        <v>-1740</v>
+      </c>
+      <c r="E86">
+        <v>-0.002</v>
+      </c>
+      <c r="F86">
+        <v>-899460</v>
+      </c>
+      <c r="G86">
+        <v>0.76</v>
+      </c>
+      <c r="H86">
+        <v>-0.242</v>
+      </c>
+      <c r="I86">
+        <v>758408.347</v>
+      </c>
+      <c r="J86">
+        <v>0.758</v>
+      </c>
+      <c r="K86">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87">
+        <v>-0.551</v>
+      </c>
+      <c r="C87">
+        <v>391820.347</v>
+      </c>
+      <c r="D87">
+        <v>-4860</v>
+      </c>
+      <c r="E87">
+        <v>-0.006</v>
+      </c>
+      <c r="F87">
+        <v>-904320</v>
+      </c>
+      <c r="G87">
+        <v>0.758</v>
+      </c>
+      <c r="H87">
+        <v>-0.246</v>
+      </c>
+      <c r="I87">
+        <v>753548.347</v>
+      </c>
+      <c r="J87">
+        <v>0.754</v>
+      </c>
+      <c r="K87">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88">
+        <v>-0.555</v>
+      </c>
+      <c r="C88">
+        <v>386360.347</v>
+      </c>
+      <c r="D88">
+        <v>-3900</v>
+      </c>
+      <c r="E88">
+        <v>-0.005</v>
+      </c>
+      <c r="F88">
+        <v>-908220</v>
+      </c>
+      <c r="G88">
+        <v>0.754</v>
+      </c>
+      <c r="H88">
+        <v>-0.25</v>
+      </c>
+      <c r="I88">
+        <v>749648.347</v>
+      </c>
+      <c r="J88">
+        <v>0.75</v>
+      </c>
+      <c r="K88">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89">
+        <v>-0.55</v>
+      </c>
+      <c r="C89">
+        <v>388124.347</v>
+      </c>
+      <c r="D89">
+        <v>1260</v>
+      </c>
+      <c r="E89">
+        <v>0.002</v>
+      </c>
+      <c r="F89">
+        <v>-906960</v>
+      </c>
+      <c r="G89">
+        <v>0.75</v>
+      </c>
+      <c r="H89">
+        <v>-0.249</v>
+      </c>
+      <c r="I89">
+        <v>750908.347</v>
+      </c>
+      <c r="J89">
+        <v>0.751</v>
+      </c>
+      <c r="K89">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90">
+        <v>-0.547</v>
+      </c>
+      <c r="C90">
+        <v>383252.347</v>
+      </c>
+      <c r="D90">
+        <v>-3480</v>
+      </c>
+      <c r="E90">
+        <v>-0.005</v>
+      </c>
+      <c r="F90">
+        <v>-910440</v>
+      </c>
+      <c r="G90">
+        <v>0.751</v>
+      </c>
+      <c r="H90">
+        <v>-0.253</v>
+      </c>
+      <c r="I90">
+        <v>747428.347</v>
+      </c>
+      <c r="J90">
+        <v>0.747</v>
+      </c>
+      <c r="K90">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91">
+        <v>-0.549</v>
+      </c>
+      <c r="C91">
+        <v>379808.347</v>
+      </c>
+      <c r="D91">
+        <v>-2460</v>
+      </c>
+      <c r="E91">
+        <v>-0.003</v>
+      </c>
+      <c r="F91">
+        <v>-912900</v>
+      </c>
+      <c r="G91">
+        <v>0.747</v>
+      </c>
+      <c r="H91">
+        <v>-0.255</v>
+      </c>
+      <c r="I91">
+        <v>744968.347</v>
+      </c>
+      <c r="J91">
+        <v>0.745</v>
+      </c>
+      <c r="K91">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92">
+        <v>-0.529</v>
+      </c>
+      <c r="C92">
+        <v>394340.347</v>
+      </c>
+      <c r="D92">
+        <v>10380</v>
+      </c>
+      <c r="E92">
+        <v>0.014</v>
+      </c>
+      <c r="F92">
+        <v>-902520</v>
+      </c>
+      <c r="G92">
+        <v>0.745</v>
+      </c>
+      <c r="H92">
+        <v>-0.245</v>
+      </c>
+      <c r="I92">
+        <v>755348.347</v>
+      </c>
+      <c r="J92">
+        <v>0.755</v>
+      </c>
+      <c r="K92">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93">
+        <v>-0.533</v>
+      </c>
+      <c r="C93">
+        <v>389048.347</v>
+      </c>
+      <c r="D93">
+        <v>-3780</v>
+      </c>
+      <c r="E93">
+        <v>-0.005</v>
+      </c>
+      <c r="F93">
+        <v>-906300</v>
+      </c>
+      <c r="G93">
+        <v>0.755</v>
+      </c>
+      <c r="H93">
+        <v>-0.248</v>
+      </c>
+      <c r="I93">
+        <v>751568.347</v>
+      </c>
+      <c r="J93">
+        <v>0.752</v>
+      </c>
+      <c r="K93">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94">
+        <v>-0.538</v>
+      </c>
+      <c r="C94">
+        <v>382328.347</v>
+      </c>
+      <c r="D94">
+        <v>-4800</v>
+      </c>
+      <c r="E94">
+        <v>-0.006</v>
+      </c>
+      <c r="F94">
+        <v>-911100</v>
+      </c>
+      <c r="G94">
+        <v>0.752</v>
+      </c>
+      <c r="H94">
+        <v>-0.253</v>
+      </c>
+      <c r="I94">
+        <v>746768.347</v>
+      </c>
+      <c r="J94">
+        <v>0.747</v>
+      </c>
+      <c r="K94">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B95">
+        <v>-0.534</v>
+      </c>
+      <c r="C95">
+        <v>379304.347</v>
+      </c>
+      <c r="D95">
+        <v>-2160</v>
+      </c>
+      <c r="E95">
+        <v>-0.003</v>
+      </c>
+      <c r="F95">
+        <v>-913260</v>
+      </c>
+      <c r="G95">
+        <v>0.747</v>
+      </c>
+      <c r="H95">
+        <v>-0.255</v>
+      </c>
+      <c r="I95">
+        <v>744608.347</v>
+      </c>
+      <c r="J95">
+        <v>0.745</v>
+      </c>
+      <c r="K95">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B96">
+        <v>-0.522</v>
+      </c>
+      <c r="C96">
+        <v>387536.347</v>
+      </c>
+      <c r="D96">
+        <v>5880</v>
+      </c>
+      <c r="E96">
+        <v>0.008</v>
+      </c>
+      <c r="F96">
+        <v>-907380</v>
+      </c>
+      <c r="G96">
+        <v>0.745</v>
+      </c>
+      <c r="H96">
+        <v>-0.25</v>
+      </c>
+      <c r="I96">
+        <v>750488.347</v>
+      </c>
+      <c r="J96">
+        <v>0.75</v>
+      </c>
+      <c r="K96">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B97">
+        <v>-0.519</v>
+      </c>
+      <c r="C97">
+        <v>387704.347</v>
+      </c>
+      <c r="D97">
+        <v>120</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>-907260</v>
+      </c>
+      <c r="G97">
+        <v>0.75</v>
+      </c>
+      <c r="H97">
+        <v>-0.249</v>
+      </c>
+      <c r="I97">
+        <v>750608.347</v>
+      </c>
+      <c r="J97">
+        <v>0.751</v>
+      </c>
+      <c r="K97">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B98">
+        <v>-0.516</v>
+      </c>
+      <c r="C98">
+        <v>388712.347</v>
+      </c>
+      <c r="D98">
+        <v>720</v>
+      </c>
+      <c r="E98">
+        <v>0.001</v>
+      </c>
+      <c r="F98">
+        <v>-906540</v>
+      </c>
+      <c r="G98">
+        <v>0.751</v>
+      </c>
+      <c r="H98">
+        <v>-0.249</v>
+      </c>
+      <c r="I98">
+        <v>751328.347</v>
+      </c>
+      <c r="J98">
+        <v>0.751</v>
+      </c>
+      <c r="K98">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B99">
+        <v>-0.626</v>
+      </c>
+      <c r="C99">
+        <v>312249.99</v>
+      </c>
+      <c r="D99">
+        <v>-75094.357</v>
+      </c>
+      <c r="E99">
+        <v>-0.1</v>
+      </c>
+      <c r="F99">
+        <v>909960</v>
+      </c>
+      <c r="G99">
+        <v>0.751</v>
+      </c>
+      <c r="H99">
+        <v>-0.324</v>
+      </c>
+      <c r="I99">
+        <v>676233.99</v>
+      </c>
+      <c r="J99">
+        <v>0.676</v>
+      </c>
+      <c r="K99">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100">
+        <v>-0.618</v>
+      </c>
+      <c r="C100">
+        <v>312717.99</v>
+      </c>
+      <c r="D100">
+        <v>780</v>
+      </c>
+      <c r="E100">
+        <v>0.001</v>
+      </c>
+      <c r="F100">
+        <v>910740</v>
+      </c>
+      <c r="G100">
+        <v>0.676</v>
+      </c>
+      <c r="H100">
+        <v>-0.323</v>
+      </c>
+      <c r="I100">
+        <v>677013.99</v>
+      </c>
+      <c r="J100">
+        <v>0.677</v>
+      </c>
+      <c r="K100">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B101">
+        <v>-0.569</v>
+      </c>
+      <c r="C101">
+        <v>331977.99</v>
+      </c>
+      <c r="D101">
+        <v>32100</v>
+      </c>
+      <c r="E101">
+        <v>0.047</v>
+      </c>
+      <c r="F101">
+        <v>942840</v>
+      </c>
+      <c r="G101">
+        <v>0.677</v>
+      </c>
+      <c r="H101">
+        <v>-0.291</v>
+      </c>
+      <c r="I101">
+        <v>709113.99</v>
+      </c>
+      <c r="J101">
+        <v>0.709</v>
+      </c>
+      <c r="K101">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B82">
-        <v>-0.646</v>
-      </c>
-      <c r="C82">
+      <c r="B102">
+        <v>-0.57</v>
+      </c>
+      <c r="C102">
         <v>330717.99</v>
       </c>
-      <c r="D82">
+      <c r="D102">
         <v>-2100</v>
       </c>
-      <c r="E82">
+      <c r="E102">
         <v>-0.003</v>
       </c>
-      <c r="F82">
+      <c r="F102">
         <v>940740</v>
       </c>
-      <c r="G82">
+      <c r="G102">
         <v>0.709</v>
       </c>
-      <c r="H82">
+      <c r="H102">
         <v>-0.293</v>
       </c>
-      <c r="I82">
+      <c r="I102">
         <v>707013.99</v>
       </c>
-      <c r="J82">
+      <c r="J102">
         <v>0.707</v>
       </c>
-      <c r="K82">
+      <c r="K102">
         <v>1000000</v>
       </c>
     </row>
@@ -3922,7 +4682,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3936,25 +4696,25 @@
         <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4026,19 +4786,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>327504</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>818760</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>626246.105</v>
+        <v>1000000</v>
       </c>
       <c r="H4">
-        <v>953750.105</v>
+        <v>1000000</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4055,19 +4815,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>333312</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>833280</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>634958.105</v>
+        <v>1000000</v>
       </c>
       <c r="H5">
-        <v>968270.105</v>
+        <v>1000000</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4084,19 +4844,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>331008</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>827520</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>631502.105</v>
+        <v>1000000</v>
       </c>
       <c r="H6">
-        <v>962510.105</v>
+        <v>1000000</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4113,19 +4873,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>328584</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>821460</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>627866.105</v>
+        <v>1000000</v>
       </c>
       <c r="H7">
-        <v>956450.105</v>
+        <v>1000000</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4142,19 +4902,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>337800</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>844500</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>641690.105</v>
+        <v>1000000</v>
       </c>
       <c r="H8">
-        <v>979490.105</v>
+        <v>1000000</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -4171,19 +4931,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>339480</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>848700</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>644210.105</v>
+        <v>1000000</v>
       </c>
       <c r="H9">
-        <v>983690.105</v>
+        <v>1000000</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -4200,19 +4960,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>340032</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>850080</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>645038.105</v>
+        <v>1000000</v>
       </c>
       <c r="H10">
-        <v>985070.105</v>
+        <v>1000000</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -4229,19 +4989,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>339288</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>848220</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>643922.105</v>
+        <v>1000000</v>
       </c>
       <c r="H11">
-        <v>983210.105</v>
+        <v>1000000</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -4258,19 +5018,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>344904</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>862260</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>652346.105</v>
+        <v>1000000</v>
       </c>
       <c r="H12">
-        <v>997250.105</v>
+        <v>1000000</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -4287,19 +5047,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>339792</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>849480</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>644678.105</v>
+        <v>1000000</v>
       </c>
       <c r="H13">
-        <v>984470.105</v>
+        <v>1000000</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -4316,19 +5076,19 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>340920</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>852300</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>646370.105</v>
+        <v>1000000</v>
       </c>
       <c r="H14">
-        <v>987290.105</v>
+        <v>1000000</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -4345,19 +5105,19 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>324504</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>811260</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>621746.105</v>
+        <v>1000000</v>
       </c>
       <c r="H15">
-        <v>946250.105</v>
+        <v>1000000</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -4374,19 +5134,19 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>326640</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>816600</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>624950.105</v>
+        <v>1000000</v>
       </c>
       <c r="H16">
-        <v>951590.105</v>
+        <v>1000000</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -4403,19 +5163,19 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>314256</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>785640</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>606374.105</v>
+        <v>1000000</v>
       </c>
       <c r="H17">
-        <v>920630.105</v>
+        <v>1000000</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -4432,19 +5192,19 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>325392</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>813480</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>623078.105</v>
+        <v>1000000</v>
       </c>
       <c r="H18">
-        <v>948470.105</v>
+        <v>1000000</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -4461,19 +5221,19 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>340152</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>850380</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>645218.105</v>
+        <v>1000000</v>
       </c>
       <c r="H19">
-        <v>985370.105</v>
+        <v>1000000</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -4490,19 +5250,19 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>340632</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>851580</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>645938.105</v>
+        <v>1000000</v>
       </c>
       <c r="H20">
-        <v>986570.105</v>
+        <v>1000000</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -4519,19 +5279,19 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>343752</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>859380</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>650618.105</v>
+        <v>1000000</v>
       </c>
       <c r="H21">
-        <v>994370.105</v>
+        <v>1000000</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -4548,19 +5308,19 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>348528</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>871320</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>657782.105</v>
+        <v>1000000</v>
       </c>
       <c r="H22">
-        <v>1006310.105</v>
+        <v>1000000</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -4577,19 +5337,19 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>347040</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>867600</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>655550.105</v>
+        <v>1000000</v>
       </c>
       <c r="H23">
-        <v>1002590.105</v>
+        <v>1000000</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -4606,19 +5366,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>342816</v>
+        <v>327504</v>
       </c>
       <c r="E24">
-        <v>857040</v>
+        <v>818760</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>649214.105</v>
+        <v>626246.105</v>
       </c>
       <c r="H24">
-        <v>992030.105</v>
+        <v>953750.105</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -4635,19 +5395,19 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>341952</v>
+        <v>333312</v>
       </c>
       <c r="E25">
-        <v>854880</v>
+        <v>833280</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>647918.105</v>
+        <v>634958.105</v>
       </c>
       <c r="H25">
-        <v>989870.105</v>
+        <v>968270.105</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -4664,19 +5424,19 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>339336</v>
+        <v>331008</v>
       </c>
       <c r="E26">
-        <v>848340</v>
+        <v>827520</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>643994.105</v>
+        <v>631502.105</v>
       </c>
       <c r="H26">
-        <v>983330.105</v>
+        <v>962510.105</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -4693,19 +5453,19 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>348504</v>
+        <v>328584</v>
       </c>
       <c r="E27">
-        <v>871260</v>
+        <v>821460</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>657746.105</v>
+        <v>627866.105</v>
       </c>
       <c r="H27">
-        <v>1006250.105</v>
+        <v>956450.105</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -4722,19 +5482,19 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>345192</v>
+        <v>337800</v>
       </c>
       <c r="E28">
-        <v>862980</v>
+        <v>844500</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>652778.105</v>
+        <v>641690.105</v>
       </c>
       <c r="H28">
-        <v>997970.105</v>
+        <v>979490.105</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -4751,19 +5511,19 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>346896</v>
+        <v>339480</v>
       </c>
       <c r="E29">
-        <v>867240</v>
+        <v>848700</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>655334.105</v>
+        <v>644210.105</v>
       </c>
       <c r="H29">
-        <v>1002230.105</v>
+        <v>983690.105</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -4780,19 +5540,19 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>356184</v>
+        <v>340032</v>
       </c>
       <c r="E30">
-        <v>890460</v>
+        <v>850080</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>669266.105</v>
+        <v>645038.105</v>
       </c>
       <c r="H30">
-        <v>1025450.105</v>
+        <v>985070.105</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -4809,19 +5569,19 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>366312</v>
+        <v>339288</v>
       </c>
       <c r="E31">
-        <v>915780</v>
+        <v>848220</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>684458.105</v>
+        <v>643922.105</v>
       </c>
       <c r="H31">
-        <v>1050770.105</v>
+        <v>983210.105</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -4838,19 +5598,19 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>376560</v>
+        <v>344904</v>
       </c>
       <c r="E32">
-        <v>941400</v>
+        <v>862260</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>699830.105</v>
+        <v>652346.105</v>
       </c>
       <c r="H32">
-        <v>1076390.105</v>
+        <v>997250.105</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -4867,19 +5627,19 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>375264</v>
+        <v>339792</v>
       </c>
       <c r="E33">
-        <v>938160</v>
+        <v>849480</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>697886.105</v>
+        <v>644678.105</v>
       </c>
       <c r="H33">
-        <v>1073150.105</v>
+        <v>984470.105</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -4896,19 +5656,19 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>373536</v>
+        <v>340920</v>
       </c>
       <c r="E34">
-        <v>933840</v>
+        <v>852300</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>695294.105</v>
+        <v>646370.105</v>
       </c>
       <c r="H34">
-        <v>1068830.105</v>
+        <v>987290.105</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -4925,19 +5685,19 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>368352</v>
+        <v>324504</v>
       </c>
       <c r="E35">
-        <v>920880</v>
+        <v>811260</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>687518.105</v>
+        <v>621746.105</v>
       </c>
       <c r="H35">
-        <v>1055870.105</v>
+        <v>946250.105</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -4954,19 +5714,19 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>368184</v>
+        <v>326640</v>
       </c>
       <c r="E36">
-        <v>920460</v>
+        <v>816600</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>687266.105</v>
+        <v>624950.105</v>
       </c>
       <c r="H36">
-        <v>1055450.105</v>
+        <v>951590.105</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -4983,19 +5743,19 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>366144</v>
+        <v>314256</v>
       </c>
       <c r="E37">
-        <v>915360</v>
+        <v>785640</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>684206.105</v>
+        <v>606374.105</v>
       </c>
       <c r="H37">
-        <v>1050350.105</v>
+        <v>920630.105</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -5012,19 +5772,19 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>360552</v>
+        <v>325392</v>
       </c>
       <c r="E38">
-        <v>901380</v>
+        <v>813480</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>675818.105</v>
+        <v>623078.105</v>
       </c>
       <c r="H38">
-        <v>1036370.105</v>
+        <v>948470.105</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -5041,19 +5801,19 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>370248</v>
+        <v>340152</v>
       </c>
       <c r="E39">
-        <v>925620</v>
+        <v>850380</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>690362.105</v>
+        <v>645218.105</v>
       </c>
       <c r="H39">
-        <v>1060610.105</v>
+        <v>985370.105</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -5070,19 +5830,19 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>370992</v>
+        <v>340632</v>
       </c>
       <c r="E40">
-        <v>927480</v>
+        <v>851580</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>691478.105</v>
+        <v>645938.105</v>
       </c>
       <c r="H40">
-        <v>1062470.105</v>
+        <v>986570.105</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -5099,19 +5859,19 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>370824</v>
+        <v>343752</v>
       </c>
       <c r="E41">
-        <v>927060</v>
+        <v>859380</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>691226.105</v>
+        <v>650618.105</v>
       </c>
       <c r="H41">
-        <v>1062050.105</v>
+        <v>994370.105</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -5128,19 +5888,19 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>377664</v>
+        <v>348528</v>
       </c>
       <c r="E42">
-        <v>944160</v>
+        <v>871320</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>701486.105</v>
+        <v>657782.105</v>
       </c>
       <c r="H42">
-        <v>1079150.105</v>
+        <v>1006310.105</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -5157,19 +5917,19 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>376344</v>
+        <v>347040</v>
       </c>
       <c r="E43">
-        <v>940860</v>
+        <v>867600</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>699506.105</v>
+        <v>655550.105</v>
       </c>
       <c r="H43">
-        <v>1075850.105</v>
+        <v>1002590.105</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -5186,19 +5946,19 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>373008</v>
+        <v>342816</v>
       </c>
       <c r="E44">
-        <v>-932520</v>
+        <v>857040</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>575255.83</v>
+        <v>649214.105</v>
       </c>
       <c r="H44">
-        <v>948263.83</v>
+        <v>992030.105</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -5215,19 +5975,19 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>367488</v>
+        <v>341952</v>
       </c>
       <c r="E45">
-        <v>-918720</v>
+        <v>854880</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>594575.83</v>
+        <v>647918.105</v>
       </c>
       <c r="H45">
-        <v>962063.83</v>
+        <v>989870.105</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -5244,19 +6004,19 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>376128</v>
+        <v>339336</v>
       </c>
       <c r="E46">
-        <v>-940320</v>
+        <v>848340</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>564335.83</v>
+        <v>643994.105</v>
       </c>
       <c r="H46">
-        <v>940463.83</v>
+        <v>983330.105</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -5273,19 +6033,19 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>373104</v>
+        <v>348504</v>
       </c>
       <c r="E47">
-        <v>-932760</v>
+        <v>871260</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>574919.83</v>
+        <v>657746.105</v>
       </c>
       <c r="H47">
-        <v>948023.83</v>
+        <v>1006250.105</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -5302,19 +6062,19 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>382872</v>
+        <v>345192</v>
       </c>
       <c r="E48">
-        <v>-957180</v>
+        <v>862980</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>540731.83</v>
+        <v>652778.105</v>
       </c>
       <c r="H48">
-        <v>923603.83</v>
+        <v>997970.105</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -5331,19 +6091,19 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>382392</v>
+        <v>346896</v>
       </c>
       <c r="E49">
-        <v>955980</v>
+        <v>867240</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>462685.578</v>
+        <v>655334.105</v>
       </c>
       <c r="H49">
-        <v>845077.578</v>
+        <v>1002230.105</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -5360,19 +6120,19 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>382368</v>
+        <v>356184</v>
       </c>
       <c r="E50">
-        <v>955920</v>
+        <v>890460</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>462649.578</v>
+        <v>669266.105</v>
       </c>
       <c r="H50">
-        <v>845017.578</v>
+        <v>1025450.105</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -5389,19 +6149,19 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>377760</v>
+        <v>366312</v>
       </c>
       <c r="E51">
-        <v>-944400</v>
+        <v>915780</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>335708.347</v>
+        <v>684458.105</v>
       </c>
       <c r="H51">
-        <v>713468.347</v>
+        <v>1050770.105</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -5418,19 +6178,19 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>377568</v>
+        <v>376560</v>
       </c>
       <c r="E52">
-        <v>-943920</v>
+        <v>941400</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>336380.347</v>
+        <v>699830.105</v>
       </c>
       <c r="H52">
-        <v>713948.347</v>
+        <v>1076390.105</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -5447,19 +6207,19 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>367368</v>
+        <v>375264</v>
       </c>
       <c r="E53">
-        <v>-918420</v>
+        <v>938160</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>372080.347</v>
+        <v>697886.105</v>
       </c>
       <c r="H53">
-        <v>739448.347</v>
+        <v>1073150.105</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -5476,19 +6236,19 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>371376</v>
+        <v>373536</v>
       </c>
       <c r="E54">
-        <v>-928440</v>
+        <v>933840</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>358052.347</v>
+        <v>695294.105</v>
       </c>
       <c r="H54">
-        <v>729428.347</v>
+        <v>1068830.105</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -5505,19 +6265,19 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>371424</v>
+        <v>368352</v>
       </c>
       <c r="E55">
-        <v>-928560</v>
+        <v>920880</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>357884.347</v>
+        <v>687518.105</v>
       </c>
       <c r="H55">
-        <v>729308.347</v>
+        <v>1055870.105</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -5534,19 +6294,19 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>369960</v>
+        <v>368184</v>
       </c>
       <c r="E56">
-        <v>-924900</v>
+        <v>920460</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>363008.347</v>
+        <v>687266.105</v>
       </c>
       <c r="H56">
-        <v>732968.347</v>
+        <v>1055450.105</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -5563,19 +6323,19 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>370464</v>
+        <v>366144</v>
       </c>
       <c r="E57">
-        <v>-926160</v>
+        <v>915360</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>361244.347</v>
+        <v>684206.105</v>
       </c>
       <c r="H57">
-        <v>731708.347</v>
+        <v>1050350.105</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -5592,19 +6352,19 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>370320</v>
+        <v>360552</v>
       </c>
       <c r="E58">
-        <v>-925800</v>
+        <v>901380</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>361748.347</v>
+        <v>675818.105</v>
       </c>
       <c r="H58">
-        <v>732068.347</v>
+        <v>1036370.105</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -5621,19 +6381,19 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>369336</v>
+        <v>370248</v>
       </c>
       <c r="E59">
-        <v>-923340</v>
+        <v>925620</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>365192.347</v>
+        <v>690362.105</v>
       </c>
       <c r="H59">
-        <v>734528.347</v>
+        <v>1060610.105</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -5650,19 +6410,19 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>370872</v>
+        <v>370992</v>
       </c>
       <c r="E60">
-        <v>-927180</v>
+        <v>927480</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>359816.347</v>
+        <v>691478.105</v>
       </c>
       <c r="H60">
-        <v>730688.347</v>
+        <v>1062470.105</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -5679,19 +6439,19 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>377616</v>
+        <v>370824</v>
       </c>
       <c r="E61">
-        <v>-944040</v>
+        <v>927060</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>336212.347</v>
+        <v>691226.105</v>
       </c>
       <c r="H61">
-        <v>713828.347</v>
+        <v>1062050.105</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -5708,19 +6468,19 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>377424</v>
+        <v>377664</v>
       </c>
       <c r="E62">
-        <v>-943560</v>
+        <v>944160</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>336884.347</v>
+        <v>701486.105</v>
       </c>
       <c r="H62">
-        <v>714308.347</v>
+        <v>1079150.105</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -5737,19 +6497,19 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>377208</v>
+        <v>376344</v>
       </c>
       <c r="E63">
-        <v>-943020</v>
+        <v>940860</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>337640.347</v>
+        <v>699506.105</v>
       </c>
       <c r="H63">
-        <v>714848.347</v>
+        <v>1075850.105</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -5766,19 +6526,19 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>368736</v>
+        <v>373008</v>
       </c>
       <c r="E64">
-        <v>-921840</v>
+        <v>-932520</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>367292.347</v>
+        <v>575255.83</v>
       </c>
       <c r="H64">
-        <v>736028.347</v>
+        <v>948263.83</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -5795,19 +6555,19 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>359088</v>
+        <v>367488</v>
       </c>
       <c r="E65">
-        <v>-897720</v>
+        <v>-918720</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>401060.347</v>
+        <v>594575.83</v>
       </c>
       <c r="H65">
-        <v>760148.347</v>
+        <v>962063.83</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -5824,19 +6584,19 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>359784</v>
+        <v>376128</v>
       </c>
       <c r="E66">
-        <v>-899460</v>
+        <v>-940320</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>398624.347</v>
+        <v>564335.83</v>
       </c>
       <c r="H66">
-        <v>758408.347</v>
+        <v>940463.83</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -5853,19 +6613,19 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>361728</v>
+        <v>373104</v>
       </c>
       <c r="E67">
-        <v>-904320</v>
+        <v>-932760</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>391820.347</v>
+        <v>574919.83</v>
       </c>
       <c r="H67">
-        <v>753548.347</v>
+        <v>948023.83</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -5882,19 +6642,19 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>363288</v>
+        <v>382872</v>
       </c>
       <c r="E68">
-        <v>-908220</v>
+        <v>-957180</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>386360.347</v>
+        <v>540731.83</v>
       </c>
       <c r="H68">
-        <v>749648.347</v>
+        <v>923603.83</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -5911,19 +6671,19 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>362784</v>
+        <v>382392</v>
       </c>
       <c r="E69">
-        <v>-906960</v>
+        <v>955980</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>388124.347</v>
+        <v>462685.578</v>
       </c>
       <c r="H69">
-        <v>750908.347</v>
+        <v>845077.578</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -5940,19 +6700,19 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>364176</v>
+        <v>382368</v>
       </c>
       <c r="E70">
-        <v>-910440</v>
+        <v>955920</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>383252.347</v>
+        <v>462649.578</v>
       </c>
       <c r="H70">
-        <v>747428.347</v>
+        <v>845017.578</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -5969,19 +6729,19 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>365160</v>
+        <v>377760</v>
       </c>
       <c r="E71">
-        <v>-912900</v>
+        <v>-944400</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>379808.347</v>
+        <v>335708.347</v>
       </c>
       <c r="H71">
-        <v>744968.347</v>
+        <v>713468.347</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -5998,19 +6758,19 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>361008</v>
+        <v>377568</v>
       </c>
       <c r="E72">
-        <v>-902520</v>
+        <v>-943920</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>394340.347</v>
+        <v>336380.347</v>
       </c>
       <c r="H72">
-        <v>755348.347</v>
+        <v>713948.347</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6027,19 +6787,19 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>362520</v>
+        <v>367368</v>
       </c>
       <c r="E73">
-        <v>-906300</v>
+        <v>-918420</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>389048.347</v>
+        <v>372080.347</v>
       </c>
       <c r="H73">
-        <v>751568.347</v>
+        <v>739448.347</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -6056,19 +6816,19 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>364440</v>
+        <v>371376</v>
       </c>
       <c r="E74">
-        <v>-911100</v>
+        <v>-928440</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>382328.347</v>
+        <v>358052.347</v>
       </c>
       <c r="H74">
-        <v>746768.347</v>
+        <v>729428.347</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -6085,19 +6845,19 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>365304</v>
+        <v>371424</v>
       </c>
       <c r="E75">
-        <v>-913260</v>
+        <v>-928560</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>379304.347</v>
+        <v>357884.347</v>
       </c>
       <c r="H75">
-        <v>744608.347</v>
+        <v>729308.347</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -6114,19 +6874,19 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>362952</v>
+        <v>369960</v>
       </c>
       <c r="E76">
-        <v>-907380</v>
+        <v>-924900</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>387536.347</v>
+        <v>363008.347</v>
       </c>
       <c r="H76">
-        <v>750488.347</v>
+        <v>732968.347</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -6143,19 +6903,19 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>362904</v>
+        <v>370464</v>
       </c>
       <c r="E77">
-        <v>-907260</v>
+        <v>-926160</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>387704.347</v>
+        <v>361244.347</v>
       </c>
       <c r="H77">
-        <v>750608.347</v>
+        <v>731708.347</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -6172,19 +6932,19 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>362616</v>
+        <v>370320</v>
       </c>
       <c r="E78">
-        <v>-906540</v>
+        <v>-925800</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>388712.347</v>
+        <v>361748.347</v>
       </c>
       <c r="H78">
-        <v>751328.347</v>
+        <v>732068.347</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -6201,19 +6961,19 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>363984</v>
+        <v>369336</v>
       </c>
       <c r="E79">
-        <v>909960</v>
+        <v>-923340</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>312249.99</v>
+        <v>365192.347</v>
       </c>
       <c r="H79">
-        <v>676233.99</v>
+        <v>734528.347</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -6230,19 +6990,19 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>364296</v>
+        <v>370872</v>
       </c>
       <c r="E80">
-        <v>910740</v>
+        <v>-927180</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>312717.99</v>
+        <v>359816.347</v>
       </c>
       <c r="H80">
-        <v>677013.99</v>
+        <v>730688.347</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -6259,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>377136</v>
+        <v>377616</v>
       </c>
       <c r="E81">
-        <v>942840</v>
+        <v>-944040</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>331977.99</v>
+        <v>336212.347</v>
       </c>
       <c r="H81">
-        <v>709113.99</v>
+        <v>713828.347</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -6279,30 +7039,610 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>377424</v>
+      </c>
+      <c r="E82">
+        <v>-943560</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>336884.347</v>
+      </c>
+      <c r="H82">
+        <v>714308.347</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>377208</v>
+      </c>
+      <c r="E83">
+        <v>-943020</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>337640.347</v>
+      </c>
+      <c r="H83">
+        <v>714848.347</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>368736</v>
+      </c>
+      <c r="E84">
+        <v>-921840</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>367292.347</v>
+      </c>
+      <c r="H84">
+        <v>736028.347</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>359088</v>
+      </c>
+      <c r="E85">
+        <v>-897720</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>401060.347</v>
+      </c>
+      <c r="H85">
+        <v>760148.347</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>359784</v>
+      </c>
+      <c r="E86">
+        <v>-899460</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>398624.347</v>
+      </c>
+      <c r="H86">
+        <v>758408.347</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>361728</v>
+      </c>
+      <c r="E87">
+        <v>-904320</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>391820.347</v>
+      </c>
+      <c r="H87">
+        <v>753548.347</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>363288</v>
+      </c>
+      <c r="E88">
+        <v>-908220</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>386360.347</v>
+      </c>
+      <c r="H88">
+        <v>749648.347</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>362784</v>
+      </c>
+      <c r="E89">
+        <v>-906960</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>388124.347</v>
+      </c>
+      <c r="H89">
+        <v>750908.347</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>364176</v>
+      </c>
+      <c r="E90">
+        <v>-910440</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>383252.347</v>
+      </c>
+      <c r="H90">
+        <v>747428.347</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>365160</v>
+      </c>
+      <c r="E91">
+        <v>-912900</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>379808.347</v>
+      </c>
+      <c r="H91">
+        <v>744968.347</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>361008</v>
+      </c>
+      <c r="E92">
+        <v>-902520</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>394340.347</v>
+      </c>
+      <c r="H92">
+        <v>755348.347</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>362520</v>
+      </c>
+      <c r="E93">
+        <v>-906300</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>389048.347</v>
+      </c>
+      <c r="H93">
+        <v>751568.347</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>364440</v>
+      </c>
+      <c r="E94">
+        <v>-911100</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>382328.347</v>
+      </c>
+      <c r="H94">
+        <v>746768.347</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>365304</v>
+      </c>
+      <c r="E95">
+        <v>-913260</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>379304.347</v>
+      </c>
+      <c r="H95">
+        <v>744608.347</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>362952</v>
+      </c>
+      <c r="E96">
+        <v>-907380</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>387536.347</v>
+      </c>
+      <c r="H96">
+        <v>750488.347</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>362904</v>
+      </c>
+      <c r="E97">
+        <v>-907260</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>387704.347</v>
+      </c>
+      <c r="H97">
+        <v>750608.347</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>362616</v>
+      </c>
+      <c r="E98">
+        <v>-906540</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>388712.347</v>
+      </c>
+      <c r="H98">
+        <v>751328.347</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>363984</v>
+      </c>
+      <c r="E99">
+        <v>909960</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>312249.99</v>
+      </c>
+      <c r="H99">
+        <v>676233.99</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>364296</v>
+      </c>
+      <c r="E100">
+        <v>910740</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>312717.99</v>
+      </c>
+      <c r="H100">
+        <v>677013.99</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>377136</v>
+      </c>
+      <c r="E101">
+        <v>942840</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>331977.99</v>
+      </c>
+      <c r="H101">
+        <v>709113.99</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
         <v>376296</v>
       </c>
-      <c r="E82">
+      <c r="E102">
         <v>940740</v>
       </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
         <v>330717.99</v>
       </c>
-      <c r="H82">
+      <c r="H102">
         <v>707013.99</v>
       </c>
-      <c r="I82">
+      <c r="I102">
         <v>0</v>
       </c>
     </row>
@@ -6324,72 +7664,72 @@
         <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>2729.2</v>
@@ -6425,7 +7765,7 @@
         <v>818760</v>
       </c>
       <c r="M2" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N2">
         <v>-46230</v>
@@ -6452,12 +7792,12 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>2777.6</v>
@@ -6493,7 +7833,7 @@
         <v>833280</v>
       </c>
       <c r="M3" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N3">
         <v>-31710</v>
@@ -6520,12 +7860,12 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>2758.4</v>
@@ -6561,7 +7901,7 @@
         <v>827520</v>
       </c>
       <c r="M4" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N4">
         <v>-37470</v>
@@ -6588,12 +7928,12 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>2738.2</v>
@@ -6629,7 +7969,7 @@
         <v>821460</v>
       </c>
       <c r="M5" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N5">
         <v>-43530</v>
@@ -6656,12 +7996,12 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>2815</v>
@@ -6697,7 +8037,7 @@
         <v>844500</v>
       </c>
       <c r="M6" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N6">
         <v>-20490</v>
@@ -6724,12 +8064,12 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>2829</v>
@@ -6765,7 +8105,7 @@
         <v>848700</v>
       </c>
       <c r="M7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N7">
         <v>-16290</v>
@@ -6792,12 +8132,12 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B8">
         <v>2833.6</v>
@@ -6833,7 +8173,7 @@
         <v>850080</v>
       </c>
       <c r="M8" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N8">
         <v>-14910</v>
@@ -6860,12 +8200,12 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B9">
         <v>2827.4</v>
@@ -6901,7 +8241,7 @@
         <v>848220</v>
       </c>
       <c r="M9" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N9">
         <v>-16770</v>
@@ -6928,12 +8268,12 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B10">
         <v>2874.2</v>
@@ -6969,7 +8309,7 @@
         <v>862260</v>
       </c>
       <c r="M10" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N10">
         <v>-2730</v>
@@ -6996,12 +8336,12 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B11">
         <v>2831.6</v>
@@ -7037,7 +8377,7 @@
         <v>849480</v>
       </c>
       <c r="M11" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N11">
         <v>-15510</v>
@@ -7064,12 +8404,12 @@
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B12">
         <v>2841</v>
@@ -7105,7 +8445,7 @@
         <v>852300</v>
       </c>
       <c r="M12" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N12">
         <v>-12690</v>
@@ -7132,12 +8472,12 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B13">
         <v>2704.2</v>
@@ -7173,7 +8513,7 @@
         <v>811260</v>
       </c>
       <c r="M13" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N13">
         <v>-53730</v>
@@ -7200,12 +8540,12 @@
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B14">
         <v>2722</v>
@@ -7241,7 +8581,7 @@
         <v>816600</v>
       </c>
       <c r="M14" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N14">
         <v>-48390</v>
@@ -7268,12 +8608,12 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B15">
         <v>2618.8</v>
@@ -7309,7 +8649,7 @@
         <v>785640</v>
       </c>
       <c r="M15" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N15">
         <v>-79350</v>
@@ -7336,12 +8676,12 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B16">
         <v>2711.6</v>
@@ -7377,7 +8717,7 @@
         <v>813480</v>
       </c>
       <c r="M16" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N16">
         <v>-51510</v>
@@ -7404,12 +8744,12 @@
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B17">
         <v>2834.6</v>
@@ -7445,7 +8785,7 @@
         <v>850380</v>
       </c>
       <c r="M17" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N17">
         <v>-14610</v>
@@ -7472,12 +8812,12 @@
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B18">
         <v>2838.6</v>
@@ -7513,7 +8853,7 @@
         <v>851580</v>
       </c>
       <c r="M18" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N18">
         <v>-13410</v>
@@ -7540,12 +8880,12 @@
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B19">
         <v>2864.6</v>
@@ -7581,7 +8921,7 @@
         <v>859380</v>
       </c>
       <c r="M19" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N19">
         <v>-5610</v>
@@ -7608,12 +8948,12 @@
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B20">
         <v>2904.4</v>
@@ -7649,7 +8989,7 @@
         <v>871320</v>
       </c>
       <c r="M20" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N20">
         <v>6330</v>
@@ -7676,12 +9016,12 @@
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B21">
         <v>2892</v>
@@ -7717,7 +9057,7 @@
         <v>867600</v>
       </c>
       <c r="M21" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N21">
         <v>2610</v>
@@ -7744,12 +9084,12 @@
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B22">
         <v>2856.8</v>
@@ -7785,7 +9125,7 @@
         <v>857040</v>
       </c>
       <c r="M22" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N22">
         <v>-7950</v>
@@ -7812,12 +9152,12 @@
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B23">
         <v>2849.6</v>
@@ -7853,7 +9193,7 @@
         <v>854880</v>
       </c>
       <c r="M23" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N23">
         <v>-10110</v>
@@ -7880,12 +9220,12 @@
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B24">
         <v>2827.8</v>
@@ -7921,7 +9261,7 @@
         <v>848340</v>
       </c>
       <c r="M24" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N24">
         <v>-16650</v>
@@ -7948,12 +9288,12 @@
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B25">
         <v>2904.2</v>
@@ -7989,7 +9329,7 @@
         <v>871260</v>
       </c>
       <c r="M25" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N25">
         <v>6270</v>
@@ -8016,12 +9356,12 @@
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B26">
         <v>2876.6</v>
@@ -8057,7 +9397,7 @@
         <v>862980</v>
       </c>
       <c r="M26" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N26">
         <v>-2010</v>
@@ -8084,12 +9424,12 @@
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B27">
         <v>2890.8</v>
@@ -8125,7 +9465,7 @@
         <v>867240</v>
       </c>
       <c r="M27" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N27">
         <v>2250</v>
@@ -8152,12 +9492,12 @@
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B28">
         <v>2968.2</v>
@@ -8193,7 +9533,7 @@
         <v>890460</v>
       </c>
       <c r="M28" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N28">
         <v>25470</v>
@@ -8220,12 +9560,12 @@
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B29">
         <v>3052.6</v>
@@ -8261,7 +9601,7 @@
         <v>915780</v>
       </c>
       <c r="M29" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N29">
         <v>50790</v>
@@ -8288,12 +9628,12 @@
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B30">
         <v>3138</v>
@@ -8329,7 +9669,7 @@
         <v>941400</v>
       </c>
       <c r="M30" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N30">
         <v>76410</v>
@@ -8356,12 +9696,12 @@
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B31">
         <v>3127.2</v>
@@ -8397,7 +9737,7 @@
         <v>938160</v>
       </c>
       <c r="M31" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N31">
         <v>73170</v>
@@ -8424,12 +9764,12 @@
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B32">
         <v>3112.8</v>
@@ -8465,7 +9805,7 @@
         <v>933840</v>
       </c>
       <c r="M32" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N32">
         <v>68850</v>
@@ -8492,12 +9832,12 @@
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B33">
         <v>3069.6</v>
@@ -8533,7 +9873,7 @@
         <v>920880</v>
       </c>
       <c r="M33" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N33">
         <v>55890</v>
@@ -8560,12 +9900,12 @@
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B34">
         <v>3068.2</v>
@@ -8601,7 +9941,7 @@
         <v>920460</v>
       </c>
       <c r="M34" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N34">
         <v>55470</v>
@@ -8628,12 +9968,12 @@
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B35">
         <v>3051.2</v>
@@ -8669,7 +10009,7 @@
         <v>915360</v>
       </c>
       <c r="M35" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N35">
         <v>50370</v>
@@ -8696,12 +10036,12 @@
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B36">
         <v>3004.6</v>
@@ -8737,7 +10077,7 @@
         <v>901380</v>
       </c>
       <c r="M36" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N36">
         <v>36390</v>
@@ -8764,12 +10104,12 @@
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B37">
         <v>3085.4</v>
@@ -8805,7 +10145,7 @@
         <v>925620</v>
       </c>
       <c r="M37" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N37">
         <v>60630</v>
@@ -8832,12 +10172,12 @@
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B38">
         <v>3091.6</v>
@@ -8873,7 +10213,7 @@
         <v>927480</v>
       </c>
       <c r="M38" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N38">
         <v>62490</v>
@@ -8900,12 +10240,12 @@
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B39">
         <v>3090.2</v>
@@ -8941,7 +10281,7 @@
         <v>927060</v>
       </c>
       <c r="M39" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N39">
         <v>62070</v>
@@ -8968,12 +10308,12 @@
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B40">
         <v>3147.2</v>
@@ -9009,7 +10349,7 @@
         <v>944160</v>
       </c>
       <c r="M40" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N40">
         <v>79170</v>
@@ -9036,12 +10376,12 @@
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B41">
         <v>3136.2</v>
@@ -9077,7 +10417,7 @@
         <v>940860</v>
       </c>
       <c r="M41" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N41">
         <v>75870</v>
@@ -9104,12 +10444,12 @@
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="1" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -9145,7 +10485,7 @@
         <v>-932520</v>
       </c>
       <c r="M42" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N42">
         <v>-48279</v>
@@ -9172,12 +10512,12 @@
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -9213,7 +10553,7 @@
         <v>-918720</v>
       </c>
       <c r="M43" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N43">
         <v>-34479</v>
@@ -9240,12 +10580,12 @@
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -9281,7 +10621,7 @@
         <v>-940320</v>
       </c>
       <c r="M44" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N44">
         <v>-56079</v>
@@ -9308,12 +10648,12 @@
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -9349,7 +10689,7 @@
         <v>-932760</v>
       </c>
       <c r="M45" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N45">
         <v>-48519</v>
@@ -9376,12 +10716,12 @@
         <v>0</v>
       </c>
       <c r="V45" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:22">
       <c r="A46" s="1" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -9417,7 +10757,7 @@
         <v>-957180</v>
       </c>
       <c r="M46" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N46">
         <v>-72939</v>
@@ -9444,12 +10784,12 @@
         <v>0</v>
       </c>
       <c r="V46" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="1" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B47">
         <v>3186.6</v>
@@ -9485,7 +10825,7 @@
         <v>955980</v>
       </c>
       <c r="M47" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N47">
         <v>-49500</v>
@@ -9512,12 +10852,12 @@
         <v>0</v>
       </c>
       <c r="V47" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="1" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B48">
         <v>3186.4</v>
@@ -9553,7 +10893,7 @@
         <v>955920</v>
       </c>
       <c r="M48" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N48">
         <v>-49560</v>
@@ -9580,12 +10920,12 @@
         <v>0</v>
       </c>
       <c r="V48" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -9621,7 +10961,7 @@
         <v>-944400</v>
       </c>
       <c r="M49" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N49">
         <v>-48075</v>
@@ -9648,12 +10988,12 @@
         <v>0</v>
       </c>
       <c r="V49" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -9689,7 +11029,7 @@
         <v>-943920</v>
       </c>
       <c r="M50" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N50">
         <v>-47595</v>
@@ -9716,12 +11056,12 @@
         <v>0</v>
       </c>
       <c r="V50" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -9757,7 +11097,7 @@
         <v>-918420</v>
       </c>
       <c r="M51" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N51">
         <v>-22095</v>
@@ -9784,12 +11124,12 @@
         <v>0</v>
       </c>
       <c r="V51" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -9825,7 +11165,7 @@
         <v>-928440</v>
       </c>
       <c r="M52" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N52">
         <v>-32115</v>
@@ -9852,12 +11192,12 @@
         <v>0</v>
       </c>
       <c r="V52" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -9893,7 +11233,7 @@
         <v>-928560</v>
       </c>
       <c r="M53" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N53">
         <v>-32235</v>
@@ -9920,12 +11260,12 @@
         <v>0</v>
       </c>
       <c r="V53" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -9961,7 +11301,7 @@
         <v>-924900</v>
       </c>
       <c r="M54" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N54">
         <v>-28575</v>
@@ -9988,12 +11328,12 @@
         <v>0</v>
       </c>
       <c r="V54" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="1" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -10029,7 +11369,7 @@
         <v>-926160</v>
       </c>
       <c r="M55" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N55">
         <v>-29835</v>
@@ -10056,12 +11396,12 @@
         <v>0</v>
       </c>
       <c r="V55" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -10097,7 +11437,7 @@
         <v>-925800</v>
       </c>
       <c r="M56" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N56">
         <v>-29475</v>
@@ -10124,12 +11464,12 @@
         <v>0</v>
       </c>
       <c r="V56" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="1" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -10165,7 +11505,7 @@
         <v>-923340</v>
       </c>
       <c r="M57" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N57">
         <v>-27015</v>
@@ -10192,12 +11532,12 @@
         <v>0</v>
       </c>
       <c r="V57" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="1" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -10233,7 +11573,7 @@
         <v>-927180</v>
       </c>
       <c r="M58" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N58">
         <v>-30855</v>
@@ -10260,12 +11600,12 @@
         <v>0</v>
       </c>
       <c r="V58" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="1" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -10301,7 +11641,7 @@
         <v>-944040</v>
       </c>
       <c r="M59" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N59">
         <v>-47715</v>
@@ -10328,12 +11668,12 @@
         <v>0</v>
       </c>
       <c r="V59" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="1" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -10369,7 +11709,7 @@
         <v>-943560</v>
       </c>
       <c r="M60" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N60">
         <v>-47235</v>
@@ -10396,12 +11736,12 @@
         <v>0</v>
       </c>
       <c r="V60" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -10437,7 +11777,7 @@
         <v>-943020</v>
       </c>
       <c r="M61" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N61">
         <v>-46695</v>
@@ -10464,12 +11804,12 @@
         <v>0</v>
       </c>
       <c r="V61" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="1" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -10505,7 +11845,7 @@
         <v>-921840</v>
       </c>
       <c r="M62" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N62">
         <v>-25515</v>
@@ -10532,12 +11872,12 @@
         <v>0</v>
       </c>
       <c r="V62" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -10573,7 +11913,7 @@
         <v>-897720</v>
       </c>
       <c r="M63" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N63">
         <v>-1395</v>
@@ -10600,12 +11940,12 @@
         <v>0</v>
       </c>
       <c r="V63" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="1" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -10641,7 +11981,7 @@
         <v>-899460</v>
       </c>
       <c r="M64" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N64">
         <v>-3135</v>
@@ -10668,12 +12008,12 @@
         <v>0</v>
       </c>
       <c r="V64" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="1" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -10709,7 +12049,7 @@
         <v>-904320</v>
       </c>
       <c r="M65" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N65">
         <v>-7995</v>
@@ -10736,12 +12076,12 @@
         <v>0</v>
       </c>
       <c r="V65" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="1" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -10777,7 +12117,7 @@
         <v>-908220</v>
       </c>
       <c r="M66" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N66">
         <v>-11895</v>
@@ -10804,12 +12144,12 @@
         <v>0</v>
       </c>
       <c r="V66" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="1" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -10845,7 +12185,7 @@
         <v>-906960</v>
       </c>
       <c r="M67" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N67">
         <v>-10635</v>
@@ -10872,12 +12212,12 @@
         <v>0</v>
       </c>
       <c r="V67" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="1" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -10913,7 +12253,7 @@
         <v>-910440</v>
       </c>
       <c r="M68" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N68">
         <v>-14115</v>
@@ -10940,12 +12280,12 @@
         <v>0</v>
       </c>
       <c r="V68" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -10981,7 +12321,7 @@
         <v>-912900</v>
       </c>
       <c r="M69" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N69">
         <v>-16575</v>
@@ -11008,12 +12348,12 @@
         <v>0</v>
       </c>
       <c r="V69" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="1" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -11049,7 +12389,7 @@
         <v>-902520</v>
       </c>
       <c r="M70" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N70">
         <v>-6195</v>
@@ -11076,12 +12416,12 @@
         <v>0</v>
       </c>
       <c r="V70" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -11117,7 +12457,7 @@
         <v>-906300</v>
       </c>
       <c r="M71" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N71">
         <v>-9975</v>
@@ -11144,12 +12484,12 @@
         <v>0</v>
       </c>
       <c r="V71" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -11185,7 +12525,7 @@
         <v>-911100</v>
       </c>
       <c r="M72" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N72">
         <v>-14775</v>
@@ -11212,12 +12552,12 @@
         <v>0</v>
       </c>
       <c r="V72" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -11253,7 +12593,7 @@
         <v>-913260</v>
       </c>
       <c r="M73" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N73">
         <v>-16935</v>
@@ -11280,12 +12620,12 @@
         <v>0</v>
       </c>
       <c r="V73" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="1" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -11321,7 +12661,7 @@
         <v>-907380</v>
       </c>
       <c r="M74" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N74">
         <v>-11055</v>
@@ -11348,12 +12688,12 @@
         <v>0</v>
       </c>
       <c r="V74" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -11389,7 +12729,7 @@
         <v>-907260</v>
       </c>
       <c r="M75" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N75">
         <v>-10935</v>
@@ -11416,12 +12756,12 @@
         <v>0</v>
       </c>
       <c r="V75" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -11457,7 +12797,7 @@
         <v>-906540</v>
       </c>
       <c r="M76" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N76">
         <v>-10215</v>
@@ -11484,12 +12824,12 @@
         <v>0</v>
       </c>
       <c r="V76" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="1" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B77">
         <v>3033.2</v>
@@ -11525,7 +12865,7 @@
         <v>909960</v>
       </c>
       <c r="M77" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N77">
         <v>-45624</v>
@@ -11552,12 +12892,12 @@
         <v>0</v>
       </c>
       <c r="V77" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:22">
       <c r="A78" s="1" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B78">
         <v>3035.8</v>
@@ -11593,7 +12933,7 @@
         <v>910740</v>
       </c>
       <c r="M78" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N78">
         <v>-44844</v>
@@ -11620,12 +12960,12 @@
         <v>0</v>
       </c>
       <c r="V78" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:22">
       <c r="A79" s="1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B79">
         <v>3142.8</v>
@@ -11661,7 +13001,7 @@
         <v>942840</v>
       </c>
       <c r="M79" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N79">
         <v>-12744</v>
@@ -11688,7 +13028,7 @@
         <v>0</v>
       </c>
       <c r="V79" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:22">
@@ -11729,7 +13069,7 @@
         <v>940740</v>
       </c>
       <c r="M80" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N80">
         <v>-14844</v>
@@ -11756,7 +13096,7 @@
         <v>0</v>
       </c>
       <c r="V80" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -11774,54 +13114,54 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="B2">
         <v>19.89477</v>
       </c>
       <c r="C2">
-        <v>1492265567</v>
+        <v>1495457720</v>
       </c>
       <c r="D2">
         <v>2883.3</v>
@@ -11830,25 +13170,25 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="G2">
-        <v>1492265525</v>
+        <v>1495457699</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I2" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="J2" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="M2">
         <v>19.89477</v>
@@ -11856,13 +13196,13 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="B3">
         <v>20.337543</v>
       </c>
       <c r="C3">
-        <v>1492265568</v>
+        <v>1495457721</v>
       </c>
       <c r="D3">
         <v>2947.47</v>
@@ -11871,25 +13211,25 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="G3">
-        <v>1492265526</v>
+        <v>1495457700</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="I3" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="J3" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="M3">
         <v>20.337543</v>
@@ -11897,13 +13237,13 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="B4">
         <v>20.337543</v>
       </c>
       <c r="C4">
-        <v>1492265569</v>
+        <v>1495457722</v>
       </c>
       <c r="D4">
         <v>2947.47</v>
@@ -11912,25 +13252,25 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="G4">
-        <v>1492265527</v>
+        <v>1495457701</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I4" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="J4" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="M4">
         <v>20.337543</v>
@@ -11938,13 +13278,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="B5">
         <v>23.12604</v>
       </c>
       <c r="C5">
-        <v>1492265570</v>
+        <v>1495457723</v>
       </c>
       <c r="D5">
         <v>3351.6</v>
@@ -11953,25 +13293,25 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="G5">
-        <v>1492265528</v>
+        <v>1495457702</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="I5" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="J5" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="M5">
         <v>23.12604</v>
@@ -11979,13 +13319,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="B6">
         <v>23.12604</v>
       </c>
       <c r="C6">
-        <v>1492265571</v>
+        <v>1495457724</v>
       </c>
       <c r="D6">
         <v>3351.6</v>
@@ -11994,25 +13334,25 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="G6">
-        <v>1492265529</v>
+        <v>1495457703</v>
       </c>
       <c r="H6" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I6" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="J6" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="M6">
         <v>23.12604</v>
@@ -12020,13 +13360,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="B7">
         <v>20.615475</v>
       </c>
       <c r="C7">
-        <v>1492265572</v>
+        <v>1495457725</v>
       </c>
       <c r="D7">
         <v>2987.75</v>
@@ -12035,25 +13375,25 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="G7">
-        <v>1492265530</v>
+        <v>1495457704</v>
       </c>
       <c r="H7" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="I7" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="J7" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="M7">
         <v>20.615475</v>
@@ -12061,13 +13401,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="B8">
         <v>20.615475</v>
       </c>
       <c r="C8">
-        <v>1492265573</v>
+        <v>1495457726</v>
       </c>
       <c r="D8">
         <v>2987.75</v>
@@ -12076,25 +13416,25 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="G8">
-        <v>1492265531</v>
+        <v>1495457705</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I8" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="J8" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="M8">
         <v>20.615475</v>
@@ -12102,13 +13442,13 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="B9">
         <v>21.978432</v>
       </c>
       <c r="C9">
-        <v>1492265574</v>
+        <v>1495457727</v>
       </c>
       <c r="D9">
         <v>3185.28</v>
@@ -12117,25 +13457,25 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="G9">
-        <v>1492265532</v>
+        <v>1495457706</v>
       </c>
       <c r="H9" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="I9" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="J9" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="M9">
         <v>21.978432</v>
@@ -12143,13 +13483,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="B10">
         <v>21.978432</v>
       </c>
       <c r="C10">
-        <v>1492265575</v>
+        <v>1495457728</v>
       </c>
       <c r="D10">
         <v>3185.28</v>
@@ -12158,25 +13498,25 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="G10">
-        <v>1492265533</v>
+        <v>1495457707</v>
       </c>
       <c r="H10" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I10" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="J10" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="M10">
         <v>21.978432</v>
